--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B2" t="n">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C2" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D2" t="n">
-        <v>2.363467011852974</v>
+        <v>2.420451784801129</v>
       </c>
       <c r="E2" t="n">
-        <v>1.80307998226211</v>
+        <v>1.861727032860234</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5603870295908637</v>
+        <v>-0.5587247519408954</v>
       </c>
       <c r="G2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>30.98888180147378</v>
+        <v>30.77353177219459</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K2" t="n">
-        <v>136.2051778077701</v>
+        <v>139.0221752406079</v>
       </c>
       <c r="L2" t="n">
-        <v>9.14091559410009</v>
+        <v>9.275675721269364</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8354486293541892</v>
+        <v>0.8665389633222623</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.543859649122807</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3488365600569736</v>
+        <v>0.3643823381127543</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8406708995017336</v>
+        <v>0.813806072032532</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -646,37 +646,37 @@
         <v>1096</v>
       </c>
       <c r="B3" t="n">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C3" t="n">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D3" t="n">
-        <v>2.107386153627941</v>
+        <v>2.143478149837767</v>
       </c>
       <c r="E3" t="n">
-        <v>1.546999124037077</v>
+        <v>1.584753397896871</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5603870295908637</v>
+        <v>-0.5587247519408954</v>
       </c>
       <c r="G3" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>64.05912264524204</v>
+        <v>63.26718758700827</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K3" t="n">
-        <v>139.8996611258466</v>
+        <v>141.2230010487505</v>
       </c>
       <c r="L3" t="n">
-        <v>8.150500454578204</v>
+        <v>8.21425502394592</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7931174415592542</v>
+        <v>0.8127671969421579</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3415269161761675</v>
+        <v>0.3980139576254639</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7917894911016524</v>
+        <v>0.7882880264894646</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D4" t="n">
-        <v>2.837526418973295</v>
+        <v>2.894074784253452</v>
       </c>
       <c r="E4" t="n">
-        <v>2.093152533268584</v>
+        <v>2.15143720248795</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7443738857047112</v>
+        <v>-0.7426375817655019</v>
       </c>
       <c r="G4" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H4" t="n">
-        <v>149.0294841796664</v>
+        <v>107.6085345554731</v>
       </c>
       <c r="I4" t="n">
         <v>67</v>
       </c>
       <c r="J4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" t="n">
-        <v>292.9681959047715</v>
+        <v>294.8296745929485</v>
       </c>
       <c r="L4" t="n">
-        <v>10.64405528060747</v>
+        <v>10.85846654668408</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6732602704045468</v>
+        <v>0.6779018766757264</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.7282608695652174</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2737256123681165</v>
+        <v>0.2689992315238307</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9259605071559357</v>
+        <v>0.9122383759781844</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="B5" t="n">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="C5" t="n">
-        <v>569</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>2.402207766820941</v>
+        <v>2.22855224568328</v>
       </c>
       <c r="E5" t="n">
-        <v>1.65783388111623</v>
+        <v>1.485914663917779</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7443738857047112</v>
+        <v>-0.7426375817655019</v>
       </c>
       <c r="G5" t="n">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>27.00994433302782</v>
+        <v>20.73128501931984</v>
       </c>
       <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
         <v>25</v>
       </c>
-      <c r="J5" t="n">
-        <v>134</v>
-      </c>
       <c r="K5" t="n">
-        <v>252.1167525501851</v>
+        <v>79.88624507640581</v>
       </c>
       <c r="L5" t="n">
-        <v>9.011099278081241</v>
+        <v>8.361449448007889</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8210305315819297</v>
+        <v>0.6445994108428202</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1865671641791045</v>
+        <v>0.6</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2628852002127871</v>
+        <v>0.043587464697343</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8801012665580905</v>
+        <v>0.883473332736366</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2432</v>
+        <v>411</v>
       </c>
       <c r="B6" t="n">
-        <v>2454</v>
+        <v>434</v>
       </c>
       <c r="C6" t="n">
-        <v>2525</v>
+        <v>568</v>
       </c>
       <c r="D6" t="n">
-        <v>2.514282522340822</v>
+        <v>2.454199295041741</v>
       </c>
       <c r="E6" t="n">
-        <v>1.853130390423577</v>
+        <v>1.71156171327624</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6611521319172451</v>
+        <v>-0.7426375817655019</v>
       </c>
       <c r="G6" t="n">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="H6" t="n">
-        <v>33.26252569225835</v>
+        <v>26.67911109719824</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K6" t="n">
-        <v>124.6480009225558</v>
+        <v>249.3885696727113</v>
       </c>
       <c r="L6" t="n">
-        <v>7.405303463003671</v>
+        <v>9.208069220982711</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.9694460262665601</v>
+        <v>0.8097939612064733</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3098591549295774</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2349563481499241</v>
+        <v>0.2573257184674561</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9900442122431538</v>
+        <v>0.8599641330779055</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2525</v>
+        <v>2037</v>
       </c>
       <c r="B7" t="n">
-        <v>2562</v>
+        <v>2060</v>
       </c>
       <c r="C7" t="n">
-        <v>2652</v>
+        <v>2135</v>
       </c>
       <c r="D7" t="n">
-        <v>2.542538484294596</v>
+        <v>1.226041272508612</v>
       </c>
       <c r="E7" t="n">
-        <v>1.881386352377351</v>
+        <v>0.4834036907431099</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6611521319172451</v>
+        <v>-0.7426375817655019</v>
       </c>
       <c r="G7" t="n">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="H7" t="n">
-        <v>85.43281600729097</v>
+        <v>62.02891307918935</v>
       </c>
       <c r="I7" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>203.4684096212444</v>
+        <v>70.93279193522719</v>
       </c>
       <c r="L7" t="n">
-        <v>7.488525603334972</v>
+        <v>4.60006362476321</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7545148394728387</v>
+        <v>0.8842460337559932</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4111111111111111</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1664263023534687</v>
+        <v>0.2282023112145139</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6513740319464303</v>
+        <v>0.7760330977951346</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2652</v>
+        <v>2459</v>
       </c>
       <c r="B8" t="n">
-        <v>2756</v>
+        <v>2487</v>
       </c>
       <c r="C8" t="n">
-        <v>2998</v>
+        <v>2529</v>
       </c>
       <c r="D8" t="n">
-        <v>2.902805597096484</v>
+        <v>2.506815659327111</v>
       </c>
       <c r="E8" t="n">
-        <v>2.241653465179239</v>
+        <v>1.764178077561609</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6611521319172451</v>
+        <v>-0.7426375817655019</v>
       </c>
       <c r="G8" t="n">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>155.5353965740933</v>
+        <v>18.91079881562155</v>
       </c>
       <c r="I8" t="n">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="K8" t="n">
-        <v>430.1987788042426</v>
+        <v>145.1127242634088</v>
       </c>
       <c r="L8" t="n">
-        <v>8.549618489409813</v>
+        <v>9.405483964550994</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7688286604138561</v>
+        <v>0.6309281394286591</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4297520661157025</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3304095133566841</v>
+        <v>0.07720791715175715</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8849985892277865</v>
+        <v>0.8481044199007303</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1877</v>
+        <v>2529</v>
       </c>
       <c r="B9" t="n">
-        <v>1916</v>
+        <v>2562</v>
       </c>
       <c r="C9" t="n">
-        <v>2025</v>
+        <v>2701</v>
       </c>
       <c r="D9" t="n">
-        <v>3.55821289371727</v>
+        <v>2.938243755606352</v>
       </c>
       <c r="E9" t="n">
-        <v>3.018601310558363</v>
+        <v>2.19560617384085</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5396115831589063</v>
+        <v>-0.7426375817655019</v>
       </c>
       <c r="G9" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="H9" t="n">
-        <v>65.57273782195853</v>
+        <v>187.547141855232</v>
       </c>
       <c r="I9" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J9" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K9" t="n">
-        <v>289.247050034347</v>
+        <v>248.777372630251</v>
       </c>
       <c r="L9" t="n">
-        <v>17.97077262963903</v>
+        <v>11.02418696982118</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9130960749960583</v>
+        <v>0.8913168679207072</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3577981651376147</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="R9" t="n">
-        <v>0.207306627444494</v>
+        <v>0.4877456481471946</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9339464950385556</v>
+        <v>0.9460843338054177</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2648</v>
+        <v>1102</v>
       </c>
       <c r="B10" t="n">
-        <v>2783</v>
+        <v>1121</v>
       </c>
       <c r="C10" t="n">
-        <v>2998</v>
+        <v>1154</v>
       </c>
       <c r="D10" t="n">
-        <v>3.702355382889326</v>
+        <v>1.175294738100299</v>
       </c>
       <c r="E10" t="n">
-        <v>3.317225567653698</v>
+        <v>0.5073658228645229</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3851298152356279</v>
+        <v>-0.6679289152357761</v>
       </c>
       <c r="G10" t="n">
-        <v>350</v>
+        <v>52</v>
       </c>
       <c r="H10" t="n">
-        <v>37.92918824139088</v>
+        <v>16.06047282596296</v>
       </c>
       <c r="I10" t="n">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="K10" t="n">
-        <v>499.1267005376782</v>
+        <v>40.46897649660469</v>
       </c>
       <c r="L10" t="n">
-        <v>5.905974674167611</v>
+        <v>3.457372452806983</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.5819666426378879</v>
+        <v>0.8254844265870872</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3690645929189598</v>
+        <v>0.3212258922128113</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8797118624458226</v>
+        <v>0.9363761117647564</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>557</v>
+        <v>2432</v>
       </c>
       <c r="B11" t="n">
-        <v>586</v>
+        <v>2454</v>
       </c>
       <c r="C11" t="n">
-        <v>667</v>
+        <v>2528</v>
       </c>
       <c r="D11" t="n">
-        <v>3.084290943562419</v>
+        <v>2.625752027143943</v>
       </c>
       <c r="E11" t="n">
-        <v>2.523201159826397</v>
+        <v>1.957823111908167</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5610897837360224</v>
+        <v>-0.6679289152357761</v>
       </c>
       <c r="G11" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H11" t="n">
-        <v>72.30040398903714</v>
+        <v>36.62661911137411</v>
       </c>
       <c r="I11" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K11" t="n">
-        <v>162.0917385095267</v>
+        <v>127.6994409275309</v>
       </c>
       <c r="L11" t="n">
-        <v>6.457088327110478</v>
+        <v>7.724192436378315</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8305584429597318</v>
+        <v>0.9855324050628497</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3580246913580247</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2293797256785549</v>
+        <v>0.2851040081639989</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6600101936323668</v>
+        <v>0.9836999115898044</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2103</v>
+        <v>2528</v>
       </c>
       <c r="B12" t="n">
-        <v>2163</v>
+        <v>2561</v>
       </c>
       <c r="C12" t="n">
-        <v>2254</v>
+        <v>2654</v>
       </c>
       <c r="D12" t="n">
-        <v>3.288462552604242</v>
+        <v>2.589086547729244</v>
       </c>
       <c r="E12" t="n">
-        <v>2.615862676788571</v>
+        <v>1.921157632493468</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.672599875815671</v>
+        <v>-0.6679289152357761</v>
       </c>
       <c r="G12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4476428368903</v>
+        <v>79.1927037968203</v>
       </c>
       <c r="I12" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="J12" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K12" t="n">
-        <v>327.4836612239475</v>
+        <v>202.750658883195</v>
       </c>
       <c r="L12" t="n">
-        <v>21.48334746124706</v>
+        <v>7.616333348450939</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.6951280919369822</v>
+        <v>0.7898747557232115</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6593406593406593</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2889494568449415</v>
+        <v>0.1655131855052653</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9749620732280184</v>
+        <v>0.6810685860186969</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2254</v>
+        <v>2726</v>
       </c>
       <c r="B13" t="n">
-        <v>2284</v>
+        <v>2755</v>
       </c>
       <c r="C13" t="n">
-        <v>2352</v>
+        <v>2998</v>
       </c>
       <c r="D13" t="n">
-        <v>2.941684857311647</v>
+        <v>3.003749678500623</v>
       </c>
       <c r="E13" t="n">
-        <v>2.269084981495976</v>
+        <v>2.335820763264847</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.672599875815671</v>
+        <v>-0.6679289152357761</v>
       </c>
       <c r="G13" t="n">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="H13" t="n">
-        <v>42.33209455861197</v>
+        <v>151.9916006037911</v>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" t="n">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="K13" t="n">
-        <v>193.1529355658409</v>
+        <v>340.6721394391579</v>
       </c>
       <c r="L13" t="n">
-        <v>19.21786759015003</v>
+        <v>8.836150675159091</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.751580512922452</v>
+        <v>0.8538727942978275</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.1193415637860082</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0576087790249491</v>
+        <v>0.5241363864083014</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9710410252002545</v>
+        <v>0.8824099067050064</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2352</v>
+        <v>1878</v>
       </c>
       <c r="B14" t="n">
-        <v>2387</v>
+        <v>1927</v>
       </c>
       <c r="C14" t="n">
-        <v>2451</v>
+        <v>2027</v>
       </c>
       <c r="D14" t="n">
-        <v>3.089099353692547</v>
+        <v>3.558078887232733</v>
       </c>
       <c r="E14" t="n">
-        <v>2.416499477876876</v>
+        <v>3.017980230762255</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.672599875815671</v>
+        <v>-0.5400986564704775</v>
       </c>
       <c r="G14" t="n">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="H14" t="n">
-        <v>43.15767822876342</v>
+        <v>65.32662396574824</v>
       </c>
       <c r="I14" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J14" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>187.8196577834702</v>
+        <v>291.117478391806</v>
       </c>
       <c r="L14" t="n">
-        <v>20.18091849795726</v>
+        <v>17.93431805927196</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7770614331057732</v>
+        <v>0.7932959252634155</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.546875</v>
+        <v>0.49</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1442562120355564</v>
+        <v>0.3541699021974818</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9098856567187708</v>
+        <v>0.899477193763596</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2451</v>
+        <v>2649</v>
       </c>
       <c r="B15" t="n">
-        <v>2480</v>
+        <v>2782</v>
       </c>
       <c r="C15" t="n">
-        <v>2566</v>
+        <v>2998</v>
       </c>
       <c r="D15" t="n">
-        <v>1.525469715295643</v>
+        <v>3.849909767012112</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8528698394799716</v>
+        <v>3.465625501226355</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.672599875815671</v>
+        <v>-0.3842842657857575</v>
       </c>
       <c r="G15" t="n">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="H15" t="n">
-        <v>32.36625936063547</v>
+        <v>35.69662582592991</v>
       </c>
       <c r="I15" t="n">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="K15" t="n">
-        <v>98.75757385525638</v>
+        <v>498.8597790646635</v>
       </c>
       <c r="L15" t="n">
-        <v>9.965810895232041</v>
+        <v>6.114266766744161</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8369528228888914</v>
+        <v>0.5359657029168767</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3372093023255814</v>
+        <v>0.6157407407407407</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2204011851400065</v>
+        <v>0.3739160466452565</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6204755283326371</v>
+        <v>0.8604815550874781</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>752</v>
+        <v>2028</v>
       </c>
       <c r="B16" t="n">
-        <v>784</v>
+        <v>2059</v>
       </c>
       <c r="C16" t="n">
-        <v>866</v>
+        <v>2152</v>
       </c>
       <c r="D16" t="n">
-        <v>4.772683278095019</v>
+        <v>2.180631336378577</v>
       </c>
       <c r="E16" t="n">
-        <v>4.335602763710919</v>
+        <v>1.610392842728067</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4370805143840999</v>
+        <v>-0.5702384936505104</v>
       </c>
       <c r="G16" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H16" t="n">
-        <v>50.17094549419699</v>
+        <v>47.84347255309808</v>
       </c>
       <c r="I16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K16" t="n">
-        <v>241.7727849926527</v>
+        <v>157.6296502827728</v>
       </c>
       <c r="L16" t="n">
-        <v>14.27208333817475</v>
+        <v>4.55261687900852</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.9149276145959311</v>
+        <v>0.9090313818194918</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2208710270723448</v>
+        <v>0.1974712942148752</v>
       </c>
       <c r="S16" t="n">
-        <v>0.954466839727966</v>
+        <v>0.8107901411470666</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2805</v>
+        <v>2152</v>
       </c>
       <c r="B17" t="n">
-        <v>2856</v>
+        <v>2187</v>
       </c>
       <c r="C17" t="n">
-        <v>2998</v>
+        <v>2242</v>
       </c>
       <c r="D17" t="n">
-        <v>2.348952905990935</v>
+        <v>3.331356492720484</v>
       </c>
       <c r="E17" t="n">
-        <v>1.944230548366453</v>
+        <v>2.761117999069973</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4047223576244819</v>
+        <v>-0.5702384936505104</v>
       </c>
       <c r="G17" t="n">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="H17" t="n">
-        <v>59.30224324208712</v>
+        <v>126.2982948467952</v>
       </c>
       <c r="I17" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="K17" t="n">
-        <v>231.3764497780587</v>
+        <v>201.6971297022159</v>
       </c>
       <c r="L17" t="n">
-        <v>6.051064104903262</v>
+        <v>6.955045332853492</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7925695687377194</v>
+        <v>0.7537847628525592</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3591549295774648</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4080518979232163</v>
+        <v>0.3259440029185586</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4084041619955576</v>
+        <v>0.8904785123016298</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1624</v>
+        <v>555</v>
       </c>
       <c r="B18" t="n">
-        <v>1653</v>
+        <v>587</v>
       </c>
       <c r="C18" t="n">
-        <v>1915</v>
+        <v>649</v>
       </c>
       <c r="D18" t="n">
-        <v>2.740156639919632</v>
+        <v>3.003505366463137</v>
       </c>
       <c r="E18" t="n">
-        <v>2.162829609635124</v>
+        <v>2.328109877571112</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5773270302845082</v>
+        <v>-0.6753954888920248</v>
       </c>
       <c r="G18" t="n">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="H18" t="n">
-        <v>28.57583043765067</v>
+        <v>73.5953182024349</v>
       </c>
       <c r="I18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J18" t="n">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="K18" t="n">
-        <v>390.7296579258294</v>
+        <v>177.1414079532238</v>
       </c>
       <c r="L18" t="n">
-        <v>8.136735002141991</v>
+        <v>19.60667243957317</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7534977958212163</v>
+        <v>0.8140325917345864</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1106870229007634</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4541852532271801</v>
+        <v>0.213157852029123</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8227076479270058</v>
+        <v>0.9479467504560254</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2404</v>
+        <v>2104</v>
       </c>
       <c r="B19" t="n">
-        <v>2430</v>
+        <v>2163</v>
       </c>
       <c r="C19" t="n">
-        <v>2498</v>
+        <v>2255</v>
       </c>
       <c r="D19" t="n">
-        <v>2.460808514300927</v>
+        <v>3.376952273471188</v>
       </c>
       <c r="E19" t="n">
-        <v>1.920057892855225</v>
+        <v>2.701556784579163</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5407506214457021</v>
+        <v>-0.6753954888920248</v>
       </c>
       <c r="G19" t="n">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="H19" t="n">
-        <v>30.5250869131437</v>
+        <v>101.4554954274822</v>
       </c>
       <c r="I19" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="J19" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K19" t="n">
-        <v>120.9743185754896</v>
+        <v>328.8726797694865</v>
       </c>
       <c r="L19" t="n">
-        <v>6.81085508247949</v>
+        <v>22.04450766405319</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8999433216482156</v>
+        <v>0.6530976854085255</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.6413043478260869</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3058546889905053</v>
+        <v>0.299657407745842</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9067473838142643</v>
+        <v>0.9586356301860537</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>856</v>
+        <v>2255</v>
       </c>
       <c r="B20" t="n">
-        <v>888</v>
+        <v>2284</v>
       </c>
       <c r="C20" t="n">
-        <v>931</v>
+        <v>2354</v>
       </c>
       <c r="D20" t="n">
-        <v>2.398223126485356</v>
+        <v>3.00408951436532</v>
       </c>
       <c r="E20" t="n">
-        <v>1.805776654122658</v>
+        <v>2.328694025473295</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5924464723626984</v>
+        <v>-0.6753954888920248</v>
       </c>
       <c r="G20" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="H20" t="n">
-        <v>37.1382139536081</v>
+        <v>40.79963114479369</v>
       </c>
       <c r="I20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K20" t="n">
-        <v>112.3484608037159</v>
+        <v>194.2939443954291</v>
       </c>
       <c r="L20" t="n">
-        <v>6.441925127667401</v>
+        <v>19.61048571612071</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7918873584417528</v>
+        <v>0.7815390673263963</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2649004862913857</v>
+        <v>0.0713269148919671</v>
       </c>
       <c r="S20" t="n">
-        <v>0.972650897826044</v>
+        <v>0.9702146196935658</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>931</v>
+        <v>2354</v>
       </c>
       <c r="B21" t="n">
-        <v>972</v>
+        <v>2385</v>
       </c>
       <c r="C21" t="n">
-        <v>1054</v>
+        <v>2452</v>
       </c>
       <c r="D21" t="n">
-        <v>2.365933444900254</v>
+        <v>3.178853306718211</v>
       </c>
       <c r="E21" t="n">
-        <v>1.773486972537555</v>
+        <v>2.503457817826186</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5924464723626984</v>
+        <v>-0.6753954888920248</v>
       </c>
       <c r="G21" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="H21" t="n">
-        <v>40.70522079903458</v>
+        <v>41.24928085725696</v>
       </c>
       <c r="I21" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J21" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K21" t="n">
-        <v>184.1179893652657</v>
+        <v>186.5547209592557</v>
       </c>
       <c r="L21" t="n">
-        <v>6.355191033216277</v>
+        <v>20.7513314989254</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8418962309289232</v>
+        <v>0.8033207853917637</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2286160829147564</v>
+        <v>0.1414729448846856</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8467315918064304</v>
+        <v>0.8826927112345697</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1054</v>
+        <v>752</v>
       </c>
       <c r="B22" t="n">
-        <v>1093</v>
+        <v>784</v>
       </c>
       <c r="C22" t="n">
-        <v>1314</v>
+        <v>866</v>
       </c>
       <c r="D22" t="n">
-        <v>3.724490108970097</v>
+        <v>4.993683475507849</v>
       </c>
       <c r="E22" t="n">
-        <v>3.132043636607398</v>
+        <v>4.554244022009502</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5924464723626984</v>
+        <v>-0.4394394534983479</v>
       </c>
       <c r="G22" t="n">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0393509899836</v>
+        <v>43.51284476554531</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J22" t="n">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>394.898898496864</v>
+        <v>241.5368555926997</v>
       </c>
       <c r="L22" t="n">
-        <v>10.00444293766995</v>
+        <v>14.60314273254772</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8827017710767096</v>
+        <v>0.9308679563613199</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4056555072289434</v>
+        <v>0.253703983394351</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8935904719799794</v>
+        <v>0.9434563500194837</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1314</v>
+        <v>2938</v>
       </c>
       <c r="B23" t="n">
-        <v>1438</v>
+        <v>2960</v>
       </c>
       <c r="C23" t="n">
-        <v>1634</v>
+        <v>2998</v>
       </c>
       <c r="D23" t="n">
-        <v>2.663201451039</v>
+        <v>2.296328786280061</v>
       </c>
       <c r="E23" t="n">
-        <v>2.070754978676302</v>
+        <v>1.856889332781714</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5924464723626984</v>
+        <v>-0.4394394534983479</v>
       </c>
       <c r="G23" t="n">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="H23" t="n">
-        <v>98.37993047560326</v>
+        <v>18.54667199576988</v>
       </c>
       <c r="I23" t="n">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="K23" t="n">
-        <v>415.6740767513942</v>
+        <v>102.5864105483199</v>
       </c>
       <c r="L23" t="n">
-        <v>7.153689812269926</v>
+        <v>6.715206758973745</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.5870972504684242</v>
+        <v>0.7542452591476879</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3617760081980396</v>
+        <v>0.1705126935200257</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6047803767504674</v>
+        <v>0.8209582276867247</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>79</v>
+        <v>694</v>
       </c>
       <c r="B24" t="n">
-        <v>132</v>
+        <v>722</v>
       </c>
       <c r="C24" t="n">
-        <v>237</v>
+        <v>765</v>
       </c>
       <c r="D24" t="n">
-        <v>2.627374138323535</v>
+        <v>2.428875101930565</v>
       </c>
       <c r="E24" t="n">
-        <v>2.014852934672504</v>
+        <v>1.946453443495814</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6125212036510316</v>
+        <v>-0.4824216584347507</v>
       </c>
       <c r="G24" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="H24" t="n">
-        <v>72.15995985622892</v>
+        <v>187.3004110118278</v>
       </c>
       <c r="I24" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="K24" t="n">
-        <v>205.5793555818616</v>
+        <v>125.7474434436499</v>
       </c>
       <c r="L24" t="n">
-        <v>13.06212229464882</v>
+        <v>5.559008425476202</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.6614135103653721</v>
+        <v>0.6934523879978342</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5047619047619047</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4642816741695311</v>
+        <v>0.1492041613858205</v>
       </c>
       <c r="S24" t="n">
-        <v>0.4396454606062352</v>
+        <v>0.9623086875681388</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>237</v>
+        <v>2721</v>
       </c>
       <c r="B25" t="n">
-        <v>272</v>
+        <v>2737</v>
       </c>
       <c r="C25" t="n">
-        <v>338</v>
+        <v>2766</v>
       </c>
       <c r="D25" t="n">
-        <v>2.786985515296629</v>
+        <v>2.490002082959675</v>
       </c>
       <c r="E25" t="n">
-        <v>2.174464311645598</v>
+        <v>2.007580424524924</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6125212036510316</v>
+        <v>-0.4824216584347507</v>
       </c>
       <c r="G25" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5193430901419</v>
+        <v>18.14832044250306</v>
       </c>
       <c r="I25" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J25" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K25" t="n">
-        <v>192.3722230704104</v>
+        <v>78.17076145190062</v>
       </c>
       <c r="L25" t="n">
-        <v>13.8556382599731</v>
+        <v>5.698910803451363</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7821683348388351</v>
+        <v>0.7588475374974512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6073046646562124</v>
+        <v>0.09644488987793717</v>
       </c>
       <c r="S25" t="n">
-        <v>0.870734322116551</v>
+        <v>0.982543514167127</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>338</v>
+        <v>114</v>
       </c>
       <c r="B26" t="n">
-        <v>370</v>
+        <v>158</v>
       </c>
       <c r="C26" t="n">
-        <v>478</v>
+        <v>230</v>
       </c>
       <c r="D26" t="n">
-        <v>2.467722608796551</v>
+        <v>4.769271057737434</v>
       </c>
       <c r="E26" t="n">
-        <v>1.855201405145519</v>
+        <v>4.278542728938051</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6125212036510316</v>
+        <v>-0.4907283287993827</v>
       </c>
       <c r="G26" t="n">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H26" t="n">
-        <v>30.13754918080167</v>
+        <v>43.51499182199822</v>
       </c>
       <c r="I26" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J26" t="n">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="K26" t="n">
-        <v>158.5739010947991</v>
+        <v>265.3087303917651</v>
       </c>
       <c r="L26" t="n">
-        <v>12.26840670888917</v>
+        <v>14.28768929470358</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8866531188160514</v>
+        <v>0.8057870464554027</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5318702944894144</v>
+        <v>0.1689256315388594</v>
       </c>
       <c r="S26" t="n">
-        <v>0.904001051615806</v>
+        <v>0.9637513211388278</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B27" t="n">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="C27" t="n">
-        <v>421</v>
+        <v>287</v>
       </c>
       <c r="D27" t="n">
-        <v>2.736629073978586</v>
+        <v>1.306474195920995</v>
       </c>
       <c r="E27" t="n">
-        <v>2.278172632010717</v>
+        <v>0.8157458671216125</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4584564419678693</v>
+        <v>-0.4907283287993827</v>
       </c>
       <c r="G27" t="n">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="H27" t="n">
-        <v>128.6168029024544</v>
+        <v>17.13619574976357</v>
       </c>
       <c r="I27" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J27" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="K27" t="n">
-        <v>356.8513277944734</v>
+        <v>41.61117361528152</v>
       </c>
       <c r="L27" t="n">
-        <v>5.940174000165279</v>
+        <v>3.913909936526517</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.5722533109608111</v>
+        <v>0.7710080444470568</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6272727272727273</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1837137469390336</v>
+        <v>0.2627090830596471</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6931874155525598</v>
+        <v>0.8358713468189862</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>421</v>
+        <v>1312</v>
       </c>
       <c r="B28" t="n">
-        <v>456</v>
+        <v>1337</v>
       </c>
       <c r="C28" t="n">
-        <v>504</v>
+        <v>1398</v>
       </c>
       <c r="D28" t="n">
-        <v>3.243689096630292</v>
+        <v>2.069522452364936</v>
       </c>
       <c r="E28" t="n">
-        <v>2.785232654662423</v>
+        <v>1.578794123565553</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4584564419678693</v>
+        <v>-0.4907283287993827</v>
       </c>
       <c r="G28" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H28" t="n">
-        <v>184.6849240385775</v>
+        <v>130.6466073329623</v>
       </c>
       <c r="I28" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J28" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="K28" t="n">
-        <v>171.1340574610431</v>
+        <v>119.137343383183</v>
       </c>
       <c r="L28" t="n">
-        <v>7.040807181226941</v>
+        <v>6.199835033454931</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.66808244105786</v>
+        <v>0.8288737406326756</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1348993501421089</v>
+        <v>0.3729202124116386</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9866434616332648</v>
+        <v>0.8803202468344152</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>199</v>
+        <v>1398</v>
       </c>
       <c r="B29" t="n">
-        <v>228</v>
+        <v>1424</v>
       </c>
       <c r="C29" t="n">
-        <v>324</v>
+        <v>1465</v>
       </c>
       <c r="D29" t="n">
-        <v>2.098100694336617</v>
+        <v>1.75620934323564</v>
       </c>
       <c r="E29" t="n">
-        <v>1.47963778325595</v>
+        <v>1.265481014436257</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6184629110806664</v>
+        <v>-0.4907283287993827</v>
       </c>
       <c r="G29" t="n">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H29" t="n">
-        <v>25.68760269995698</v>
+        <v>28.30139204001193</v>
       </c>
       <c r="I29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J29" t="n">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="K29" t="n">
-        <v>213.8646548956217</v>
+        <v>73.65156864042821</v>
       </c>
       <c r="L29" t="n">
-        <v>8.81366072014109</v>
+        <v>5.261217726742106</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.6866099292044114</v>
+        <v>0.8377346638073003</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="R29" t="n">
-        <v>0.08724445370623567</v>
+        <v>0.2833681831916636</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5796780369564034</v>
+        <v>0.9732430229630571</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2030</v>
+        <v>806</v>
       </c>
       <c r="B30" t="n">
-        <v>2065</v>
+        <v>825</v>
       </c>
       <c r="C30" t="n">
-        <v>2123</v>
+        <v>882</v>
       </c>
       <c r="D30" t="n">
-        <v>2.396371440089455</v>
+        <v>0.7363041771372747</v>
       </c>
       <c r="E30" t="n">
-        <v>1.777908529008788</v>
+        <v>0.3191410575324118</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6184629110806664</v>
+        <v>-0.4171631196048628</v>
       </c>
       <c r="G30" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H30" t="n">
-        <v>32.38418245270259</v>
+        <v>103.237581878168</v>
       </c>
       <c r="I30" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J30" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30" t="n">
-        <v>117.5983026710689</v>
+        <v>40.4856683602067</v>
       </c>
       <c r="L30" t="n">
-        <v>10.06663068621804</v>
+        <v>5.16460619772707</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8454507731057779</v>
+        <v>0.7674885252820997</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.603448275862069</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2383226438754551</v>
+        <v>0.1931386899453877</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9788234227235824</v>
+        <v>0.5411049221491371</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,85 +3051,2665 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1481</v>
+        <v>2716</v>
       </c>
       <c r="B31" t="n">
-        <v>1515</v>
+        <v>2734</v>
       </c>
       <c r="C31" t="n">
-        <v>1675</v>
+        <v>2798</v>
       </c>
       <c r="D31" t="n">
-        <v>3.251082805471244</v>
+        <v>0.7568226693702285</v>
       </c>
       <c r="E31" t="n">
-        <v>2.608272982256379</v>
+        <v>0.3396595497653657</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6428098232148649</v>
+        <v>-0.4171631196048628</v>
       </c>
       <c r="G31" t="n">
+        <v>82</v>
+      </c>
+      <c r="H31" t="n">
+        <v>34.30899411197925</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18</v>
+      </c>
+      <c r="J31" t="n">
+        <v>64</v>
+      </c>
+      <c r="K31" t="n">
+        <v>26.03944237905556</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.30852760336996</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9713295713638644</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.2876775762187744</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.9317451982789201</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>135</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>205</v>
+      </c>
+      <c r="B32" t="n">
+        <v>235</v>
+      </c>
+      <c r="C32" t="n">
+        <v>410</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.40198438774859</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.87437742538336</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.5276069623652303</v>
+      </c>
+      <c r="G32" t="n">
+        <v>205</v>
+      </c>
+      <c r="H32" t="n">
+        <v>225.6119851982693</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>175</v>
+      </c>
+      <c r="K32" t="n">
+        <v>515.6672394259629</v>
+      </c>
+      <c r="L32" t="n">
+        <v>23.88908149291667</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.832736543879556</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.3161188832479616</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.8253811815855316</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>136</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>515</v>
+      </c>
+      <c r="B33" t="n">
+        <v>539</v>
+      </c>
+      <c r="C33" t="n">
+        <v>582</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.06281851226438</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.495308788357537</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.5675097239068428</v>
+      </c>
+      <c r="G33" t="n">
+        <v>67</v>
+      </c>
+      <c r="H33" t="n">
+        <v>22.88190334916965</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>43</v>
+      </c>
+      <c r="K33" t="n">
+        <v>88.7478191697399</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.470420458567163</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8225257703862187</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.5581395348837209</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.1910088819105721</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.945520050920209</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>137</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>582</v>
+      </c>
+      <c r="B34" t="n">
+        <v>600</v>
+      </c>
+      <c r="C34" t="n">
+        <v>647</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.014741965717386</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.447232241810543</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.5675097239068428</v>
+      </c>
+      <c r="G34" t="n">
+        <v>65</v>
+      </c>
+      <c r="H34" t="n">
+        <v>25.23554459404227</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18</v>
+      </c>
+      <c r="J34" t="n">
+        <v>47</v>
+      </c>
+      <c r="K34" t="n">
+        <v>106.2998360467262</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.366231759472633</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8264619330597566</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.3829787234042553</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.156224623090514</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.7187476267067662</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>138</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2622</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2662</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2774</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.994626212676048</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.427116488769205</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.5675097239068428</v>
+      </c>
+      <c r="G35" t="n">
+        <v>152</v>
+      </c>
+      <c r="H35" t="n">
+        <v>100.3814985421723</v>
+      </c>
+      <c r="I35" t="n">
+        <v>40</v>
+      </c>
+      <c r="J35" t="n">
+        <v>112</v>
+      </c>
+      <c r="K35" t="n">
+        <v>173.8318747014835</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.322638067928354</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7981299416846638</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1378584421593437</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8513532625706951</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>139</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>170</v>
+      </c>
+      <c r="B36" t="n">
+        <v>221</v>
+      </c>
+      <c r="C36" t="n">
+        <v>477</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.048021325476919</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.49802805977426</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.5499932657026586</v>
+      </c>
+      <c r="G36" t="n">
+        <v>307</v>
+      </c>
+      <c r="H36" t="n">
+        <v>42.16849293620439</v>
+      </c>
+      <c r="I36" t="n">
+        <v>51</v>
+      </c>
+      <c r="J36" t="n">
+        <v>256</v>
+      </c>
+      <c r="K36" t="n">
+        <v>327.3203416903578</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.955300294264801</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.5982713323998761</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.19921875</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7739638060292918</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.2614681163088202</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>140</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>620</v>
+      </c>
+      <c r="B37" t="n">
+        <v>632</v>
+      </c>
+      <c r="C37" t="n">
+        <v>739</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.253955832564116</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.703962566861458</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5499932657026586</v>
+      </c>
+      <c r="G37" t="n">
+        <v>119</v>
+      </c>
+      <c r="H37" t="n">
+        <v>15.09352037629287</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J37" t="n">
+        <v>107</v>
+      </c>
+      <c r="K37" t="n">
+        <v>212.0334184104648</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7.425223626418243</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7427622909031975</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.1121495327102804</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.445004010609628</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.7425016586454172</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>141</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2675</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2726</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2792</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.747873874526624</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.197880608823965</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.5499932657026586</v>
+      </c>
+      <c r="G38" t="n">
+        <v>117</v>
+      </c>
+      <c r="H38" t="n">
+        <v>23.33563141076866</v>
+      </c>
+      <c r="I38" t="n">
+        <v>51</v>
+      </c>
+      <c r="J38" t="n">
+        <v>66</v>
+      </c>
+      <c r="K38" t="n">
+        <v>210.1357670767234</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.270391813976931</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.5684340231873263</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.3504631308080263</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.9774199722877505</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>142</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2808</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2856</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.292135485733051</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.874226451675843</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.417909034057208</v>
+      </c>
+      <c r="G39" t="n">
+        <v>190</v>
+      </c>
+      <c r="H39" t="n">
+        <v>73.84214482672041</v>
+      </c>
+      <c r="I39" t="n">
+        <v>48</v>
+      </c>
+      <c r="J39" t="n">
+        <v>142</v>
+      </c>
+      <c r="K39" t="n">
+        <v>234.8288856669748</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.741290826795346</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8050833463601057</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.3896416908677366</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.3901693481410899</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>143</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1626</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1653</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.874755965770479</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.300142667870322</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.5746132979001574</v>
+      </c>
+      <c r="G40" t="n">
+        <v>287</v>
+      </c>
+      <c r="H40" t="n">
+        <v>25.3114311988586</v>
+      </c>
+      <c r="I40" t="n">
+        <v>27</v>
+      </c>
+      <c r="J40" t="n">
+        <v>260</v>
+      </c>
+      <c r="K40" t="n">
+        <v>384.8558595763625</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.429221770787761</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7412904506050498</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.1038461538461539</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.459537358570448</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7853950373576806</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>144</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1435</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.521556187975512</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.967737242313497</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5538189456620144</v>
+      </c>
+      <c r="G41" t="n">
+        <v>105</v>
+      </c>
+      <c r="H41" t="n">
+        <v>160.8251790655959</v>
+      </c>
+      <c r="I41" t="n">
+        <v>33</v>
+      </c>
+      <c r="J41" t="n">
+        <v>72</v>
+      </c>
+      <c r="K41" t="n">
+        <v>190.5269618160484</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.925048477763896</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8021581150602142</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2176139958394447</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.8600902290028994</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>145</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2405</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2428</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.565014322941503</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.011195377279488</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.5538189456620144</v>
+      </c>
+      <c r="G42" t="n">
+        <v>94</v>
+      </c>
+      <c r="H42" t="n">
+        <v>28.76811917843588</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>71</v>
+      </c>
+      <c r="K42" t="n">
+        <v>123.1971661354609</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.044399255203568</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.9181136107078288</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.323943661971831</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2843347983454792</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9025530986121465</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>146</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>421</v>
+      </c>
+      <c r="B43" t="n">
+        <v>444</v>
+      </c>
+      <c r="C43" t="n">
+        <v>516</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.173885669413823</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.696090897810244</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.4777947716035786</v>
+      </c>
+      <c r="G43" t="n">
+        <v>95</v>
+      </c>
+      <c r="H43" t="n">
+        <v>145.0684070310044</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23</v>
+      </c>
+      <c r="J43" t="n">
+        <v>72</v>
+      </c>
+      <c r="K43" t="n">
+        <v>125.9954633092942</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.44416856041322</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8678802932513558</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2532698046247837</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8634816989545242</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>147</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.628103806232655</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.150309034629076</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.4777947716035786</v>
+      </c>
+      <c r="G44" t="n">
+        <v>78</v>
+      </c>
+      <c r="H44" t="n">
+        <v>159.7654081587411</v>
+      </c>
+      <c r="I44" t="n">
+        <v>31</v>
+      </c>
+      <c r="J44" t="n">
+        <v>47</v>
+      </c>
+      <c r="K44" t="n">
+        <v>92.52751610203266</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.077340257443695</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7168489177243844</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.2717122764090059</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7753007894878807</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>148</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>859</v>
+      </c>
+      <c r="B45" t="n">
+        <v>886</v>
+      </c>
+      <c r="C45" t="n">
+        <v>932</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.527137104080684</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.916588957677591</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.6105481464030932</v>
+      </c>
+      <c r="G45" t="n">
+        <v>73</v>
+      </c>
+      <c r="H45" t="n">
+        <v>37.09257768006319</v>
+      </c>
+      <c r="I45" t="n">
+        <v>27</v>
+      </c>
+      <c r="J45" t="n">
+        <v>46</v>
+      </c>
+      <c r="K45" t="n">
+        <v>114.2608638547019</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6.745719496943411</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8233662008465923</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.2458792273353942</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.941100365987067</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>149</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>932</v>
+      </c>
+      <c r="B46" t="n">
+        <v>967</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1046</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.298430294026642</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.687882147623549</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.6105481464030932</v>
+      </c>
+      <c r="G46" t="n">
+        <v>114</v>
+      </c>
+      <c r="H46" t="n">
+        <v>43.02837037404481</v>
+      </c>
+      <c r="I46" t="n">
+        <v>35</v>
+      </c>
+      <c r="J46" t="n">
+        <v>79</v>
+      </c>
+      <c r="K46" t="n">
+        <v>177.7588061190486</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.135229474390196</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8192691605183766</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.1623715506397419</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.785187099656905</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>150</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.761602829536463</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.15105468313337</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.6105481464030932</v>
+      </c>
+      <c r="G47" t="n">
+        <v>271</v>
+      </c>
+      <c r="H47" t="n">
+        <v>140.4333153080472</v>
+      </c>
+      <c r="I47" t="n">
+        <v>46</v>
+      </c>
+      <c r="J47" t="n">
+        <v>225</v>
+      </c>
+      <c r="K47" t="n">
+        <v>407.5793632549345</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10.04089469700235</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8271863150383403</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.2044444444444445</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3339803936148676</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8972128115496883</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>151</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1368</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1568</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.673717364073478</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.063169217670385</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.6105481464030932</v>
+      </c>
+      <c r="G48" t="n">
+        <v>200</v>
+      </c>
+      <c r="H48" t="n">
+        <v>95.39494259137814</v>
+      </c>
+      <c r="I48" t="n">
+        <v>70</v>
+      </c>
+      <c r="J48" t="n">
+        <v>130</v>
+      </c>
+      <c r="K48" t="n">
+        <v>311.3113176614366</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.136988065674323</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7216934267131667</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1729823513119226</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.8835842466075825</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>152</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1756</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1797</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.366226007245025</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.755677860841932</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.6105481464030932</v>
+      </c>
+      <c r="G49" t="n">
+        <v>105</v>
+      </c>
+      <c r="H49" t="n">
+        <v>65.38038688716892</v>
+      </c>
+      <c r="I49" t="n">
+        <v>41</v>
+      </c>
+      <c r="J49" t="n">
+        <v>64</v>
+      </c>
+      <c r="K49" t="n">
+        <v>158.7516363564897</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.316197441552704</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.7020047845690368</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.1637180545885807</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.7634748723745102</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>153</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1156</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.047050565935192</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.549577580062216</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.4974729858729758</v>
+      </c>
+      <c r="G50" t="n">
+        <v>95</v>
+      </c>
+      <c r="H50" t="n">
+        <v>78.84197938723037</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29</v>
+      </c>
+      <c r="J50" t="n">
+        <v>66</v>
+      </c>
+      <c r="K50" t="n">
+        <v>282.4484672548719</v>
+      </c>
+      <c r="L50" t="n">
+        <v>15.02631217131192</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8026094992602057</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.4393939393939394</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.1822824471225335</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.9027911524047149</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>154</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2167</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.760645428783191</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.286370918069732</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.4742745107134597</v>
+      </c>
+      <c r="G51" t="n">
+        <v>72</v>
+      </c>
+      <c r="H51" t="n">
+        <v>39.35988473996258</v>
+      </c>
+      <c r="I51" t="n">
+        <v>23</v>
+      </c>
+      <c r="J51" t="n">
+        <v>49</v>
+      </c>
+      <c r="K51" t="n">
+        <v>175.2883847230696</v>
+      </c>
+      <c r="L51" t="n">
+        <v>13.33744613008705</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8694343936056169</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2250507336447266</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9967823912652282</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>155</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2947</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2964</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.243462761543619</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.769188250830159</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.4742745107134597</v>
+      </c>
+      <c r="G52" t="n">
+        <v>51</v>
+      </c>
+      <c r="H52" t="n">
+        <v>18.98359340178877</v>
+      </c>
+      <c r="I52" t="n">
+        <v>17</v>
+      </c>
+      <c r="J52" t="n">
+        <v>34</v>
+      </c>
+      <c r="K52" t="n">
+        <v>40.85335712685469</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.483690992104882</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.7564010828530153</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.1705347231953563</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.5751993442383139</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>156</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>240</v>
+      </c>
+      <c r="B53" t="n">
+        <v>270</v>
+      </c>
+      <c r="C53" t="n">
+        <v>341</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.898201415183264</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.2764501243169</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.6217512908663644</v>
+      </c>
+      <c r="G53" t="n">
+        <v>101</v>
+      </c>
+      <c r="H53" t="n">
+        <v>84.27104111034927</v>
+      </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>71</v>
+      </c>
+      <c r="K53" t="n">
+        <v>197.4664755791829</v>
+      </c>
+      <c r="L53" t="n">
+        <v>14.24736857603433</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8345882527720022</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.4225352112676056</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.5597411600217879</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.8615043454281983</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>157</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>341</v>
+      </c>
+      <c r="B54" t="n">
+        <v>372</v>
+      </c>
+      <c r="C54" t="n">
+        <v>481</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.54555698348674</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.923805692620375</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.6217512908663644</v>
+      </c>
+      <c r="G54" t="n">
+        <v>140</v>
+      </c>
+      <c r="H54" t="n">
+        <v>28.94469991076073</v>
+      </c>
+      <c r="I54" t="n">
+        <v>31</v>
+      </c>
+      <c r="J54" t="n">
+        <v>109</v>
+      </c>
+      <c r="K54" t="n">
+        <v>155.4570689365465</v>
+      </c>
+      <c r="L54" t="n">
+        <v>12.51379161746092</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8862724192926168</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.2844036697247707</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.5721046801931698</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.8920161581935222</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>158</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2493</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2533</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2672</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.893614141398631</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.271862850532267</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.6217512908663644</v>
+      </c>
+      <c r="G55" t="n">
+        <v>179</v>
+      </c>
+      <c r="H55" t="n">
+        <v>179.9175823866244</v>
+      </c>
+      <c r="I55" t="n">
+        <v>40</v>
+      </c>
+      <c r="J55" t="n">
+        <v>139</v>
+      </c>
+      <c r="K55" t="n">
+        <v>333.9869921481283</v>
+      </c>
+      <c r="L55" t="n">
+        <v>19.14075242484757</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8636530439385017</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.2877697841726619</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.5352630571344844</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.9577567657697004</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>159</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>243</v>
+      </c>
+      <c r="B56" t="n">
+        <v>305</v>
+      </c>
+      <c r="C56" t="n">
+        <v>424</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.798310980915444</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.344069396640204</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.45424158427524</v>
+      </c>
+      <c r="G56" t="n">
+        <v>181</v>
+      </c>
+      <c r="H56" t="n">
+        <v>131.535623012469</v>
+      </c>
+      <c r="I56" t="n">
+        <v>62</v>
+      </c>
+      <c r="J56" t="n">
+        <v>119</v>
+      </c>
+      <c r="K56" t="n">
+        <v>359.5666475151251</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.975345718321402</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.5718699643394307</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.5210084033613446</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1698348812292148</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.7164380888611557</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>160</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>424</v>
+      </c>
+      <c r="B57" t="n">
+        <v>456</v>
+      </c>
+      <c r="C57" t="n">
+        <v>506</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.205235252145337</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.750993667870097</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.45424158427524</v>
+      </c>
+      <c r="G57" t="n">
+        <v>82</v>
+      </c>
+      <c r="H57" t="n">
+        <v>181.342978591618</v>
+      </c>
+      <c r="I57" t="n">
+        <v>32</v>
+      </c>
+      <c r="J57" t="n">
+        <v>50</v>
+      </c>
+      <c r="K57" t="n">
+        <v>170.4100175166966</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.844267442303328</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.6577918188104123</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.09975189570142659</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9836386749781919</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>161</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>203</v>
+      </c>
+      <c r="B58" t="n">
+        <v>226</v>
+      </c>
+      <c r="C58" t="n">
+        <v>323</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.186888167962302</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.566254087782731</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.6206340801795708</v>
+      </c>
+      <c r="G58" t="n">
+        <v>120</v>
+      </c>
+      <c r="H58" t="n">
+        <v>21.76856301166296</v>
+      </c>
+      <c r="I58" t="n">
+        <v>23</v>
+      </c>
+      <c r="J58" t="n">
+        <v>97</v>
+      </c>
+      <c r="K58" t="n">
+        <v>207.3831936374202</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8.989801103147022</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.6614001236256788</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.2371134020618557</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.09663614544458676</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.5284583176632861</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>162</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2062</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2122</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.363078202495491</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.74244412231592</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.6206340801795708</v>
+      </c>
+      <c r="G59" t="n">
+        <v>93</v>
+      </c>
+      <c r="H59" t="n">
+        <v>33.48453394230773</v>
+      </c>
+      <c r="I59" t="n">
+        <v>33</v>
+      </c>
+      <c r="J59" t="n">
+        <v>60</v>
+      </c>
+      <c r="K59" t="n">
+        <v>116.9363931464687</v>
+      </c>
+      <c r="L59" t="n">
+        <v>9.714078361588562</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8607653504804157</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.3033200810074008</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9483196790277639</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>163</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1421</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.101814227465324</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.46123878916368</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.6405754383016435</v>
+      </c>
+      <c r="G60" t="n">
+        <v>62</v>
+      </c>
+      <c r="H60" t="n">
+        <v>22.43395190296428</v>
+      </c>
+      <c r="I60" t="n">
+        <v>27</v>
+      </c>
+      <c r="J60" t="n">
+        <v>35</v>
+      </c>
+      <c r="K60" t="n">
+        <v>90.91816566311466</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.663329140087194</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.7920269159025344</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2047374026351934</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.960588605225637</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>164</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1483</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.336125662021453</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.69555022371981</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.6405754383016435</v>
+      </c>
+      <c r="G61" t="n">
+        <v>223</v>
+      </c>
+      <c r="H61" t="n">
+        <v>133.0268069387141</v>
+      </c>
+      <c r="I61" t="n">
+        <v>29</v>
+      </c>
+      <c r="J61" t="n">
         <v>194</v>
       </c>
-      <c r="H31" t="n">
-        <v>137.232695843597</v>
-      </c>
-      <c r="I31" t="n">
-        <v>34</v>
-      </c>
-      <c r="J31" t="n">
-        <v>160</v>
-      </c>
-      <c r="K31" t="n">
-        <v>332.207789758569</v>
-      </c>
-      <c r="L31" t="n">
-        <v>11.91432474495371</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>0.8601448195139343</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.2125</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.2415358253823593</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.789409051727891</v>
-      </c>
-      <c r="T31" t="inlineStr">
+      <c r="K61" t="n">
+        <v>345.3085905762953</v>
+      </c>
+      <c r="L61" t="n">
+        <v>12.16369585222226</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.858153836059529</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.1494845360824742</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2956580760921224</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8662020580980397</v>
+      </c>
+      <c r="T61" t="inlineStr">
         <is>
           <t>n34</t>
         </is>
       </c>
-      <c r="U31" t="n">
-        <v>85</v>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
+      <c r="U61" t="n">
+        <v>165</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>781</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>808</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>870</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>2.420451784801129</v>
+        <v>2.632077837966272</v>
       </c>
       <c r="E2" t="n">
-        <v>1.861727032860234</v>
+        <v>2.074710116612238</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5587247519408954</v>
+        <v>-0.5573677213540336</v>
       </c>
       <c r="G2" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H2" t="n">
-        <v>30.77353177219459</v>
+        <v>44.38194718071883</v>
       </c>
       <c r="I2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>139.0221752406079</v>
+        <v>101.7128558578142</v>
       </c>
       <c r="L2" t="n">
-        <v>9.275675721269364</v>
+        <v>10.11336293789353</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8665389633222623</v>
+        <v>0.6461758019864174</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4354838709677419</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3643823381127543</v>
+        <v>0.1140291282415475</v>
       </c>
       <c r="S2" t="n">
-        <v>0.813806072032532</v>
+        <v>0.8898288635865756</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1096</v>
+        <v>781</v>
       </c>
       <c r="B3" t="n">
-        <v>1128</v>
+        <v>808</v>
       </c>
       <c r="C3" t="n">
-        <v>1196</v>
+        <v>870</v>
       </c>
       <c r="D3" t="n">
-        <v>2.143478149837767</v>
+        <v>2.392508397332221</v>
       </c>
       <c r="E3" t="n">
-        <v>1.584753397896871</v>
+        <v>1.835140675978187</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5587247519408954</v>
+        <v>-0.5573677213540336</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H3" t="n">
-        <v>63.26718758700827</v>
+        <v>31.09053240073297</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K3" t="n">
-        <v>141.2230010487505</v>
+        <v>138.6220862908857</v>
       </c>
       <c r="L3" t="n">
-        <v>8.21425502394592</v>
+        <v>9.192853419895243</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8127671969421579</v>
+        <v>0.8730059718317575</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3980139576254639</v>
+        <v>0.3422654251043231</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7882880264894646</v>
+        <v>0.8356173077581911</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>117</v>
+        <v>1096</v>
       </c>
       <c r="B4" t="n">
-        <v>184</v>
+        <v>1129</v>
       </c>
       <c r="C4" t="n">
-        <v>276</v>
+        <v>1196</v>
       </c>
       <c r="D4" t="n">
-        <v>2.894074784253452</v>
+        <v>2.127267859104152</v>
       </c>
       <c r="E4" t="n">
-        <v>2.15143720248795</v>
+        <v>1.569900137750118</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7426375817655019</v>
+        <v>-0.5573677213540336</v>
       </c>
       <c r="G4" t="n">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>107.6085345554731</v>
+        <v>64.18586836098507</v>
       </c>
       <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
         <v>67</v>
       </c>
-      <c r="J4" t="n">
-        <v>92</v>
-      </c>
       <c r="K4" t="n">
-        <v>294.8296745929485</v>
+        <v>140.8807645933516</v>
       </c>
       <c r="L4" t="n">
-        <v>10.85846654668408</v>
+        <v>8.173706573153298</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6779018766757264</v>
+        <v>0.8022607148331271</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7282608695652174</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2689992315238307</v>
+        <v>0.3740179729972725</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9122383759781844</v>
+        <v>0.7818607509130975</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>371</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
-        <v>386</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
-        <v>411</v>
+        <v>275</v>
       </c>
       <c r="D5" t="n">
-        <v>2.22855224568328</v>
+        <v>2.878107763868007</v>
       </c>
       <c r="E5" t="n">
-        <v>1.485914663917779</v>
+        <v>2.135591340316215</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7426375817655019</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="H5" t="n">
-        <v>20.73128501931984</v>
+        <v>108.4631641141584</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="K5" t="n">
-        <v>79.88624507640581</v>
+        <v>294.4093526246282</v>
       </c>
       <c r="L5" t="n">
-        <v>8.361449448007889</v>
+        <v>10.79979694361016</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6445994108428202</v>
+        <v>0.6865545788108968</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6</v>
+        <v>0.7362637362637363</v>
       </c>
       <c r="R5" t="n">
-        <v>0.043587464697343</v>
+        <v>0.2624981270132057</v>
       </c>
       <c r="S5" t="n">
-        <v>0.883473332736366</v>
+        <v>0.9171790717073081</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6" t="n">
         <v>434</v>
       </c>
       <c r="C6" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D6" t="n">
-        <v>2.454199295041741</v>
+        <v>2.434077648888152</v>
       </c>
       <c r="E6" t="n">
-        <v>1.71156171327624</v>
+        <v>1.69156122533636</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7426375817655019</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G6" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H6" t="n">
-        <v>26.67911109719824</v>
+        <v>26.97672818040184</v>
       </c>
       <c r="I6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K6" t="n">
-        <v>249.3885696727113</v>
+        <v>251.7359526480047</v>
       </c>
       <c r="L6" t="n">
-        <v>9.208069220982711</v>
+        <v>9.133620597181237</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8097939612064733</v>
+        <v>0.8144291272124881</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1716417910447761</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2573257184674561</v>
+        <v>0.253405252060509</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8599641330779055</v>
+        <v>0.8689056021773843</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -990,37 +990,37 @@
         <v>2037</v>
       </c>
       <c r="B7" t="n">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C7" t="n">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D7" t="n">
-        <v>1.226041272508612</v>
+        <v>1.225917820599422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4834036907431099</v>
+        <v>0.48340139704763</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7426375817655019</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" t="n">
-        <v>62.02891307918935</v>
+        <v>61.93428747682265</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K7" t="n">
-        <v>70.93279193522719</v>
+        <v>70.68561398358118</v>
       </c>
       <c r="L7" t="n">
-        <v>4.60006362476321</v>
+        <v>4.600127798631672</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8842460337559932</v>
+        <v>0.8678635782383428</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3066666666666666</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2282023112145139</v>
+        <v>0.2179300915171841</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7760330977951346</v>
+        <v>0.7647211266927219</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1079,34 +1079,34 @@
         <v>2487</v>
       </c>
       <c r="C8" t="n">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D8" t="n">
-        <v>2.506815659327111</v>
+        <v>2.494489647290883</v>
       </c>
       <c r="E8" t="n">
-        <v>1.764178077561609</v>
+        <v>1.751973223739091</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7426375817655019</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" t="n">
-        <v>18.91079881562155</v>
+        <v>19.61349646651615</v>
       </c>
       <c r="I8" t="n">
         <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
-        <v>145.1127242634088</v>
+        <v>143.2472690752645</v>
       </c>
       <c r="L8" t="n">
-        <v>9.405483964550994</v>
+        <v>9.360310272911223</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6309281394286591</v>
+        <v>0.6274563135687501</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07720791715175715</v>
+        <v>0.06601381019337084</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8481044199007303</v>
+        <v>0.8646199514731364</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B9" t="n">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="C9" t="n">
         <v>2701</v>
       </c>
       <c r="D9" t="n">
-        <v>2.938243755606352</v>
+        <v>2.921850755140353</v>
       </c>
       <c r="E9" t="n">
-        <v>2.19560617384085</v>
+        <v>2.179334331588562</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7426375817655019</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G9" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H9" t="n">
-        <v>187.547141855232</v>
+        <v>187.2659675712353</v>
       </c>
       <c r="I9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K9" t="n">
-        <v>248.777372630251</v>
+        <v>250.655400642006</v>
       </c>
       <c r="L9" t="n">
-        <v>11.02418696982118</v>
+        <v>10.96393792171327</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8913168679207072</v>
+        <v>0.9004248649690334</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.237410071942446</v>
+        <v>0.2536231884057971</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4877456481471946</v>
+        <v>0.493066224017769</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9460843338054177</v>
+        <v>0.9481062348363771</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1102</v>
+        <v>2432</v>
       </c>
       <c r="B10" t="n">
-        <v>1121</v>
+        <v>2453</v>
       </c>
       <c r="C10" t="n">
-        <v>1154</v>
+        <v>2527</v>
       </c>
       <c r="D10" t="n">
-        <v>1.175294738100299</v>
+        <v>2.586077088778936</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5073658228645229</v>
+        <v>1.921027942594268</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6679289152357761</v>
+        <v>-0.6650491461846675</v>
       </c>
       <c r="G10" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="H10" t="n">
-        <v>16.06047282596296</v>
+        <v>37.77300527927491</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="K10" t="n">
-        <v>40.46897649660469</v>
+        <v>126.6097034011272</v>
       </c>
       <c r="L10" t="n">
-        <v>3.457372452806983</v>
+        <v>7.610354799679746</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8254844265870872</v>
+        <v>0.9897940065606677</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3212258922128113</v>
+        <v>0.2414870367075537</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9363761117647564</v>
+        <v>0.9877849862549218</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2432</v>
+        <v>2527</v>
       </c>
       <c r="B11" t="n">
-        <v>2454</v>
+        <v>2562</v>
       </c>
       <c r="C11" t="n">
-        <v>2528</v>
+        <v>2653</v>
       </c>
       <c r="D11" t="n">
-        <v>2.625752027143943</v>
+        <v>2.57587376664517</v>
       </c>
       <c r="E11" t="n">
-        <v>1.957823111908167</v>
+        <v>1.910824620460503</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6679289152357761</v>
+        <v>-0.6650491461846675</v>
       </c>
       <c r="G11" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H11" t="n">
-        <v>36.62661911137411</v>
+        <v>79.55343755521653</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K11" t="n">
-        <v>127.6994409275309</v>
+        <v>202.8659356641566</v>
       </c>
       <c r="L11" t="n">
-        <v>7.724192436378315</v>
+        <v>7.580328277303321</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.9855324050628497</v>
+        <v>0.7717096486268037</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2851040081639989</v>
+        <v>0.1643585548889484</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9836999115898044</v>
+        <v>0.6679092871844592</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2528</v>
+        <v>2653</v>
       </c>
       <c r="B12" t="n">
-        <v>2561</v>
+        <v>2755</v>
       </c>
       <c r="C12" t="n">
-        <v>2654</v>
+        <v>2998</v>
       </c>
       <c r="D12" t="n">
-        <v>2.589086547729244</v>
+        <v>2.96696040287789</v>
       </c>
       <c r="E12" t="n">
-        <v>1.921157632493468</v>
+        <v>2.301911256693223</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6679289152357761</v>
+        <v>-0.6650491461846675</v>
       </c>
       <c r="G12" t="n">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="H12" t="n">
-        <v>79.1927037968203</v>
+        <v>152.9409268082777</v>
       </c>
       <c r="I12" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="J12" t="n">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="K12" t="n">
-        <v>202.750658883195</v>
+        <v>431.3677165849434</v>
       </c>
       <c r="L12" t="n">
-        <v>7.616333348450939</v>
+        <v>8.731225159712039</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7898747557232115</v>
+        <v>0.7589611281177284</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1655131855052653</v>
+        <v>0.328142341519385</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6810685860186969</v>
+        <v>0.8839043312679766</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2726</v>
+        <v>1878</v>
       </c>
       <c r="B13" t="n">
-        <v>2755</v>
+        <v>1928</v>
       </c>
       <c r="C13" t="n">
-        <v>2998</v>
+        <v>2026</v>
       </c>
       <c r="D13" t="n">
-        <v>3.003749678500623</v>
+        <v>3.539205740046278</v>
       </c>
       <c r="E13" t="n">
-        <v>2.335820763264847</v>
+        <v>2.998504984724482</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6679289152357761</v>
+        <v>-0.5407007553217958</v>
       </c>
       <c r="G13" t="n">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="H13" t="n">
-        <v>151.9916006037911</v>
+        <v>65.71472443166545</v>
       </c>
       <c r="I13" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J13" t="n">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="K13" t="n">
-        <v>340.6721394391579</v>
+        <v>290.2450734376139</v>
       </c>
       <c r="L13" t="n">
-        <v>8.836150675159091</v>
+        <v>17.8558153353555</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8538727942978275</v>
+        <v>0.7861391581837859</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1193415637860082</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5241363864083014</v>
+        <v>0.3564405626709357</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8824099067050064</v>
+        <v>0.9009299755175741</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1878</v>
+        <v>2649</v>
       </c>
       <c r="B14" t="n">
-        <v>1927</v>
+        <v>2782</v>
       </c>
       <c r="C14" t="n">
-        <v>2027</v>
+        <v>2998</v>
       </c>
       <c r="D14" t="n">
-        <v>3.558078887232733</v>
+        <v>3.799952528980679</v>
       </c>
       <c r="E14" t="n">
-        <v>3.017980230762255</v>
+        <v>3.412740772871864</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5400986564704775</v>
+        <v>-0.3872117561088147</v>
       </c>
       <c r="G14" t="n">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="H14" t="n">
-        <v>65.32662396574824</v>
+        <v>36.51690346069881</v>
       </c>
       <c r="I14" t="n">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="K14" t="n">
-        <v>291.117478391806</v>
+        <v>499.9082703608565</v>
       </c>
       <c r="L14" t="n">
-        <v>17.93431805927196</v>
+        <v>6.044415746419967</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7932959252634155</v>
+        <v>0.5593247064207704</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.49</v>
+        <v>0.6157407407407407</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3541699021974818</v>
+        <v>0.3670136601555311</v>
       </c>
       <c r="S14" t="n">
-        <v>0.899477193763596</v>
+        <v>0.8659934085164673</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2649</v>
+        <v>2027</v>
       </c>
       <c r="B15" t="n">
-        <v>2782</v>
+        <v>2060</v>
       </c>
       <c r="C15" t="n">
-        <v>2998</v>
+        <v>2152</v>
       </c>
       <c r="D15" t="n">
-        <v>3.849909767012112</v>
+        <v>2.161349433101693</v>
       </c>
       <c r="E15" t="n">
-        <v>3.465625501226355</v>
+        <v>1.595686450808079</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3842842657857575</v>
+        <v>-0.565662982293614</v>
       </c>
       <c r="G15" t="n">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="H15" t="n">
-        <v>35.69662582592991</v>
+        <v>48.66035654173038</v>
       </c>
       <c r="I15" t="n">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="K15" t="n">
-        <v>498.8597790646635</v>
+        <v>157.6755549779888</v>
       </c>
       <c r="L15" t="n">
-        <v>6.114266766744161</v>
+        <v>4.516028485430872</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.5359657029168767</v>
+        <v>0.8952697314385477</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6157407407407407</v>
+        <v>0.358695652173913</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3739160466452565</v>
+        <v>0.1976330119297929</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8604815550874781</v>
+        <v>0.8108656058772408</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2028</v>
+        <v>2152</v>
       </c>
       <c r="B16" t="n">
-        <v>2059</v>
+        <v>2188</v>
       </c>
       <c r="C16" t="n">
-        <v>2152</v>
+        <v>2242</v>
       </c>
       <c r="D16" t="n">
-        <v>2.180631336378577</v>
+        <v>3.300516602607802</v>
       </c>
       <c r="E16" t="n">
-        <v>1.610392842728067</v>
+        <v>2.734853620314188</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5702384936505104</v>
+        <v>-0.565662982293614</v>
       </c>
       <c r="G16" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="H16" t="n">
-        <v>47.84347255309808</v>
+        <v>126.5571987191279</v>
       </c>
       <c r="I16" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="K16" t="n">
-        <v>157.6296502827728</v>
+        <v>201.2676111781009</v>
       </c>
       <c r="L16" t="n">
-        <v>4.55261687900852</v>
+        <v>6.896259700415162</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.9090313818194918</v>
+        <v>0.7477410343859406</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1974712942148752</v>
+        <v>0.3141460064566624</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8107901411470666</v>
+        <v>0.8998710229631635</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2152</v>
+        <v>555</v>
       </c>
       <c r="B17" t="n">
-        <v>2187</v>
+        <v>588</v>
       </c>
       <c r="C17" t="n">
-        <v>2242</v>
+        <v>649</v>
       </c>
       <c r="D17" t="n">
-        <v>3.331356492720484</v>
+        <v>2.990699813282517</v>
       </c>
       <c r="E17" t="n">
-        <v>2.761117999069973</v>
+        <v>2.316862249101217</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5702384936505104</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G17" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
-        <v>126.2982948467952</v>
+        <v>73.6333305267259</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J17" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K17" t="n">
-        <v>201.6971297022159</v>
+        <v>177.0648615866163</v>
       </c>
       <c r="L17" t="n">
-        <v>6.955045332853492</v>
+        <v>19.53155365271344</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7537847628525592</v>
+        <v>0.7933455173414639</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3259440029185586</v>
+        <v>0.1993742763228368</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8904785123016298</v>
+        <v>0.9494598555764486</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>555</v>
+        <v>2104</v>
       </c>
       <c r="B18" t="n">
-        <v>587</v>
+        <v>2164</v>
       </c>
       <c r="C18" t="n">
-        <v>649</v>
+        <v>2255</v>
       </c>
       <c r="D18" t="n">
-        <v>3.003505366463137</v>
+        <v>3.346098395647878</v>
       </c>
       <c r="E18" t="n">
-        <v>2.328109877571112</v>
+        <v>2.672260831466578</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6753954888920248</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="H18" t="n">
-        <v>73.5953182024349</v>
+        <v>103.555301035643</v>
       </c>
       <c r="I18" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="J18" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="K18" t="n">
-        <v>177.1414079532238</v>
+        <v>328.7151566209034</v>
       </c>
       <c r="L18" t="n">
-        <v>19.60667243957317</v>
+        <v>21.85257779854657</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8140325917345864</v>
+        <v>0.6619504546041139</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="R18" t="n">
-        <v>0.213157852029123</v>
+        <v>0.3007225586700629</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9479467504560254</v>
+        <v>0.9638504536930975</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2104</v>
+        <v>2255</v>
       </c>
       <c r="B19" t="n">
-        <v>2163</v>
+        <v>2284</v>
       </c>
       <c r="C19" t="n">
-        <v>2255</v>
+        <v>2353</v>
       </c>
       <c r="D19" t="n">
-        <v>3.376952273471188</v>
+        <v>2.986278553083744</v>
       </c>
       <c r="E19" t="n">
-        <v>2.701556784579163</v>
+        <v>2.312440988902444</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6753954888920248</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G19" t="n">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="H19" t="n">
-        <v>101.4554954274822</v>
+        <v>41.03726429873132</v>
       </c>
       <c r="I19" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K19" t="n">
-        <v>328.8726797694865</v>
+        <v>193.1609469853306</v>
       </c>
       <c r="L19" t="n">
-        <v>22.04450766405319</v>
+        <v>19.50267944728452</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.6530976854085255</v>
+        <v>0.7724458442392544</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6413043478260869</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="R19" t="n">
-        <v>0.299657407745842</v>
+        <v>0.06671545000150372</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9586356301860537</v>
+        <v>0.9698596973613665</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2255</v>
+        <v>2353</v>
       </c>
       <c r="B20" t="n">
-        <v>2284</v>
+        <v>2386</v>
       </c>
       <c r="C20" t="n">
-        <v>2354</v>
+        <v>2452</v>
       </c>
       <c r="D20" t="n">
-        <v>3.00408951436532</v>
+        <v>3.145717989990371</v>
       </c>
       <c r="E20" t="n">
-        <v>2.328694025473295</v>
+        <v>2.471880425809071</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6753954888920248</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G20" t="n">
         <v>99</v>
       </c>
       <c r="H20" t="n">
-        <v>40.79963114479369</v>
+        <v>42.1441724563042</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J20" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K20" t="n">
-        <v>194.2939443954291</v>
+        <v>187.3818521666685</v>
       </c>
       <c r="L20" t="n">
-        <v>19.61048571612071</v>
+        <v>20.5439407274938</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,16 +2154,16 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7815390673263963</v>
+        <v>0.7961141460515725</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0713269148919671</v>
+        <v>0.1483829576870829</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9702146196935658</v>
+        <v>0.8919025385947645</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2354</v>
+        <v>752</v>
       </c>
       <c r="B21" t="n">
-        <v>2385</v>
+        <v>784</v>
       </c>
       <c r="C21" t="n">
-        <v>2452</v>
+        <v>866</v>
       </c>
       <c r="D21" t="n">
-        <v>3.178853306718211</v>
+        <v>4.936972919712602</v>
       </c>
       <c r="E21" t="n">
-        <v>2.503457817826186</v>
+        <v>4.498190782418741</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6753954888920248</v>
+        <v>-0.4387821372938616</v>
       </c>
       <c r="G21" t="n">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="H21" t="n">
-        <v>41.24928085725696</v>
+        <v>44.20923890332074</v>
       </c>
       <c r="I21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5547209592557</v>
+        <v>241.6493191444936</v>
       </c>
       <c r="L21" t="n">
-        <v>20.7513314989254</v>
+        <v>14.55539236404956</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8033207853917637</v>
+        <v>0.9317855477557155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4626865671641791</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1414729448846856</v>
+        <v>0.2409283956628819</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8826927112345697</v>
+        <v>0.9480475589145282</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>752</v>
+        <v>2939</v>
       </c>
       <c r="B22" t="n">
-        <v>784</v>
+        <v>2961</v>
       </c>
       <c r="C22" t="n">
-        <v>866</v>
+        <v>2998</v>
       </c>
       <c r="D22" t="n">
-        <v>4.993683475507849</v>
+        <v>2.268423764452632</v>
       </c>
       <c r="E22" t="n">
-        <v>4.554244022009502</v>
+        <v>1.829641627158771</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4394394534983479</v>
+        <v>-0.4387821372938616</v>
       </c>
       <c r="G22" t="n">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="H22" t="n">
-        <v>43.51284476554531</v>
+        <v>18.18695401751302</v>
       </c>
       <c r="I22" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J22" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="K22" t="n">
-        <v>241.5368555926997</v>
+        <v>100.9412972608932</v>
       </c>
       <c r="L22" t="n">
-        <v>14.60314273254772</v>
+        <v>6.687862882072376</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.9308679563613199</v>
+        <v>0.76460691510104</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="R22" t="n">
-        <v>0.253703983394351</v>
+        <v>0.1885940571345633</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9434563500194837</v>
+        <v>0.8168376422732062</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2938</v>
+        <v>114</v>
       </c>
       <c r="B23" t="n">
-        <v>2960</v>
+        <v>158</v>
       </c>
       <c r="C23" t="n">
-        <v>2998</v>
+        <v>234</v>
       </c>
       <c r="D23" t="n">
-        <v>2.296328786280061</v>
+        <v>4.683749869247713</v>
       </c>
       <c r="E23" t="n">
-        <v>1.856889332781714</v>
+        <v>4.185260855117996</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4394394534983479</v>
+        <v>-0.4984890141297166</v>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H23" t="n">
-        <v>18.54667199576988</v>
+        <v>44.41624843031749</v>
       </c>
       <c r="I23" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J23" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K23" t="n">
-        <v>102.5864105483199</v>
+        <v>268.7380991313904</v>
       </c>
       <c r="L23" t="n">
-        <v>6.715206758973745</v>
+        <v>14.03854939290696</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7542452591476879</v>
+        <v>0.8012887358154562</v>
       </c>
       <c r="Q23" t="n">
         <v>0.5789473684210527</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1705126935200257</v>
+        <v>0.1534347579416173</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8209582276867247</v>
+        <v>0.9738981314798116</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>694</v>
+        <v>1312</v>
       </c>
       <c r="B24" t="n">
-        <v>722</v>
+        <v>1338</v>
       </c>
       <c r="C24" t="n">
-        <v>765</v>
+        <v>1398</v>
       </c>
       <c r="D24" t="n">
-        <v>2.428875101930565</v>
+        <v>2.049655287753999</v>
       </c>
       <c r="E24" t="n">
-        <v>1.946453443495814</v>
+        <v>1.551166273624283</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4824216584347507</v>
+        <v>-0.4984890141297166</v>
       </c>
       <c r="G24" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H24" t="n">
-        <v>187.3004110118278</v>
+        <v>131.2293886908981</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J24" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>125.7474434436499</v>
+        <v>119.7719526767544</v>
       </c>
       <c r="L24" t="n">
-        <v>5.559008425476202</v>
+        <v>6.14340812358305</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.6934523879978342</v>
+        <v>0.821409777918363</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1492041613858205</v>
+        <v>0.3245813338107069</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9623086875681388</v>
+        <v>0.8917854923819104</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2721</v>
+        <v>1398</v>
       </c>
       <c r="B25" t="n">
-        <v>2737</v>
+        <v>1423</v>
       </c>
       <c r="C25" t="n">
-        <v>2766</v>
+        <v>1465</v>
       </c>
       <c r="D25" t="n">
-        <v>2.490002082959675</v>
+        <v>1.745541635820449</v>
       </c>
       <c r="E25" t="n">
-        <v>2.007580424524924</v>
+        <v>1.247052621690732</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4824216584347507</v>
+        <v>-0.4984890141297166</v>
       </c>
       <c r="G25" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H25" t="n">
-        <v>18.14832044250306</v>
+        <v>28.87909264315567</v>
       </c>
       <c r="I25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J25" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>78.17076145190062</v>
+        <v>74.1673121883463</v>
       </c>
       <c r="L25" t="n">
-        <v>5.698910803451363</v>
+        <v>5.231891786692886</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7588475374974512</v>
+        <v>0.8450164377202175</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09644488987793717</v>
+        <v>0.2606061477779102</v>
       </c>
       <c r="S25" t="n">
-        <v>0.982543514167127</v>
+        <v>0.9679280449593944</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>114</v>
+        <v>2716</v>
       </c>
       <c r="B26" t="n">
-        <v>158</v>
+        <v>2735</v>
       </c>
       <c r="C26" t="n">
-        <v>230</v>
+        <v>2798</v>
       </c>
       <c r="D26" t="n">
-        <v>4.769271057737434</v>
+        <v>0.7294250197623193</v>
       </c>
       <c r="E26" t="n">
-        <v>4.278542728938051</v>
+        <v>0.3127458804123104</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4907283287993827</v>
+        <v>-0.4166791393500089</v>
       </c>
       <c r="G26" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="H26" t="n">
-        <v>43.51499182199822</v>
+        <v>36.96244014406602</v>
       </c>
       <c r="I26" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J26" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K26" t="n">
-        <v>265.3087303917651</v>
+        <v>25.93486878915948</v>
       </c>
       <c r="L26" t="n">
-        <v>14.28768929470358</v>
+        <v>5.160303303895661</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8057870464554027</v>
+        <v>0.9518191706540797</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1689256315388594</v>
+        <v>0.3163889631523634</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9637513211388278</v>
+        <v>0.9374019302139964</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B27" t="n">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C27" t="n">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="D27" t="n">
-        <v>1.306474195920995</v>
+        <v>4.39490437613416</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8157458671216125</v>
+        <v>3.866164443268007</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4907283287993827</v>
+        <v>-0.5287399328661534</v>
       </c>
       <c r="G27" t="n">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="H27" t="n">
-        <v>17.13619574976357</v>
+        <v>225.996749941234</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J27" t="n">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="K27" t="n">
-        <v>41.61117361528152</v>
+        <v>516.0244926125357</v>
       </c>
       <c r="L27" t="n">
-        <v>3.913909936526517</v>
+        <v>24.10733118566812</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7710080444470568</v>
+        <v>0.8337015836433159</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2627090830596471</v>
+        <v>0.3157830302818987</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8358713468189862</v>
+        <v>0.8299638511062484</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1312</v>
+        <v>515</v>
       </c>
       <c r="B28" t="n">
-        <v>1337</v>
+        <v>539</v>
       </c>
       <c r="C28" t="n">
-        <v>1398</v>
+        <v>580</v>
       </c>
       <c r="D28" t="n">
-        <v>2.069522452364936</v>
+        <v>2.021786859712619</v>
       </c>
       <c r="E28" t="n">
-        <v>1.578794123565553</v>
+        <v>1.454378506462529</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4907283287993827</v>
+        <v>-0.567408353250091</v>
       </c>
       <c r="G28" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H28" t="n">
-        <v>130.6466073329623</v>
+        <v>23.60107515771244</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="K28" t="n">
-        <v>119.137343383183</v>
+        <v>86.86924355406477</v>
       </c>
       <c r="L28" t="n">
-        <v>6.199835033454931</v>
+        <v>4.399657776228433</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8288737406326756</v>
+        <v>0.7939728019948773</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3729202124116386</v>
+        <v>0.1586829906405753</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8803202468344152</v>
+        <v>0.9424073760366108</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1398</v>
+        <v>170</v>
       </c>
       <c r="B29" t="n">
-        <v>1424</v>
+        <v>221</v>
       </c>
       <c r="C29" t="n">
-        <v>1465</v>
+        <v>478</v>
       </c>
       <c r="D29" t="n">
-        <v>1.75620934323564</v>
+        <v>3.058936680026465</v>
       </c>
       <c r="E29" t="n">
-        <v>1.265481014436257</v>
+        <v>2.511223595090207</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4907283287993827</v>
+        <v>-0.5477130849362586</v>
       </c>
       <c r="G29" t="n">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="H29" t="n">
-        <v>28.30139204001193</v>
+        <v>41.69670233287013</v>
       </c>
       <c r="I29" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J29" t="n">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="K29" t="n">
-        <v>73.65156864042821</v>
+        <v>327.0795612759862</v>
       </c>
       <c r="L29" t="n">
-        <v>5.261217726742106</v>
+        <v>7.003485837354588</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8377346638073003</v>
+        <v>0.5591360248826012</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.198443579766537</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2833681831916636</v>
+        <v>0.7702962725881003</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9732430229630571</v>
+        <v>0.2700234817769757</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>806</v>
+        <v>2806</v>
       </c>
       <c r="B30" t="n">
-        <v>825</v>
+        <v>2856</v>
       </c>
       <c r="C30" t="n">
-        <v>882</v>
+        <v>2998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7363041771372747</v>
+        <v>2.328733514732471</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3191410575324118</v>
+        <v>1.917254936085103</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4171631196048628</v>
+        <v>-0.4114785786473686</v>
       </c>
       <c r="G30" t="n">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="H30" t="n">
-        <v>103.237581878168</v>
+        <v>58.40479836666918</v>
       </c>
       <c r="I30" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J30" t="n">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="K30" t="n">
-        <v>40.4856683602067</v>
+        <v>233.3637340569438</v>
       </c>
       <c r="L30" t="n">
-        <v>5.16460619772707</v>
+        <v>5.887328789732026</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7674885252820997</v>
+        <v>0.7651652634278066</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1931386899453877</v>
+        <v>0.4125014714329383</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5411049221491371</v>
+        <v>0.3990134684553541</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2716</v>
+        <v>1626</v>
       </c>
       <c r="B31" t="n">
-        <v>2734</v>
+        <v>1653</v>
       </c>
       <c r="C31" t="n">
-        <v>2798</v>
+        <v>1913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7568226693702285</v>
+        <v>2.825633590757121</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3396595497653657</v>
+        <v>2.247417732504086</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4171631196048628</v>
+        <v>-0.5782158582530356</v>
       </c>
       <c r="G31" t="n">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="H31" t="n">
-        <v>34.30899411197925</v>
+        <v>26.38410385693464</v>
       </c>
       <c r="I31" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J31" t="n">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="K31" t="n">
-        <v>26.03944237905556</v>
+        <v>386.0889911502392</v>
       </c>
       <c r="L31" t="n">
-        <v>5.30852760336996</v>
+        <v>8.323736351838598</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.9713295713638644</v>
+        <v>0.7441389750919551</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.28125</v>
+        <v>0.1038461538461539</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2876775762187744</v>
+        <v>0.4589890234040849</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9317451982789201</v>
+        <v>0.7964037887467333</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>205</v>
+        <v>2404</v>
       </c>
       <c r="B32" t="n">
-        <v>235</v>
+        <v>2429</v>
       </c>
       <c r="C32" t="n">
-        <v>410</v>
+        <v>2499</v>
       </c>
       <c r="D32" t="n">
-        <v>4.40198438774859</v>
+        <v>2.524420543662235</v>
       </c>
       <c r="E32" t="n">
-        <v>3.87437742538336</v>
+        <v>1.974589710908041</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5276069623652303</v>
+        <v>-0.5498308327541938</v>
       </c>
       <c r="G32" t="n">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="H32" t="n">
-        <v>225.6119851982693</v>
+        <v>29.6441677188991</v>
       </c>
       <c r="I32" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J32" t="n">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="K32" t="n">
-        <v>515.6672394259629</v>
+        <v>122.6548716997841</v>
       </c>
       <c r="L32" t="n">
-        <v>23.88908149291667</v>
+        <v>6.949782220644957</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.832736543879556</v>
+        <v>0.9045846470089056</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3161188832479616</v>
+        <v>0.3133476990260499</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8253811815855316</v>
+        <v>0.9024348278409693</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>515</v>
+        <v>420</v>
       </c>
       <c r="B33" t="n">
-        <v>539</v>
+        <v>446</v>
       </c>
       <c r="C33" t="n">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="D33" t="n">
-        <v>2.06281851226438</v>
+        <v>2.177891632617773</v>
       </c>
       <c r="E33" t="n">
-        <v>1.495308788357537</v>
+        <v>1.702861876826822</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5675097239068428</v>
+        <v>-0.4750297557909506</v>
       </c>
       <c r="G33" t="n">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H33" t="n">
-        <v>22.88190334916965</v>
+        <v>145.307748615276</v>
       </c>
       <c r="I33" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J33" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K33" t="n">
-        <v>88.7478191697399</v>
+        <v>125.6141227886112</v>
       </c>
       <c r="L33" t="n">
-        <v>4.470420458567163</v>
+        <v>5.476152414332427</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8225257703862187</v>
+        <v>0.8434556987820166</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1910088819105721</v>
+        <v>0.2670741831233553</v>
       </c>
       <c r="S33" t="n">
-        <v>0.945520050920209</v>
+        <v>0.8679548866276344</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>582</v>
+        <v>858</v>
       </c>
       <c r="B34" t="n">
-        <v>600</v>
+        <v>886</v>
       </c>
       <c r="C34" t="n">
-        <v>647</v>
+        <v>932</v>
       </c>
       <c r="D34" t="n">
-        <v>2.014741965717386</v>
+        <v>2.473152217715022</v>
       </c>
       <c r="E34" t="n">
-        <v>1.447232241810543</v>
+        <v>1.874675422765238</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5675097239068428</v>
+        <v>-0.5984767949497842</v>
       </c>
       <c r="G34" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H34" t="n">
-        <v>25.23554459404227</v>
+        <v>37.34385070279552</v>
       </c>
       <c r="I34" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J34" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34" t="n">
-        <v>106.2998360467262</v>
+        <v>113.4459913827303</v>
       </c>
       <c r="L34" t="n">
-        <v>4.366231759472633</v>
+        <v>6.618049345712878</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8264619330597566</v>
+        <v>0.8212958286204657</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="R34" t="n">
-        <v>0.156224623090514</v>
+        <v>0.2564867301413334</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7187476267067662</v>
+        <v>0.9580716212564334</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2622</v>
+        <v>932</v>
       </c>
       <c r="B35" t="n">
-        <v>2662</v>
+        <v>971</v>
       </c>
       <c r="C35" t="n">
-        <v>2774</v>
+        <v>1046</v>
       </c>
       <c r="D35" t="n">
-        <v>1.994626212676048</v>
+        <v>2.309738237459706</v>
       </c>
       <c r="E35" t="n">
-        <v>1.427116488769205</v>
+        <v>1.711261442509921</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5675097239068428</v>
+        <v>-0.5984767949497842</v>
       </c>
       <c r="G35" t="n">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="H35" t="n">
-        <v>100.3814985421723</v>
+        <v>42.53732186262982</v>
       </c>
       <c r="I35" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35" t="n">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="K35" t="n">
-        <v>173.8318747014835</v>
+        <v>176.3219686761982</v>
       </c>
       <c r="L35" t="n">
-        <v>4.322638067928354</v>
+        <v>6.180760537784901</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7981299416846638</v>
+        <v>0.826862219176476</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.52</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1378584421593437</v>
+        <v>0.2054143357845089</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8513532625706951</v>
+        <v>0.7816359270636701</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>170</v>
+        <v>1046</v>
       </c>
       <c r="B36" t="n">
-        <v>221</v>
+        <v>1093</v>
       </c>
       <c r="C36" t="n">
-        <v>477</v>
+        <v>1316</v>
       </c>
       <c r="D36" t="n">
-        <v>3.048021325476919</v>
+        <v>3.747317334856595</v>
       </c>
       <c r="E36" t="n">
-        <v>2.49802805977426</v>
+        <v>3.148840539906811</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5499932657026586</v>
+        <v>-0.5984767949497842</v>
       </c>
       <c r="G36" t="n">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="H36" t="n">
-        <v>42.16849293620439</v>
+        <v>140.7606244090141</v>
       </c>
       <c r="I36" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J36" t="n">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="K36" t="n">
-        <v>327.3203416903578</v>
+        <v>404.2683446429493</v>
       </c>
       <c r="L36" t="n">
-        <v>6.955300294264801</v>
+        <v>10.02766059383081</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.5982713323998761</v>
+        <v>0.8589422113345236</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.19921875</v>
+        <v>0.210762331838565</v>
       </c>
       <c r="R36" t="n">
-        <v>0.7739638060292918</v>
+        <v>0.3481256824483223</v>
       </c>
       <c r="S36" t="n">
-        <v>0.2614681163088202</v>
+        <v>0.8914097713580299</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,73 +3567,73 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>620</v>
+        <v>1316</v>
       </c>
       <c r="B37" t="n">
-        <v>632</v>
+        <v>1438</v>
       </c>
       <c r="C37" t="n">
-        <v>739</v>
+        <v>1756</v>
       </c>
       <c r="D37" t="n">
-        <v>3.253955832564116</v>
+        <v>2.678440831932352</v>
       </c>
       <c r="E37" t="n">
-        <v>2.703962566861458</v>
+        <v>2.079964036982568</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5499932657026586</v>
+        <v>-0.5984767949497842</v>
       </c>
       <c r="G37" t="n">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="H37" t="n">
-        <v>15.09352037629287</v>
+        <v>95.45636021276459</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J37" t="n">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="K37" t="n">
-        <v>212.0334184104648</v>
+        <v>520.5914693701052</v>
       </c>
       <c r="L37" t="n">
-        <v>7.425223626418243</v>
+        <v>7.167392879552678</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1348), 'value': np.float64(0.6251131208638586), 'amplitude': np.float64(1.2235899158136427), 'start_idx': np.int64(1317), 'end_idx': np.int64(1368), 'duration': np.float64(51.0), 'fwhm': np.float64(17.827175497683584), 'rise_time': np.float64(31.0), 'decay_time': np.float64(20.0), 'auc': np.float64(33.27657342579501)}]</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7427622909031975</v>
+        <v>0.6282035064429038</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1121495327102804</v>
+        <v>0.3836477987421384</v>
       </c>
       <c r="R37" t="n">
-        <v>0.445004010609628</v>
+        <v>0.2719235047304617</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7425016586454172</v>
+        <v>0.581564087743019</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2675</v>
+        <v>1756</v>
       </c>
       <c r="B38" t="n">
-        <v>2726</v>
+        <v>1797</v>
       </c>
       <c r="C38" t="n">
-        <v>2792</v>
+        <v>1861</v>
       </c>
       <c r="D38" t="n">
-        <v>2.747873874526624</v>
+        <v>2.358740865998666</v>
       </c>
       <c r="E38" t="n">
-        <v>2.197880608823965</v>
+        <v>1.760264071048881</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5499932657026586</v>
+        <v>-0.5984767949497842</v>
       </c>
       <c r="G38" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H38" t="n">
-        <v>23.33563141076866</v>
+        <v>65.14962116275092</v>
       </c>
       <c r="I38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J38" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K38" t="n">
-        <v>210.1357670767234</v>
+        <v>157.5149866465187</v>
       </c>
       <c r="L38" t="n">
-        <v>6.270391813976931</v>
+        <v>6.311889471708792</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.5684340231873263</v>
+        <v>0.7019620184576122</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.640625</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3504631308080263</v>
+        <v>0.158505704350836</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9774199722877505</v>
+        <v>0.7837952070452702</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2808</v>
+        <v>1060</v>
       </c>
       <c r="B39" t="n">
-        <v>2856</v>
+        <v>1090</v>
       </c>
       <c r="C39" t="n">
-        <v>2998</v>
+        <v>1156</v>
       </c>
       <c r="D39" t="n">
-        <v>2.292135485733051</v>
+        <v>5.027852905239094</v>
       </c>
       <c r="E39" t="n">
-        <v>1.874226451675843</v>
+        <v>4.526142887401402</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.417909034057208</v>
+        <v>-0.5017100178376914</v>
       </c>
       <c r="G39" t="n">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="H39" t="n">
-        <v>73.84214482672041</v>
+        <v>79.83407117287948</v>
       </c>
       <c r="I39" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J39" t="n">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="K39" t="n">
-        <v>234.8288856669748</v>
+        <v>284.755025741246</v>
       </c>
       <c r="L39" t="n">
-        <v>5.741290826795346</v>
+        <v>15.06684062183806</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8050833463601057</v>
+        <v>0.7848390186486988</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3896416908677366</v>
+        <v>0.1695678423238519</v>
       </c>
       <c r="S39" t="n">
-        <v>0.3901693481410899</v>
+        <v>0.9025348560432594</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,73 +3825,73 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1626</v>
+        <v>673</v>
       </c>
       <c r="B40" t="n">
-        <v>1653</v>
+        <v>701</v>
       </c>
       <c r="C40" t="n">
-        <v>1913</v>
+        <v>767</v>
       </c>
       <c r="D40" t="n">
-        <v>2.874755965770479</v>
+        <v>2.043836894157155</v>
       </c>
       <c r="E40" t="n">
-        <v>2.300142667870322</v>
+        <v>1.568237841597487</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5746132979001574</v>
+        <v>-0.4755990525596681</v>
       </c>
       <c r="G40" t="n">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="H40" t="n">
-        <v>25.3114311988586</v>
+        <v>80.3723467255893</v>
       </c>
       <c r="I40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J40" t="n">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="K40" t="n">
-        <v>384.8558595763625</v>
+        <v>96.22963592187784</v>
       </c>
       <c r="L40" t="n">
-        <v>8.429221770787761</v>
+        <v>5.830058095429012</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(751), 'value': np.float64(0.682741230180892), 'amplitude': np.float64(1.15834028274056), 'start_idx': np.int64(729), 'end_idx': np.int64(766), 'duration': np.float64(37.0), 'fwhm': np.float64(18.65066328443072), 'rise_time': np.float64(22.0), 'decay_time': np.float64(15.0), 'auc': np.float64(29.668454502417738)}]</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7412904506050498</v>
+        <v>0.7451684020288802</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1038461538461539</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="R40" t="n">
-        <v>0.459537358570448</v>
+        <v>0.3788128813501127</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7853950373576806</v>
+        <v>0.4625274711193142</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,73 +3911,73 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1330</v>
+        <v>2801</v>
       </c>
       <c r="B41" t="n">
-        <v>1363</v>
+        <v>2874</v>
       </c>
       <c r="C41" t="n">
-        <v>1435</v>
+        <v>2998</v>
       </c>
       <c r="D41" t="n">
-        <v>2.521556187975512</v>
+        <v>1.506868637141064</v>
       </c>
       <c r="E41" t="n">
-        <v>1.967737242313497</v>
+        <v>1.031269584581396</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5538189456620144</v>
+        <v>-0.4755990525596681</v>
       </c>
       <c r="G41" t="n">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="H41" t="n">
-        <v>160.8251790655959</v>
+        <v>38.90577928107587</v>
       </c>
       <c r="I41" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J41" t="n">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="K41" t="n">
-        <v>190.5269618160484</v>
+        <v>178.2706567103328</v>
       </c>
       <c r="L41" t="n">
-        <v>6.925048477763896</v>
+        <v>4.298352633630869</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2965), 'value': np.float64(0.7807099979329248), 'amplitude': np.float64(1.256309050492593), 'start_idx': np.int64(2947), 'end_idx': np.int64(2989), 'duration': np.float64(42.0), 'fwhm': np.float64(16.435325661384468), 'rise_time': np.float64(18.0), 'decay_time': np.float64(24.0), 'auc': np.float64(35.61960448342825)}]</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8021581150602142</v>
+        <v>0.5345701202494639</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5887096774193549</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2176139958394447</v>
+        <v>0.3052275489322063</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8600902290028994</v>
+        <v>0.5243235643766913</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2405</v>
+        <v>239</v>
       </c>
       <c r="B42" t="n">
-        <v>2428</v>
+        <v>270</v>
       </c>
       <c r="C42" t="n">
-        <v>2499</v>
+        <v>339</v>
       </c>
       <c r="D42" t="n">
-        <v>2.565014322941503</v>
+        <v>2.865394408672725</v>
       </c>
       <c r="E42" t="n">
-        <v>2.011195377279488</v>
+        <v>2.245503948224254</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5538189456620144</v>
+        <v>-0.6198904604484717</v>
       </c>
       <c r="G42" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>28.76811917843588</v>
+        <v>83.75681985277333</v>
       </c>
       <c r="I42" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J42" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K42" t="n">
-        <v>123.1971661354609</v>
+        <v>194.3885800097963</v>
       </c>
       <c r="L42" t="n">
-        <v>7.044399255203568</v>
+        <v>14.14934737369345</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.9181136107078288</v>
+        <v>0.8232176265737572</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.323943661971831</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2843347983454792</v>
+        <v>0.6056874094767719</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9025530986121465</v>
+        <v>0.8603288596794986</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="B43" t="n">
-        <v>444</v>
+        <v>372</v>
       </c>
       <c r="C43" t="n">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="D43" t="n">
-        <v>2.173885669413823</v>
+        <v>2.521994622181698</v>
       </c>
       <c r="E43" t="n">
-        <v>1.696090897810244</v>
+        <v>1.902104161733227</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4777947716035786</v>
+        <v>-0.6198904604484717</v>
       </c>
       <c r="G43" t="n">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="H43" t="n">
-        <v>145.0684070310044</v>
+        <v>29.17518329950292</v>
       </c>
       <c r="I43" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J43" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K43" t="n">
-        <v>125.9954633092942</v>
+        <v>158.1521617004357</v>
       </c>
       <c r="L43" t="n">
-        <v>5.44416856041322</v>
+        <v>12.45363565861253</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8678802932513558</v>
+        <v>0.8756251869331415</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2532698046247837</v>
+        <v>0.5624588852798335</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8634816989545242</v>
+        <v>0.8954952747705107</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1678</v>
+        <v>2501</v>
       </c>
       <c r="B44" t="n">
-        <v>1709</v>
+        <v>2534</v>
       </c>
       <c r="C44" t="n">
-        <v>1756</v>
+        <v>2670</v>
       </c>
       <c r="D44" t="n">
-        <v>1.628103806232655</v>
+        <v>3.865089989695086</v>
       </c>
       <c r="E44" t="n">
-        <v>1.150309034629076</v>
+        <v>3.245199529246614</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4777947716035786</v>
+        <v>-0.6198904604484717</v>
       </c>
       <c r="G44" t="n">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="H44" t="n">
-        <v>159.7654081587411</v>
+        <v>180.4346195415351</v>
       </c>
       <c r="I44" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J44" t="n">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="K44" t="n">
-        <v>92.52751610203266</v>
+        <v>310.5820356385674</v>
       </c>
       <c r="L44" t="n">
-        <v>4.077340257443695</v>
+        <v>19.08585454388221</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.7168489177243844</v>
+        <v>0.8971402475018008</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.2426470588235294</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2717122764090059</v>
+        <v>0.5529798422299027</v>
       </c>
       <c r="S44" t="n">
-        <v>0.7753007894878807</v>
+        <v>0.9577489161247665</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>859</v>
+        <v>243</v>
       </c>
       <c r="B45" t="n">
-        <v>886</v>
+        <v>305</v>
       </c>
       <c r="C45" t="n">
-        <v>932</v>
+        <v>424</v>
       </c>
       <c r="D45" t="n">
-        <v>2.527137104080684</v>
+        <v>2.770604958346366</v>
       </c>
       <c r="E45" t="n">
-        <v>1.916588957677591</v>
+        <v>2.316782194665282</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6105481464030932</v>
+        <v>-0.4538227636810838</v>
       </c>
       <c r="G45" t="n">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="H45" t="n">
-        <v>37.09257768006319</v>
+        <v>130.0277918587542</v>
       </c>
       <c r="I45" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="J45" t="n">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="K45" t="n">
-        <v>114.2608638547019</v>
+        <v>359.1514998921657</v>
       </c>
       <c r="L45" t="n">
-        <v>6.745719496943411</v>
+        <v>5.948794310961595</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8233662008465923</v>
+        <v>0.5694167843179769</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5869565217391305</v>
+        <v>0.5210084033613446</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2458792273353942</v>
+        <v>0.1644335015690791</v>
       </c>
       <c r="S45" t="n">
-        <v>0.941100365987067</v>
+        <v>0.7250401779426119</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>932</v>
+        <v>424</v>
       </c>
       <c r="B46" t="n">
-        <v>967</v>
+        <v>456</v>
       </c>
       <c r="C46" t="n">
-        <v>1046</v>
+        <v>506</v>
       </c>
       <c r="D46" t="n">
-        <v>2.298430294026642</v>
+        <v>3.225707879423482</v>
       </c>
       <c r="E46" t="n">
-        <v>1.687882147623549</v>
+        <v>2.771885115742398</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.6105481464030932</v>
+        <v>-0.4538227636810838</v>
       </c>
       <c r="G46" t="n">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="H46" t="n">
-        <v>43.02837037404481</v>
+        <v>182.1690336249336</v>
       </c>
       <c r="I46" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J46" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>177.7588061190486</v>
+        <v>170.4834508838645</v>
       </c>
       <c r="L46" t="n">
-        <v>6.135229474390196</v>
+        <v>6.925950458628858</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8192691605183766</v>
+        <v>0.6501027520453969</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4430379746835443</v>
+        <v>0.64</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1623715506397419</v>
+        <v>0.09048132568858488</v>
       </c>
       <c r="S46" t="n">
-        <v>0.785187099656905</v>
+        <v>0.9872033941022613</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1046</v>
+        <v>202</v>
       </c>
       <c r="B47" t="n">
-        <v>1092</v>
+        <v>226</v>
       </c>
       <c r="C47" t="n">
-        <v>1317</v>
+        <v>323</v>
       </c>
       <c r="D47" t="n">
-        <v>3.761602829536463</v>
+        <v>2.15347707638955</v>
       </c>
       <c r="E47" t="n">
-        <v>3.15105468313337</v>
+        <v>1.535465356737275</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6105481464030932</v>
+        <v>-0.6180117196522751</v>
       </c>
       <c r="G47" t="n">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="H47" t="n">
-        <v>140.4333153080472</v>
+        <v>21.80985780094227</v>
       </c>
       <c r="I47" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J47" t="n">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="K47" t="n">
-        <v>407.5793632549345</v>
+        <v>208.3871328253866</v>
       </c>
       <c r="L47" t="n">
-        <v>10.04089469700235</v>
+        <v>8.912139713060515</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.8271863150383403</v>
+        <v>0.6693463005617217</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2044444444444445</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3339803936148676</v>
+        <v>0.09464613032946939</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8972128115496883</v>
+        <v>0.5508832261840795</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1368</v>
+        <v>2029</v>
       </c>
       <c r="B48" t="n">
-        <v>1438</v>
+        <v>2064</v>
       </c>
       <c r="C48" t="n">
-        <v>1568</v>
+        <v>2122</v>
       </c>
       <c r="D48" t="n">
-        <v>2.673717364073478</v>
+        <v>2.366561541768526</v>
       </c>
       <c r="E48" t="n">
-        <v>2.063169217670385</v>
+        <v>1.74854982211625</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.6105481464030932</v>
+        <v>-0.6180117196522751</v>
       </c>
       <c r="G48" t="n">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="H48" t="n">
-        <v>95.39494259137814</v>
+        <v>33.40332047388847</v>
       </c>
       <c r="I48" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J48" t="n">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="K48" t="n">
-        <v>311.3113176614366</v>
+        <v>116.7833362200568</v>
       </c>
       <c r="L48" t="n">
-        <v>7.136988065674323</v>
+        <v>9.793987282724039</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.7216934267131667</v>
+        <v>0.8455107422868551</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1729823513119226</v>
+        <v>0.2779877219393881</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8835842466075825</v>
+        <v>0.9559957340387781</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1756</v>
+        <v>1482</v>
       </c>
       <c r="B49" t="n">
-        <v>1797</v>
+        <v>1513</v>
       </c>
       <c r="C49" t="n">
-        <v>1861</v>
+        <v>1706</v>
       </c>
       <c r="D49" t="n">
-        <v>2.366226007245025</v>
+        <v>3.29824614621541</v>
       </c>
       <c r="E49" t="n">
-        <v>1.755677860841932</v>
+        <v>2.658143822851236</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.6105481464030932</v>
+        <v>-0.6401023233641733</v>
       </c>
       <c r="G49" t="n">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="H49" t="n">
-        <v>65.38038688716892</v>
+        <v>134.4080569147027</v>
       </c>
       <c r="I49" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J49" t="n">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="K49" t="n">
-        <v>158.7516363564897</v>
+        <v>346.4169032646985</v>
       </c>
       <c r="L49" t="n">
-        <v>6.316197441552704</v>
+        <v>12.05533210505795</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.7020047845690368</v>
+        <v>0.8628238782935722</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.640625</v>
+        <v>0.1606217616580311</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1637180545885807</v>
+        <v>0.3030339003963866</v>
       </c>
       <c r="S49" t="n">
-        <v>0.7634748723745102</v>
+        <v>0.867165930319119</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4678,1038 +4678,6 @@
         </is>
       </c>
       <c r="X49" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1061</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1156</v>
-      </c>
-      <c r="D50" t="n">
-        <v>5.047050565935192</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4.549577580062216</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-0.4974729858729758</v>
-      </c>
-      <c r="G50" t="n">
-        <v>95</v>
-      </c>
-      <c r="H50" t="n">
-        <v>78.84197938723037</v>
-      </c>
-      <c r="I50" t="n">
-        <v>29</v>
-      </c>
-      <c r="J50" t="n">
-        <v>66</v>
-      </c>
-      <c r="K50" t="n">
-        <v>282.4484672548719</v>
-      </c>
-      <c r="L50" t="n">
-        <v>15.02631217131192</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>0.8026094992602057</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.4393939393939394</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.1822824471225335</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.9027911524047149</v>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
-        <v>154</v>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2144</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2167</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2216</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4.760645428783191</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4.286370918069732</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-0.4742745107134597</v>
-      </c>
-      <c r="G51" t="n">
-        <v>72</v>
-      </c>
-      <c r="H51" t="n">
-        <v>39.35988473996258</v>
-      </c>
-      <c r="I51" t="n">
-        <v>23</v>
-      </c>
-      <c r="J51" t="n">
-        <v>49</v>
-      </c>
-      <c r="K51" t="n">
-        <v>175.2883847230696</v>
-      </c>
-      <c r="L51" t="n">
-        <v>13.33744613008705</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>0.8694343936056169</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.4693877551020408</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.2250507336447266</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.9967823912652282</v>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
-        <v>155</v>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2947</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2964</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2998</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.243462761543619</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.769188250830159</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-0.4742745107134597</v>
-      </c>
-      <c r="G52" t="n">
-        <v>51</v>
-      </c>
-      <c r="H52" t="n">
-        <v>18.98359340178877</v>
-      </c>
-      <c r="I52" t="n">
-        <v>17</v>
-      </c>
-      <c r="J52" t="n">
-        <v>34</v>
-      </c>
-      <c r="K52" t="n">
-        <v>40.85335712685469</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.483690992104882</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>0.7564010828530153</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.1705347231953563</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.5751993442383139</v>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U52" t="n">
-        <v>156</v>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>240</v>
-      </c>
-      <c r="B53" t="n">
-        <v>270</v>
-      </c>
-      <c r="C53" t="n">
-        <v>341</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.898201415183264</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2.2764501243169</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.6217512908663644</v>
-      </c>
-      <c r="G53" t="n">
-        <v>101</v>
-      </c>
-      <c r="H53" t="n">
-        <v>84.27104111034927</v>
-      </c>
-      <c r="I53" t="n">
-        <v>30</v>
-      </c>
-      <c r="J53" t="n">
-        <v>71</v>
-      </c>
-      <c r="K53" t="n">
-        <v>197.4664755791829</v>
-      </c>
-      <c r="L53" t="n">
-        <v>14.24736857603433</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>0.8345882527720022</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.4225352112676056</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.5597411600217879</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.8615043454281983</v>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U53" t="n">
-        <v>157</v>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>341</v>
-      </c>
-      <c r="B54" t="n">
-        <v>372</v>
-      </c>
-      <c r="C54" t="n">
-        <v>481</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.54555698348674</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1.923805692620375</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-0.6217512908663644</v>
-      </c>
-      <c r="G54" t="n">
-        <v>140</v>
-      </c>
-      <c r="H54" t="n">
-        <v>28.94469991076073</v>
-      </c>
-      <c r="I54" t="n">
-        <v>31</v>
-      </c>
-      <c r="J54" t="n">
-        <v>109</v>
-      </c>
-      <c r="K54" t="n">
-        <v>155.4570689365465</v>
-      </c>
-      <c r="L54" t="n">
-        <v>12.51379161746092</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>0.8862724192926168</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.2844036697247707</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.5721046801931698</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0.8920161581935222</v>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U54" t="n">
-        <v>158</v>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2493</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2533</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2672</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3.893614141398631</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3.271862850532267</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-0.6217512908663644</v>
-      </c>
-      <c r="G55" t="n">
-        <v>179</v>
-      </c>
-      <c r="H55" t="n">
-        <v>179.9175823866244</v>
-      </c>
-      <c r="I55" t="n">
-        <v>40</v>
-      </c>
-      <c r="J55" t="n">
-        <v>139</v>
-      </c>
-      <c r="K55" t="n">
-        <v>333.9869921481283</v>
-      </c>
-      <c r="L55" t="n">
-        <v>19.14075242484757</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
-        <v>0.8636530439385017</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.2877697841726619</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.5352630571344844</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0.9577567657697004</v>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U55" t="n">
-        <v>159</v>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>243</v>
-      </c>
-      <c r="B56" t="n">
-        <v>305</v>
-      </c>
-      <c r="C56" t="n">
-        <v>424</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2.798310980915444</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2.344069396640204</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-0.45424158427524</v>
-      </c>
-      <c r="G56" t="n">
-        <v>181</v>
-      </c>
-      <c r="H56" t="n">
-        <v>131.535623012469</v>
-      </c>
-      <c r="I56" t="n">
-        <v>62</v>
-      </c>
-      <c r="J56" t="n">
-        <v>119</v>
-      </c>
-      <c r="K56" t="n">
-        <v>359.5666475151251</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.975345718321402</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>0.5718699643394307</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.5210084033613446</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.1698348812292148</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0.7164380888611557</v>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U56" t="n">
-        <v>160</v>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>424</v>
-      </c>
-      <c r="B57" t="n">
-        <v>456</v>
-      </c>
-      <c r="C57" t="n">
-        <v>506</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3.205235252145337</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.750993667870097</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-0.45424158427524</v>
-      </c>
-      <c r="G57" t="n">
-        <v>82</v>
-      </c>
-      <c r="H57" t="n">
-        <v>181.342978591618</v>
-      </c>
-      <c r="I57" t="n">
-        <v>32</v>
-      </c>
-      <c r="J57" t="n">
-        <v>50</v>
-      </c>
-      <c r="K57" t="n">
-        <v>170.4100175166966</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6.844267442303328</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>0.6577918188104123</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.09975189570142659</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0.9836386749781919</v>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U57" t="n">
-        <v>161</v>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>203</v>
-      </c>
-      <c r="B58" t="n">
-        <v>226</v>
-      </c>
-      <c r="C58" t="n">
-        <v>323</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2.186888167962302</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1.566254087782731</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-0.6206340801795708</v>
-      </c>
-      <c r="G58" t="n">
-        <v>120</v>
-      </c>
-      <c r="H58" t="n">
-        <v>21.76856301166296</v>
-      </c>
-      <c r="I58" t="n">
-        <v>23</v>
-      </c>
-      <c r="J58" t="n">
-        <v>97</v>
-      </c>
-      <c r="K58" t="n">
-        <v>207.3831936374202</v>
-      </c>
-      <c r="L58" t="n">
-        <v>8.989801103147022</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>0.6614001236256788</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.2371134020618557</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.09663614544458676</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.5284583176632861</v>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U58" t="n">
-        <v>162</v>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2029</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2062</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2122</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2.363078202495491</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1.74244412231592</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-0.6206340801795708</v>
-      </c>
-      <c r="G59" t="n">
-        <v>93</v>
-      </c>
-      <c r="H59" t="n">
-        <v>33.48453394230773</v>
-      </c>
-      <c r="I59" t="n">
-        <v>33</v>
-      </c>
-      <c r="J59" t="n">
-        <v>60</v>
-      </c>
-      <c r="K59" t="n">
-        <v>116.9363931464687</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9.714078361588562</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>0.8607653504804157</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.3033200810074008</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0.9483196790277639</v>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U59" t="n">
-        <v>163</v>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1421</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1448</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1483</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2.101814227465324</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1.46123878916368</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-0.6405754383016435</v>
-      </c>
-      <c r="G60" t="n">
-        <v>62</v>
-      </c>
-      <c r="H60" t="n">
-        <v>22.43395190296428</v>
-      </c>
-      <c r="I60" t="n">
-        <v>27</v>
-      </c>
-      <c r="J60" t="n">
-        <v>35</v>
-      </c>
-      <c r="K60" t="n">
-        <v>90.91816566311466</v>
-      </c>
-      <c r="L60" t="n">
-        <v>7.663329140087194</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>0.7920269159025344</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.2047374026351934</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0.960588605225637</v>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U60" t="n">
-        <v>164</v>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1483</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1512</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1706</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3.336125662021453</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2.69555022371981</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-0.6405754383016435</v>
-      </c>
-      <c r="G61" t="n">
-        <v>223</v>
-      </c>
-      <c r="H61" t="n">
-        <v>133.0268069387141</v>
-      </c>
-      <c r="I61" t="n">
-        <v>29</v>
-      </c>
-      <c r="J61" t="n">
-        <v>194</v>
-      </c>
-      <c r="K61" t="n">
-        <v>345.3085905762953</v>
-      </c>
-      <c r="L61" t="n">
-        <v>12.16369585222226</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>0.858153836059529</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.1494845360824742</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.2956580760921224</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0.8662020580980397</v>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U61" t="n">
-        <v>165</v>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42</v>
+        <v>777</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>813</v>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>862</v>
       </c>
       <c r="D2" t="n">
-        <v>2.632077837966272</v>
+        <v>2.279202622636278</v>
       </c>
       <c r="E2" t="n">
-        <v>2.074710116612238</v>
+        <v>1.708493955583799</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5573677213540336</v>
+        <v>-0.570708667052479</v>
       </c>
       <c r="G2" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H2" t="n">
-        <v>44.38194718071883</v>
+        <v>29.30993639226824</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K2" t="n">
-        <v>101.7128558578142</v>
+        <v>128.4052506246776</v>
       </c>
       <c r="L2" t="n">
-        <v>10.11336293789353</v>
+        <v>9.0130835363142</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6461758019864174</v>
+        <v>0.7894627961024652</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1140291282415475</v>
+        <v>0.320730887675777</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8898288635865756</v>
+        <v>0.8854418727465779</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>781</v>
+        <v>1090</v>
       </c>
       <c r="B3" t="n">
-        <v>808</v>
+        <v>1134</v>
       </c>
       <c r="C3" t="n">
-        <v>870</v>
+        <v>1190</v>
       </c>
       <c r="D3" t="n">
-        <v>2.392508397332221</v>
+        <v>2.035418844401593</v>
       </c>
       <c r="E3" t="n">
-        <v>1.835140675978187</v>
+        <v>1.464710177349114</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5573677213540336</v>
+        <v>-0.570708667052479</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>31.09053240073297</v>
+        <v>58.04127329626863</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
-        <v>138.6220862908857</v>
+        <v>134.260915397422</v>
       </c>
       <c r="L3" t="n">
-        <v>9.192853419895243</v>
+        <v>8.049043070492854</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8730059718317575</v>
+        <v>0.7425062454725608</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4354838709677419</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3422654251043231</v>
+        <v>0.4254189703676698</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8356173077581911</v>
+        <v>0.849199057035759</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1096</v>
+        <v>124</v>
       </c>
       <c r="B4" t="n">
-        <v>1129</v>
+        <v>178</v>
       </c>
       <c r="C4" t="n">
-        <v>1196</v>
+        <v>271</v>
       </c>
       <c r="D4" t="n">
-        <v>2.127267859104152</v>
+        <v>2.705376788519447</v>
       </c>
       <c r="E4" t="n">
-        <v>1.569900137750118</v>
+        <v>1.954462792485718</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5573677213540336</v>
+        <v>-0.7509139960337287</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="H4" t="n">
-        <v>64.18586836098507</v>
+        <v>149.4609800709649</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="K4" t="n">
-        <v>140.8807645933516</v>
+        <v>281.1866662804247</v>
       </c>
       <c r="L4" t="n">
-        <v>8.173706573153298</v>
+        <v>10.25961693389526</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8022607148331271</v>
+        <v>0.7858490117571101</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4925373134328358</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3740179729972725</v>
+        <v>0.2232513495298498</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7818607509130975</v>
+        <v>0.9293003191532356</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="B5" t="n">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="C5" t="n">
-        <v>275</v>
+        <v>576</v>
       </c>
       <c r="D5" t="n">
-        <v>2.878107763868007</v>
+        <v>2.316501861151428</v>
       </c>
       <c r="E5" t="n">
-        <v>2.135591340316215</v>
+        <v>1.565587865117699</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7425164235517917</v>
+        <v>-0.7509139960337287</v>
       </c>
       <c r="G5" t="n">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H5" t="n">
-        <v>108.4631641141584</v>
+        <v>26.64093393948548</v>
       </c>
       <c r="I5" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="K5" t="n">
-        <v>294.4093526246282</v>
+        <v>272.7563783886353</v>
       </c>
       <c r="L5" t="n">
-        <v>10.79979694361016</v>
+        <v>8.784884169526554</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6865545788108968</v>
+        <v>0.800302937627287</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7362637362637363</v>
+        <v>0.2536231884057971</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2624981270132057</v>
+        <v>0.2810999503566446</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9171790717073081</v>
+        <v>0.9291974949173004</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>410</v>
+        <v>2430</v>
       </c>
       <c r="B6" t="n">
-        <v>434</v>
+        <v>2459</v>
       </c>
       <c r="C6" t="n">
-        <v>569</v>
+        <v>2520</v>
       </c>
       <c r="D6" t="n">
-        <v>2.434077648888152</v>
+        <v>2.335693826212414</v>
       </c>
       <c r="E6" t="n">
-        <v>1.69156122533636</v>
+        <v>1.690240041550837</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7425164235517917</v>
+        <v>-0.6454537846615768</v>
       </c>
       <c r="G6" t="n">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
-        <v>26.97672818040184</v>
+        <v>37.1260133335104</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="K6" t="n">
-        <v>251.7359526480047</v>
+        <v>118.4956731531819</v>
       </c>
       <c r="L6" t="n">
-        <v>9.133620597181237</v>
+        <v>6.910425512306907</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8144291272124881</v>
+        <v>0.8966330327756602</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="R6" t="n">
-        <v>0.253405252060509</v>
+        <v>0.2219691999077108</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8689056021773843</v>
+        <v>0.991604674442169</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2037</v>
+        <v>2520</v>
       </c>
       <c r="B7" t="n">
-        <v>2061</v>
+        <v>2564</v>
       </c>
       <c r="C7" t="n">
-        <v>2134</v>
+        <v>2653</v>
       </c>
       <c r="D7" t="n">
-        <v>1.225917820599422</v>
+        <v>2.406332461195633</v>
       </c>
       <c r="E7" t="n">
-        <v>0.48340139704763</v>
+        <v>1.760878676534056</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7425164235517917</v>
+        <v>-0.6454537846615768</v>
       </c>
       <c r="G7" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="H7" t="n">
-        <v>61.93428747682265</v>
+        <v>88.31404208126105</v>
       </c>
       <c r="I7" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J7" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K7" t="n">
-        <v>70.68561398358118</v>
+        <v>204.8672511483006</v>
       </c>
       <c r="L7" t="n">
-        <v>4.600127798631672</v>
+        <v>7.119418240662127</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8678635782383428</v>
+        <v>0.7245760657351621</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3287671232876712</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2179300915171841</v>
+        <v>0.1621393687946519</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7647211266927219</v>
+        <v>0.6799109715015663</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2459</v>
+        <v>2653</v>
       </c>
       <c r="B8" t="n">
-        <v>2487</v>
+        <v>2757</v>
       </c>
       <c r="C8" t="n">
-        <v>2528</v>
+        <v>2998</v>
       </c>
       <c r="D8" t="n">
-        <v>2.494489647290883</v>
+        <v>2.76160048935651</v>
       </c>
       <c r="E8" t="n">
-        <v>1.751973223739091</v>
+        <v>2.116146704694933</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7425164235517917</v>
+        <v>-0.6454537846615768</v>
       </c>
       <c r="G8" t="n">
-        <v>69</v>
+        <v>345</v>
       </c>
       <c r="H8" t="n">
-        <v>19.61349646651615</v>
+        <v>157.6797729509926</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="J8" t="n">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="K8" t="n">
-        <v>143.2472690752645</v>
+        <v>424.4744299715787</v>
       </c>
       <c r="L8" t="n">
-        <v>9.360310272911223</v>
+        <v>8.170520580342936</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6274563135687501</v>
+        <v>0.789233739684722</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6829268292682927</v>
+        <v>0.4315352697095436</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06601381019337084</v>
+        <v>0.3307702507629147</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8646199514731364</v>
+        <v>0.9008266522663606</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2528</v>
+        <v>1873</v>
       </c>
       <c r="B9" t="n">
-        <v>2563</v>
+        <v>1921</v>
       </c>
       <c r="C9" t="n">
-        <v>2701</v>
+        <v>2017</v>
       </c>
       <c r="D9" t="n">
-        <v>2.921850755140353</v>
+        <v>3.627606580399941</v>
       </c>
       <c r="E9" t="n">
-        <v>2.179334331588562</v>
+        <v>3.094169616409737</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7425164235517917</v>
+        <v>-0.5334369639902047</v>
       </c>
       <c r="G9" t="n">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="H9" t="n">
-        <v>187.2659675712353</v>
+        <v>65.77717945269637</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J9" t="n">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="K9" t="n">
-        <v>250.655400642006</v>
+        <v>280.0852395060856</v>
       </c>
       <c r="L9" t="n">
-        <v>10.96393792171327</v>
+        <v>18.30697218481223</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9004248649690334</v>
+        <v>0.8663979623183825</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2536231884057971</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.493066224017769</v>
+        <v>0.2267131491920168</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9481062348363771</v>
+        <v>0.9554794757360699</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2432</v>
+        <v>2326</v>
       </c>
       <c r="B10" t="n">
-        <v>2453</v>
+        <v>2461</v>
       </c>
       <c r="C10" t="n">
-        <v>2527</v>
+        <v>2636</v>
       </c>
       <c r="D10" t="n">
-        <v>2.586077088778936</v>
+        <v>4.51737897517116</v>
       </c>
       <c r="E10" t="n">
-        <v>1.921027942594268</v>
+        <v>3.983942011180955</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6650491461846675</v>
+        <v>-0.5334369639902047</v>
       </c>
       <c r="G10" t="n">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="H10" t="n">
-        <v>37.77300527927491</v>
+        <v>70.18203701414541</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="J10" t="n">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6097034011272</v>
+        <v>370.8468944018989</v>
       </c>
       <c r="L10" t="n">
-        <v>7.610354799679746</v>
+        <v>22.79727126241911</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.9897940065606677</v>
+        <v>0.5655209144556334</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2837837837837838</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2414870367075537</v>
+        <v>0.7387592452275088</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9877849862549218</v>
+        <v>0.9469506616115986</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2527</v>
+        <v>2644</v>
       </c>
       <c r="B11" t="n">
-        <v>2562</v>
+        <v>2783</v>
       </c>
       <c r="C11" t="n">
-        <v>2653</v>
+        <v>2998</v>
       </c>
       <c r="D11" t="n">
-        <v>2.57587376664517</v>
+        <v>3.439537710029497</v>
       </c>
       <c r="E11" t="n">
-        <v>1.910824620460503</v>
+        <v>3.053267214523638</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6650491461846675</v>
+        <v>-0.3862704955058588</v>
       </c>
       <c r="G11" t="n">
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="H11" t="n">
-        <v>79.55343755521653</v>
+        <v>43.99779135719336</v>
       </c>
       <c r="I11" t="n">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="J11" t="n">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="K11" t="n">
-        <v>202.8659356641566</v>
+        <v>499.2600528135094</v>
       </c>
       <c r="L11" t="n">
-        <v>7.580328277303321</v>
+        <v>5.532551299964281</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7717096486268037</v>
+        <v>0.5885393797133224</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.6465116279069767</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1643585548889484</v>
+        <v>0.3540067929809644</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6679092871844592</v>
+        <v>0.9212171034800696</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2653</v>
+        <v>555</v>
       </c>
       <c r="B12" t="n">
-        <v>2755</v>
+        <v>587</v>
       </c>
       <c r="C12" t="n">
-        <v>2998</v>
+        <v>670</v>
       </c>
       <c r="D12" t="n">
-        <v>2.96696040287789</v>
+        <v>2.808729345056085</v>
       </c>
       <c r="E12" t="n">
-        <v>2.301911256693223</v>
+        <v>2.268454322734887</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6650491461846675</v>
+        <v>-0.5402750223211973</v>
       </c>
       <c r="G12" t="n">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="H12" t="n">
-        <v>152.9409268082777</v>
+        <v>76.66938824272836</v>
       </c>
       <c r="I12" t="n">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="J12" t="n">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
-        <v>431.3677165849434</v>
+        <v>159.6073608358424</v>
       </c>
       <c r="L12" t="n">
-        <v>8.731225159712039</v>
+        <v>5.912880909586478</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7589611281177284</v>
+        <v>0.8284956205222932</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4197530864197531</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="R12" t="n">
-        <v>0.328142341519385</v>
+        <v>0.1996904979087991</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8839043312679766</v>
+        <v>0.7965441297188386</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1878</v>
+        <v>2099</v>
       </c>
       <c r="B13" t="n">
-        <v>1928</v>
+        <v>2144</v>
       </c>
       <c r="C13" t="n">
-        <v>2026</v>
+        <v>2248</v>
       </c>
       <c r="D13" t="n">
-        <v>3.539205740046278</v>
+        <v>3.299799182209632</v>
       </c>
       <c r="E13" t="n">
-        <v>2.998504984724482</v>
+        <v>2.638856081666853</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5407007553217958</v>
+        <v>-0.6609431005427793</v>
       </c>
       <c r="G13" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H13" t="n">
-        <v>65.71472443166545</v>
+        <v>111.9965987333144</v>
       </c>
       <c r="I13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J13" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K13" t="n">
-        <v>290.2450734376139</v>
+        <v>318.3979596971942</v>
       </c>
       <c r="L13" t="n">
-        <v>17.8558153353555</v>
+        <v>21.19180829301392</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7861391581837859</v>
+        <v>0.8454816520443122</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3564405626709357</v>
+        <v>0.2032101912445673</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9009299755175741</v>
+        <v>0.9796574016968589</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2649</v>
+        <v>2248</v>
       </c>
       <c r="B14" t="n">
-        <v>2782</v>
+        <v>2288</v>
       </c>
       <c r="C14" t="n">
-        <v>2998</v>
+        <v>2348</v>
       </c>
       <c r="D14" t="n">
-        <v>3.799952528980679</v>
+        <v>2.794265938697915</v>
       </c>
       <c r="E14" t="n">
-        <v>3.412740772871864</v>
+        <v>2.133322838155136</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3872117561088147</v>
+        <v>-0.6609431005427793</v>
       </c>
       <c r="G14" t="n">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>36.51690346069881</v>
+        <v>45.71553876743019</v>
       </c>
       <c r="I14" t="n">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>499.9082703608565</v>
+        <v>195.1421522084811</v>
       </c>
       <c r="L14" t="n">
-        <v>6.044415746419967</v>
+        <v>17.94519751742362</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.5593247064207704</v>
+        <v>0.6657555683188846</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6157407407407407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3670136601555311</v>
+        <v>0.05070791157441563</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8659934085164673</v>
+        <v>0.9758025051593774</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2027</v>
+        <v>2348</v>
       </c>
       <c r="B15" t="n">
-        <v>2060</v>
+        <v>2389</v>
       </c>
       <c r="C15" t="n">
-        <v>2152</v>
+        <v>2449</v>
       </c>
       <c r="D15" t="n">
-        <v>2.161349433101693</v>
+        <v>2.939666000484497</v>
       </c>
       <c r="E15" t="n">
-        <v>1.595686450808079</v>
+        <v>2.278722899941717</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.565662982293614</v>
+        <v>-0.6609431005427793</v>
       </c>
       <c r="G15" t="n">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H15" t="n">
-        <v>48.66035654173038</v>
+        <v>45.70068027874959</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J15" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>157.6755549779888</v>
+        <v>189.9940190705069</v>
       </c>
       <c r="L15" t="n">
-        <v>4.516028485430872</v>
+        <v>18.87897865531405</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8952697314385477</v>
+        <v>0.7183121174672861</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.358695652173913</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1976330119297929</v>
+        <v>0.1174749556819185</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8108656058772408</v>
+        <v>0.9525922454432375</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2152</v>
+        <v>2449</v>
       </c>
       <c r="B16" t="n">
-        <v>2188</v>
+        <v>2484</v>
       </c>
       <c r="C16" t="n">
-        <v>2242</v>
+        <v>2570</v>
       </c>
       <c r="D16" t="n">
-        <v>3.300516602607802</v>
+        <v>1.397181021898511</v>
       </c>
       <c r="E16" t="n">
-        <v>2.734853620314188</v>
+        <v>0.7362379213557319</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.565662982293614</v>
+        <v>-0.6609431005427793</v>
       </c>
       <c r="G16" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="H16" t="n">
-        <v>126.5571987191279</v>
+        <v>29.29287863021545</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="K16" t="n">
-        <v>201.2676111781009</v>
+        <v>99.90369959896479</v>
       </c>
       <c r="L16" t="n">
-        <v>6.896259700415162</v>
+        <v>8.972907359436251</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7477410343859406</v>
+        <v>0.8340779197191462</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4069767441860465</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3141460064566624</v>
+        <v>0.2756531732464941</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8998710229631635</v>
+        <v>0.8472807911994944</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>555</v>
+        <v>750</v>
       </c>
       <c r="B17" t="n">
-        <v>588</v>
+        <v>788</v>
       </c>
       <c r="C17" t="n">
-        <v>649</v>
+        <v>861</v>
       </c>
       <c r="D17" t="n">
-        <v>2.990699813282517</v>
+        <v>4.287678817169932</v>
       </c>
       <c r="E17" t="n">
-        <v>2.316862249101217</v>
+        <v>3.855153456558829</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6738375641812995</v>
+        <v>-0.4325253606111027</v>
       </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="H17" t="n">
-        <v>73.6333305267259</v>
+        <v>68.33863048618082</v>
       </c>
       <c r="I17" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J17" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K17" t="n">
-        <v>177.0648615866163</v>
+        <v>239.4538247967123</v>
       </c>
       <c r="L17" t="n">
-        <v>19.53155365271344</v>
+        <v>13.10289134590326</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7933455173414639</v>
+        <v>0.8316208581825872</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1993742763228368</v>
+        <v>0.2581570130737971</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9494598555764486</v>
+        <v>0.9488175298989538</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="B18" t="n">
-        <v>2164</v>
+        <v>2134</v>
       </c>
       <c r="C18" t="n">
-        <v>2255</v>
+        <v>2293</v>
       </c>
       <c r="D18" t="n">
-        <v>3.346098395647878</v>
+        <v>2.645390943324153</v>
       </c>
       <c r="E18" t="n">
-        <v>2.672260831466578</v>
+        <v>2.134076796383739</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6738375641812995</v>
+        <v>-0.511314146940414</v>
       </c>
       <c r="G18" t="n">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="H18" t="n">
-        <v>103.555301035643</v>
+        <v>53.37393251922595</v>
       </c>
       <c r="I18" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J18" t="n">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="K18" t="n">
-        <v>328.7151566209034</v>
+        <v>194.0502581401373</v>
       </c>
       <c r="L18" t="n">
-        <v>21.85257779854657</v>
+        <v>8.031310448140884</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.6619504546041139</v>
+        <v>0.7526161859018976</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6593406593406593</v>
+        <v>0.2138364779874214</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3007225586700629</v>
+        <v>0.5046765709704455</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9638504536930975</v>
+        <v>0.2686369537947464</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2255</v>
+        <v>2802</v>
       </c>
       <c r="B19" t="n">
-        <v>2284</v>
+        <v>2853</v>
       </c>
       <c r="C19" t="n">
-        <v>2353</v>
+        <v>2998</v>
       </c>
       <c r="D19" t="n">
-        <v>2.986278553083744</v>
+        <v>2.222649993124144</v>
       </c>
       <c r="E19" t="n">
-        <v>2.312440988902444</v>
+        <v>1.824547778331746</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6738375641812995</v>
+        <v>-0.3981022147923987</v>
       </c>
       <c r="G19" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="H19" t="n">
-        <v>41.03726429873132</v>
+        <v>62.72765459538368</v>
       </c>
       <c r="I19" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J19" t="n">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="K19" t="n">
-        <v>193.1609469853306</v>
+        <v>230.294757752797</v>
       </c>
       <c r="L19" t="n">
-        <v>19.50267944728452</v>
+        <v>6.188690861399439</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7724458442392544</v>
+        <v>0.8253580663826093</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.3517241379310345</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06671545000150372</v>
+        <v>0.4295110232328778</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9698596973613665</v>
+        <v>0.5125918257078619</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2353</v>
+        <v>70</v>
       </c>
       <c r="B20" t="n">
-        <v>2386</v>
+        <v>105</v>
       </c>
       <c r="C20" t="n">
-        <v>2452</v>
+        <v>195</v>
       </c>
       <c r="D20" t="n">
-        <v>3.145717989990371</v>
+        <v>2.022448375753335</v>
       </c>
       <c r="E20" t="n">
-        <v>2.471880425809071</v>
+        <v>1.450122209620578</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6738375641812995</v>
+        <v>-0.5723261661327568</v>
       </c>
       <c r="G20" t="n">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="H20" t="n">
-        <v>42.1441724563042</v>
+        <v>53.3927695418498</v>
       </c>
       <c r="I20" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K20" t="n">
-        <v>187.3818521666685</v>
+        <v>108.8074693316984</v>
       </c>
       <c r="L20" t="n">
-        <v>20.5439407274938</v>
+        <v>6.091991849818433</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7961141460515725</v>
+        <v>0.911769444235782</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1483829576870829</v>
+        <v>0.4281122231952623</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8919025385947645</v>
+        <v>0.9197578818120618</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>752</v>
+        <v>2400</v>
       </c>
       <c r="B21" t="n">
-        <v>784</v>
+        <v>2435</v>
       </c>
       <c r="C21" t="n">
-        <v>866</v>
+        <v>2491</v>
       </c>
       <c r="D21" t="n">
-        <v>4.936972919712602</v>
+        <v>2.24857082145976</v>
       </c>
       <c r="E21" t="n">
-        <v>4.498190782418741</v>
+        <v>1.711597745431614</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4387821372938616</v>
+        <v>-0.5369730760281459</v>
       </c>
       <c r="G21" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H21" t="n">
-        <v>44.20923890332074</v>
+        <v>32.19491644010213</v>
       </c>
       <c r="I21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="K21" t="n">
-        <v>241.6493191444936</v>
+        <v>114.9922373245777</v>
       </c>
       <c r="L21" t="n">
-        <v>14.55539236404956</v>
+        <v>6.351927391217585</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.9317855477557155</v>
+        <v>0.8308195374992317</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.625</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2409283956628819</v>
+        <v>0.3057539242369567</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9480475589145282</v>
+        <v>0.9286345577013096</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2939</v>
+        <v>924</v>
       </c>
       <c r="B22" t="n">
-        <v>2961</v>
+        <v>966</v>
       </c>
       <c r="C22" t="n">
-        <v>2998</v>
+        <v>1048</v>
       </c>
       <c r="D22" t="n">
-        <v>2.268423764452632</v>
+        <v>2.321379767306716</v>
       </c>
       <c r="E22" t="n">
-        <v>1.829641627158771</v>
+        <v>1.7309906133365</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4387821372938616</v>
+        <v>-0.5903891539702157</v>
       </c>
       <c r="G22" t="n">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="H22" t="n">
-        <v>18.18695401751302</v>
+        <v>44.19493568037649</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J22" t="n">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>100.9412972608932</v>
+        <v>185.2592797573498</v>
       </c>
       <c r="L22" t="n">
-        <v>6.687862882072376</v>
+        <v>6.222090747088795</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.76460691510104</v>
+        <v>0.7121827520747641</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1885940571345633</v>
+        <v>0.1030792247086889</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8168376422732062</v>
+        <v>0.9262254607142789</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>114</v>
+        <v>1048</v>
       </c>
       <c r="B23" t="n">
-        <v>158</v>
+        <v>1098</v>
       </c>
       <c r="C23" t="n">
-        <v>234</v>
+        <v>1317</v>
       </c>
       <c r="D23" t="n">
-        <v>4.683749869247713</v>
+        <v>3.590010489397174</v>
       </c>
       <c r="E23" t="n">
-        <v>4.185260855117996</v>
+        <v>2.999621335426958</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4984890141297166</v>
+        <v>-0.5903891539702157</v>
       </c>
       <c r="G23" t="n">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="H23" t="n">
-        <v>44.41624843031749</v>
+        <v>149.4344957270059</v>
       </c>
       <c r="I23" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J23" t="n">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="K23" t="n">
-        <v>268.7380991313904</v>
+        <v>400.5371170399798</v>
       </c>
       <c r="L23" t="n">
-        <v>14.03854939290696</v>
+        <v>9.622454439648138</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8012887358154562</v>
+        <v>0.9145204908934748</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.228310502283105</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1534347579416173</v>
+        <v>0.424023499343875</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9738981314798116</v>
+        <v>0.9312446601445502</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="B24" t="n">
-        <v>1338</v>
+        <v>1445</v>
       </c>
       <c r="C24" t="n">
-        <v>1398</v>
+        <v>1756</v>
       </c>
       <c r="D24" t="n">
-        <v>2.049655287753999</v>
+        <v>2.648566335055342</v>
       </c>
       <c r="E24" t="n">
-        <v>1.551166273624283</v>
+        <v>2.058177181085126</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4984890141297166</v>
+        <v>-0.5903891539702157</v>
       </c>
       <c r="G24" t="n">
-        <v>86</v>
+        <v>439</v>
       </c>
       <c r="H24" t="n">
-        <v>131.2293886908981</v>
+        <v>101.8180734036148</v>
       </c>
       <c r="I24" t="n">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="K24" t="n">
-        <v>119.7719526767544</v>
+        <v>517.0864618656246</v>
       </c>
       <c r="L24" t="n">
-        <v>6.14340812358305</v>
+        <v>7.099062513807689</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.821409777918363</v>
+        <v>0.6302938324964293</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4115755627009646</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3245813338107069</v>
+        <v>0.2569064341783027</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8917854923819104</v>
+        <v>0.6057902237151171</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1398</v>
+        <v>77</v>
       </c>
       <c r="B25" t="n">
-        <v>1423</v>
+        <v>113</v>
       </c>
       <c r="C25" t="n">
-        <v>1465</v>
+        <v>234</v>
       </c>
       <c r="D25" t="n">
-        <v>1.745541635820449</v>
+        <v>2.526806031939489</v>
       </c>
       <c r="E25" t="n">
-        <v>1.247052621690732</v>
+        <v>1.923829427135864</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4984890141297166</v>
+        <v>-0.6029766048036252</v>
       </c>
       <c r="G25" t="n">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="H25" t="n">
-        <v>28.87909264315567</v>
+        <v>66.62647580559546</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="K25" t="n">
-        <v>74.1673121883463</v>
+        <v>201.407709345013</v>
       </c>
       <c r="L25" t="n">
-        <v>5.231891786692886</v>
+        <v>12.87728959993302</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8450164377202175</v>
+        <v>0.9319940793963221</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.2975206611570248</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2606061477779102</v>
+        <v>0.2234387423659921</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9679280449593944</v>
+        <v>0.8024647521231106</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2716</v>
+        <v>334</v>
       </c>
       <c r="B26" t="n">
-        <v>2735</v>
+        <v>373</v>
       </c>
       <c r="C26" t="n">
-        <v>2798</v>
+        <v>482</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7294250197623193</v>
+        <v>2.379146392496784</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3127458804123104</v>
+        <v>1.776169787693159</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4166791393500089</v>
+        <v>-0.6029766048036252</v>
       </c>
       <c r="G26" t="n">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="H26" t="n">
-        <v>36.96244014406602</v>
+        <v>33.70496512364451</v>
       </c>
       <c r="I26" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J26" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="K26" t="n">
-        <v>25.93486878915948</v>
+        <v>163.5721917773402</v>
       </c>
       <c r="L26" t="n">
-        <v>5.160303303895661</v>
+        <v>12.12477598579307</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.9518191706540797</v>
+        <v>0.8750471333289025</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3163889631523634</v>
+        <v>0.5695412454109644</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9374019302139964</v>
+        <v>0.9650117442378587</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="B27" t="n">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="C27" t="n">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D27" t="n">
-        <v>4.39490437613416</v>
+        <v>2.688166145558837</v>
       </c>
       <c r="E27" t="n">
-        <v>3.866164443268007</v>
+        <v>2.24533495241994</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5287399328661534</v>
+        <v>-0.4428311931388975</v>
       </c>
       <c r="G27" t="n">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="H27" t="n">
-        <v>225.996749941234</v>
+        <v>129.5715995774856</v>
       </c>
       <c r="I27" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="J27" t="n">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="K27" t="n">
-        <v>516.0244926125357</v>
+        <v>347.6240494542215</v>
       </c>
       <c r="L27" t="n">
-        <v>24.10733118566812</v>
+        <v>6.037234359700224</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8337015836433159</v>
+        <v>0.5512895268052219</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3157830302818987</v>
+        <v>0.1874511614637078</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8299638511062484</v>
+        <v>0.6324109957230759</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>515</v>
+        <v>193</v>
       </c>
       <c r="B28" t="n">
-        <v>539</v>
+        <v>235</v>
       </c>
       <c r="C28" t="n">
-        <v>580</v>
+        <v>319</v>
       </c>
       <c r="D28" t="n">
-        <v>2.021786859712619</v>
+        <v>1.984113358354723</v>
       </c>
       <c r="E28" t="n">
-        <v>1.454378506462529</v>
+        <v>1.377255407002713</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.567408353250091</v>
+        <v>-0.6068579513520103</v>
       </c>
       <c r="G28" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="H28" t="n">
-        <v>23.60107515771244</v>
+        <v>32.34283402071728</v>
       </c>
       <c r="I28" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J28" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="K28" t="n">
-        <v>86.86924355406477</v>
+        <v>214.8961246370513</v>
       </c>
       <c r="L28" t="n">
-        <v>4.399657776228433</v>
+        <v>8.69461562537488</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7939728019948773</v>
+        <v>0.6022998687331544</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.5</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1586829906405753</v>
+        <v>0.06211866535689451</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9424073760366108</v>
+        <v>0.5794921025121508</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>170</v>
+        <v>2028</v>
       </c>
       <c r="B29" t="n">
-        <v>221</v>
+        <v>2067</v>
       </c>
       <c r="C29" t="n">
-        <v>478</v>
+        <v>2131</v>
       </c>
       <c r="D29" t="n">
-        <v>3.058936680026465</v>
+        <v>2.165358463913718</v>
       </c>
       <c r="E29" t="n">
-        <v>2.511223595090207</v>
+        <v>1.558500512561708</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5477130849362586</v>
+        <v>-0.6068579513520103</v>
       </c>
       <c r="G29" t="n">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="H29" t="n">
-        <v>41.69670233287013</v>
+        <v>37.68415483656099</v>
       </c>
       <c r="I29" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J29" t="n">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="K29" t="n">
-        <v>327.0795612759862</v>
+        <v>122.0031963779678</v>
       </c>
       <c r="L29" t="n">
-        <v>7.003485837354588</v>
+        <v>9.488852769225721</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.5591360248826012</v>
+        <v>0.8461459957857843</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.198443579766537</v>
+        <v>0.609375</v>
       </c>
       <c r="R29" t="n">
-        <v>0.7702962725881003</v>
+        <v>0.2138526705902904</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2700234817769757</v>
+        <v>0.9782443997897851</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2806</v>
+        <v>1476</v>
       </c>
       <c r="B30" t="n">
-        <v>2856</v>
+        <v>1519</v>
       </c>
       <c r="C30" t="n">
-        <v>2998</v>
+        <v>1671</v>
       </c>
       <c r="D30" t="n">
-        <v>2.328733514732471</v>
+        <v>3.177348163723424</v>
       </c>
       <c r="E30" t="n">
-        <v>1.917254936085103</v>
+        <v>2.525894589100086</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4114785786473686</v>
+        <v>-0.6514535746233385</v>
       </c>
       <c r="G30" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H30" t="n">
-        <v>58.40479836666918</v>
+        <v>143.8004729678853</v>
       </c>
       <c r="I30" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J30" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K30" t="n">
-        <v>233.3637340569438</v>
+        <v>339.0983564714388</v>
       </c>
       <c r="L30" t="n">
-        <v>5.887328789732026</v>
+        <v>12.01179700032822</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7651652634278066</v>
+        <v>0.891885736265347</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.352112676056338</v>
+        <v>0.2828947368421053</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4125014714329383</v>
+        <v>0.2372481088771956</v>
       </c>
       <c r="S30" t="n">
-        <v>0.3990134684553541</v>
+        <v>0.7895793758391924</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3044,1640 +3044,6 @@
         </is>
       </c>
       <c r="X30" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1626</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1653</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.825633590757121</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2.247417732504086</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-0.5782158582530356</v>
-      </c>
-      <c r="G31" t="n">
-        <v>287</v>
-      </c>
-      <c r="H31" t="n">
-        <v>26.38410385693464</v>
-      </c>
-      <c r="I31" t="n">
-        <v>27</v>
-      </c>
-      <c r="J31" t="n">
-        <v>260</v>
-      </c>
-      <c r="K31" t="n">
-        <v>386.0889911502392</v>
-      </c>
-      <c r="L31" t="n">
-        <v>8.323736351838598</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>0.7441389750919551</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.1038461538461539</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.4589890234040849</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.7964037887467333</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>n23</t>
-        </is>
-      </c>
-      <c r="U31" t="n">
-        <v>119</v>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2404</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2429</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2.524420543662235</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.974589710908041</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.5498308327541938</v>
-      </c>
-      <c r="G32" t="n">
-        <v>95</v>
-      </c>
-      <c r="H32" t="n">
-        <v>29.6441677188991</v>
-      </c>
-      <c r="I32" t="n">
-        <v>25</v>
-      </c>
-      <c r="J32" t="n">
-        <v>70</v>
-      </c>
-      <c r="K32" t="n">
-        <v>122.6548716997841</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6.949782220644957</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>0.9045846470089056</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.3133476990260499</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.9024348278409693</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>n24</t>
-        </is>
-      </c>
-      <c r="U32" t="n">
-        <v>120</v>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>420</v>
-      </c>
-      <c r="B33" t="n">
-        <v>446</v>
-      </c>
-      <c r="C33" t="n">
-        <v>516</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2.177891632617773</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1.702861876826822</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.4750297557909506</v>
-      </c>
-      <c r="G33" t="n">
-        <v>96</v>
-      </c>
-      <c r="H33" t="n">
-        <v>145.307748615276</v>
-      </c>
-      <c r="I33" t="n">
-        <v>26</v>
-      </c>
-      <c r="J33" t="n">
-        <v>70</v>
-      </c>
-      <c r="K33" t="n">
-        <v>125.6141227886112</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.476152414332427</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>0.8434556987820166</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.2670741831233553</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.8679548866276344</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>n25</t>
-        </is>
-      </c>
-      <c r="U33" t="n">
-        <v>121</v>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>858</v>
-      </c>
-      <c r="B34" t="n">
-        <v>886</v>
-      </c>
-      <c r="C34" t="n">
-        <v>932</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2.473152217715022</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.874675422765238</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-0.5984767949497842</v>
-      </c>
-      <c r="G34" t="n">
-        <v>74</v>
-      </c>
-      <c r="H34" t="n">
-        <v>37.34385070279552</v>
-      </c>
-      <c r="I34" t="n">
-        <v>28</v>
-      </c>
-      <c r="J34" t="n">
-        <v>46</v>
-      </c>
-      <c r="K34" t="n">
-        <v>113.4459913827303</v>
-      </c>
-      <c r="L34" t="n">
-        <v>6.618049345712878</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>0.8212958286204657</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.2564867301413334</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.9580716212564334</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U34" t="n">
-        <v>122</v>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>932</v>
-      </c>
-      <c r="B35" t="n">
-        <v>971</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1046</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2.309738237459706</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.711261442509921</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-0.5984767949497842</v>
-      </c>
-      <c r="G35" t="n">
-        <v>114</v>
-      </c>
-      <c r="H35" t="n">
-        <v>42.53732186262982</v>
-      </c>
-      <c r="I35" t="n">
-        <v>39</v>
-      </c>
-      <c r="J35" t="n">
-        <v>75</v>
-      </c>
-      <c r="K35" t="n">
-        <v>176.3219686761982</v>
-      </c>
-      <c r="L35" t="n">
-        <v>6.180760537784901</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>0.826862219176476</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.2054143357845089</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.7816359270636701</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
-        <v>123</v>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1046</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1093</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1316</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.747317334856595</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.148840539906811</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-0.5984767949497842</v>
-      </c>
-      <c r="G36" t="n">
-        <v>270</v>
-      </c>
-      <c r="H36" t="n">
-        <v>140.7606244090141</v>
-      </c>
-      <c r="I36" t="n">
-        <v>47</v>
-      </c>
-      <c r="J36" t="n">
-        <v>223</v>
-      </c>
-      <c r="K36" t="n">
-        <v>404.2683446429493</v>
-      </c>
-      <c r="L36" t="n">
-        <v>10.02766059383081</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>0.8589422113345236</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.210762331838565</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.3481256824483223</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.8914097713580299</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
-        <v>124</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1316</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1438</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.678440831932352</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2.079964036982568</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-0.5984767949497842</v>
-      </c>
-      <c r="G37" t="n">
-        <v>440</v>
-      </c>
-      <c r="H37" t="n">
-        <v>95.45636021276459</v>
-      </c>
-      <c r="I37" t="n">
-        <v>122</v>
-      </c>
-      <c r="J37" t="n">
-        <v>318</v>
-      </c>
-      <c r="K37" t="n">
-        <v>520.5914693701052</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.167392879552678</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(1348), 'value': np.float64(0.6251131208638586), 'amplitude': np.float64(1.2235899158136427), 'start_idx': np.int64(1317), 'end_idx': np.int64(1368), 'duration': np.float64(51.0), 'fwhm': np.float64(17.827175497683584), 'rise_time': np.float64(31.0), 'decay_time': np.float64(20.0), 'auc': np.float64(33.27657342579501)}]</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>0.6282035064429038</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.3836477987421384</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.2719235047304617</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.581564087743019</v>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
-        <v>125</v>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1756</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1797</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1861</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.358740865998666</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1.760264071048881</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-0.5984767949497842</v>
-      </c>
-      <c r="G38" t="n">
-        <v>105</v>
-      </c>
-      <c r="H38" t="n">
-        <v>65.14962116275092</v>
-      </c>
-      <c r="I38" t="n">
-        <v>41</v>
-      </c>
-      <c r="J38" t="n">
-        <v>64</v>
-      </c>
-      <c r="K38" t="n">
-        <v>157.5149866465187</v>
-      </c>
-      <c r="L38" t="n">
-        <v>6.311889471708792</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>0.7019620184576122</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.640625</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.158505704350836</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.7837952070452702</v>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U38" t="n">
-        <v>126</v>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1090</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1156</v>
-      </c>
-      <c r="D39" t="n">
-        <v>5.027852905239094</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.526142887401402</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-0.5017100178376914</v>
-      </c>
-      <c r="G39" t="n">
-        <v>96</v>
-      </c>
-      <c r="H39" t="n">
-        <v>79.83407117287948</v>
-      </c>
-      <c r="I39" t="n">
-        <v>30</v>
-      </c>
-      <c r="J39" t="n">
-        <v>66</v>
-      </c>
-      <c r="K39" t="n">
-        <v>284.755025741246</v>
-      </c>
-      <c r="L39" t="n">
-        <v>15.06684062183806</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>0.7848390186486988</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.1695678423238519</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.9025348560432594</v>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U39" t="n">
-        <v>127</v>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>673</v>
-      </c>
-      <c r="B40" t="n">
-        <v>701</v>
-      </c>
-      <c r="C40" t="n">
-        <v>767</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.043836894157155</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.568237841597487</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-0.4755990525596681</v>
-      </c>
-      <c r="G40" t="n">
-        <v>94</v>
-      </c>
-      <c r="H40" t="n">
-        <v>80.3723467255893</v>
-      </c>
-      <c r="I40" t="n">
-        <v>28</v>
-      </c>
-      <c r="J40" t="n">
-        <v>66</v>
-      </c>
-      <c r="K40" t="n">
-        <v>96.22963592187784</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.830058095429012</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(751), 'value': np.float64(0.682741230180892), 'amplitude': np.float64(1.15834028274056), 'start_idx': np.int64(729), 'end_idx': np.int64(766), 'duration': np.float64(37.0), 'fwhm': np.float64(18.65066328443072), 'rise_time': np.float64(22.0), 'decay_time': np.float64(15.0), 'auc': np.float64(29.668454502417738)}]</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>0.7451684020288802</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.3788128813501127</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.4625274711193142</v>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U40" t="n">
-        <v>128</v>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2801</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2874</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2998</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.506868637141064</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.031269584581396</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-0.4755990525596681</v>
-      </c>
-      <c r="G41" t="n">
-        <v>197</v>
-      </c>
-      <c r="H41" t="n">
-        <v>38.90577928107587</v>
-      </c>
-      <c r="I41" t="n">
-        <v>73</v>
-      </c>
-      <c r="J41" t="n">
-        <v>124</v>
-      </c>
-      <c r="K41" t="n">
-        <v>178.2706567103328</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.298352633630869</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(2965), 'value': np.float64(0.7807099979329248), 'amplitude': np.float64(1.256309050492593), 'start_idx': np.int64(2947), 'end_idx': np.int64(2989), 'duration': np.float64(42.0), 'fwhm': np.float64(16.435325661384468), 'rise_time': np.float64(18.0), 'decay_time': np.float64(24.0), 'auc': np.float64(35.61960448342825)}]</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>0.5345701202494639</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.5887096774193549</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.3052275489322063</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.5243235643766913</v>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U41" t="n">
-        <v>129</v>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>239</v>
-      </c>
-      <c r="B42" t="n">
-        <v>270</v>
-      </c>
-      <c r="C42" t="n">
-        <v>339</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2.865394408672725</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2.245503948224254</v>
-      </c>
-      <c r="F42" t="n">
-        <v>-0.6198904604484717</v>
-      </c>
-      <c r="G42" t="n">
-        <v>100</v>
-      </c>
-      <c r="H42" t="n">
-        <v>83.75681985277333</v>
-      </c>
-      <c r="I42" t="n">
-        <v>31</v>
-      </c>
-      <c r="J42" t="n">
-        <v>69</v>
-      </c>
-      <c r="K42" t="n">
-        <v>194.3885800097963</v>
-      </c>
-      <c r="L42" t="n">
-        <v>14.14934737369345</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>0.8232176265737572</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.4492753623188406</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.6056874094767719</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.8603288596794986</v>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U42" t="n">
-        <v>130</v>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>339</v>
-      </c>
-      <c r="B43" t="n">
-        <v>372</v>
-      </c>
-      <c r="C43" t="n">
-        <v>480</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2.521994622181698</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1.902104161733227</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-0.6198904604484717</v>
-      </c>
-      <c r="G43" t="n">
-        <v>141</v>
-      </c>
-      <c r="H43" t="n">
-        <v>29.17518329950292</v>
-      </c>
-      <c r="I43" t="n">
-        <v>33</v>
-      </c>
-      <c r="J43" t="n">
-        <v>108</v>
-      </c>
-      <c r="K43" t="n">
-        <v>158.1521617004357</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12.45363565861253</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>0.8756251869331415</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.5624588852798335</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.8954952747705107</v>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U43" t="n">
-        <v>131</v>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2501</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2534</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2670</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.865089989695086</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3.245199529246614</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-0.6198904604484717</v>
-      </c>
-      <c r="G44" t="n">
-        <v>169</v>
-      </c>
-      <c r="H44" t="n">
-        <v>180.4346195415351</v>
-      </c>
-      <c r="I44" t="n">
-        <v>33</v>
-      </c>
-      <c r="J44" t="n">
-        <v>136</v>
-      </c>
-      <c r="K44" t="n">
-        <v>310.5820356385674</v>
-      </c>
-      <c r="L44" t="n">
-        <v>19.08585454388221</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>0.8971402475018008</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.2426470588235294</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.5529798422299027</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.9577489161247665</v>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U44" t="n">
-        <v>132</v>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>243</v>
-      </c>
-      <c r="B45" t="n">
-        <v>305</v>
-      </c>
-      <c r="C45" t="n">
-        <v>424</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2.770604958346366</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2.316782194665282</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-0.4538227636810838</v>
-      </c>
-      <c r="G45" t="n">
-        <v>181</v>
-      </c>
-      <c r="H45" t="n">
-        <v>130.0277918587542</v>
-      </c>
-      <c r="I45" t="n">
-        <v>62</v>
-      </c>
-      <c r="J45" t="n">
-        <v>119</v>
-      </c>
-      <c r="K45" t="n">
-        <v>359.1514998921657</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.948794310961595</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>0.5694167843179769</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.5210084033613446</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.1644335015690791</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.7250401779426119</v>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U45" t="n">
-        <v>133</v>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>424</v>
-      </c>
-      <c r="B46" t="n">
-        <v>456</v>
-      </c>
-      <c r="C46" t="n">
-        <v>506</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.225707879423482</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.771885115742398</v>
-      </c>
-      <c r="F46" t="n">
-        <v>-0.4538227636810838</v>
-      </c>
-      <c r="G46" t="n">
-        <v>82</v>
-      </c>
-      <c r="H46" t="n">
-        <v>182.1690336249336</v>
-      </c>
-      <c r="I46" t="n">
-        <v>32</v>
-      </c>
-      <c r="J46" t="n">
-        <v>50</v>
-      </c>
-      <c r="K46" t="n">
-        <v>170.4834508838645</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6.925950458628858</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>0.6501027520453969</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.09048132568858488</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.9872033941022613</v>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U46" t="n">
-        <v>134</v>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>202</v>
-      </c>
-      <c r="B47" t="n">
-        <v>226</v>
-      </c>
-      <c r="C47" t="n">
-        <v>323</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.15347707638955</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1.535465356737275</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-0.6180117196522751</v>
-      </c>
-      <c r="G47" t="n">
-        <v>121</v>
-      </c>
-      <c r="H47" t="n">
-        <v>21.80985780094227</v>
-      </c>
-      <c r="I47" t="n">
-        <v>24</v>
-      </c>
-      <c r="J47" t="n">
-        <v>97</v>
-      </c>
-      <c r="K47" t="n">
-        <v>208.3871328253866</v>
-      </c>
-      <c r="L47" t="n">
-        <v>8.912139713060515</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>0.6693463005617217</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.2474226804123711</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.09464613032946939</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.5508832261840795</v>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U47" t="n">
-        <v>135</v>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2029</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2064</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2122</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.366561541768526</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1.74854982211625</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-0.6180117196522751</v>
-      </c>
-      <c r="G48" t="n">
-        <v>93</v>
-      </c>
-      <c r="H48" t="n">
-        <v>33.40332047388847</v>
-      </c>
-      <c r="I48" t="n">
-        <v>35</v>
-      </c>
-      <c r="J48" t="n">
-        <v>58</v>
-      </c>
-      <c r="K48" t="n">
-        <v>116.7833362200568</v>
-      </c>
-      <c r="L48" t="n">
-        <v>9.793987282724039</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>0.8455107422868551</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.603448275862069</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.2779877219393881</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.9559957340387781</v>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U48" t="n">
-        <v>136</v>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1482</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1513</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1706</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3.29824614621541</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2.658143822851236</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-0.6401023233641733</v>
-      </c>
-      <c r="G49" t="n">
-        <v>224</v>
-      </c>
-      <c r="H49" t="n">
-        <v>134.4080569147027</v>
-      </c>
-      <c r="I49" t="n">
-        <v>31</v>
-      </c>
-      <c r="J49" t="n">
-        <v>193</v>
-      </c>
-      <c r="K49" t="n">
-        <v>346.4169032646985</v>
-      </c>
-      <c r="L49" t="n">
-        <v>12.05533210505795</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>0.8628238782935722</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.1606217616580311</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.3030339003963866</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.867165930319119</v>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U49" t="n">
-        <v>137</v>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>777</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>813</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>862</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>2.279202622636278</v>
+        <v>2.632077837966272</v>
       </c>
       <c r="E2" t="n">
-        <v>1.708493955583799</v>
+        <v>2.074710116612238</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.570708667052479</v>
+        <v>-0.5573677213540336</v>
       </c>
       <c r="G2" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H2" t="n">
-        <v>29.30993639226824</v>
+        <v>44.38194718071883</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>128.4052506246776</v>
+        <v>101.7128558578142</v>
       </c>
       <c r="L2" t="n">
-        <v>9.0130835363142</v>
+        <v>10.11336293789353</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7894627961024652</v>
+        <v>0.6461758019864174</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="R2" t="n">
-        <v>0.320730887675777</v>
+        <v>0.1140291282415475</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8854418727465779</v>
+        <v>0.8898288635865756</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1090</v>
+        <v>781</v>
       </c>
       <c r="B3" t="n">
-        <v>1134</v>
+        <v>808</v>
       </c>
       <c r="C3" t="n">
-        <v>1190</v>
+        <v>870</v>
       </c>
       <c r="D3" t="n">
-        <v>2.035418844401593</v>
+        <v>2.392508397332221</v>
       </c>
       <c r="E3" t="n">
-        <v>1.464710177349114</v>
+        <v>1.835140675978187</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.570708667052479</v>
+        <v>-0.5573677213540336</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H3" t="n">
-        <v>58.04127329626863</v>
+        <v>31.09053240073297</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K3" t="n">
-        <v>134.260915397422</v>
+        <v>138.6220862908857</v>
       </c>
       <c r="L3" t="n">
-        <v>8.049043070492854</v>
+        <v>9.192853419895243</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7425062454725608</v>
+        <v>0.8730059718317575</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4254189703676698</v>
+        <v>0.3422654251043231</v>
       </c>
       <c r="S3" t="n">
-        <v>0.849199057035759</v>
+        <v>0.8356173077581911</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>124</v>
+        <v>1096</v>
       </c>
       <c r="B4" t="n">
-        <v>178</v>
+        <v>1129</v>
       </c>
       <c r="C4" t="n">
-        <v>271</v>
+        <v>1196</v>
       </c>
       <c r="D4" t="n">
-        <v>2.705376788519447</v>
+        <v>2.127267859104152</v>
       </c>
       <c r="E4" t="n">
-        <v>1.954462792485718</v>
+        <v>1.569900137750118</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7509139960337287</v>
+        <v>-0.5573677213540336</v>
       </c>
       <c r="G4" t="n">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>149.4609800709649</v>
+        <v>64.18586836098507</v>
       </c>
       <c r="I4" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="K4" t="n">
-        <v>281.1866662804247</v>
+        <v>140.8807645933516</v>
       </c>
       <c r="L4" t="n">
-        <v>10.25961693389526</v>
+        <v>8.173706573153298</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7858490117571101</v>
+        <v>0.8022607148331271</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2232513495298498</v>
+        <v>0.3740179729972725</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9293003191532356</v>
+        <v>0.7818607509130975</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>403</v>
+        <v>117</v>
       </c>
       <c r="B5" t="n">
-        <v>438</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
-        <v>576</v>
+        <v>275</v>
       </c>
       <c r="D5" t="n">
-        <v>2.316501861151428</v>
+        <v>2.878107763868007</v>
       </c>
       <c r="E5" t="n">
-        <v>1.565587865117699</v>
+        <v>2.135591340316215</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7509139960337287</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G5" t="n">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H5" t="n">
-        <v>26.64093393948548</v>
+        <v>108.4631641141584</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="J5" t="n">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="K5" t="n">
-        <v>272.7563783886353</v>
+        <v>294.4093526246282</v>
       </c>
       <c r="L5" t="n">
-        <v>8.784884169526554</v>
+        <v>10.79979694361016</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.800302937627287</v>
+        <v>0.6865545788108968</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2536231884057971</v>
+        <v>0.7362637362637363</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2810999503566446</v>
+        <v>0.2624981270132057</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9291974949173004</v>
+        <v>0.9171790717073081</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2430</v>
+        <v>410</v>
       </c>
       <c r="B6" t="n">
-        <v>2459</v>
+        <v>434</v>
       </c>
       <c r="C6" t="n">
-        <v>2520</v>
+        <v>569</v>
       </c>
       <c r="D6" t="n">
-        <v>2.335693826212414</v>
+        <v>2.434077648888152</v>
       </c>
       <c r="E6" t="n">
-        <v>1.690240041550837</v>
+        <v>1.69156122533636</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6454537846615768</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="H6" t="n">
-        <v>37.1260133335104</v>
+        <v>26.97672818040184</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="K6" t="n">
-        <v>118.4956731531819</v>
+        <v>251.7359526480047</v>
       </c>
       <c r="L6" t="n">
-        <v>6.910425512306907</v>
+        <v>9.133620597181237</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8966330327756602</v>
+        <v>0.8144291272124881</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4754098360655737</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2219691999077108</v>
+        <v>0.253405252060509</v>
       </c>
       <c r="S6" t="n">
-        <v>0.991604674442169</v>
+        <v>0.8689056021773843</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2520</v>
+        <v>2037</v>
       </c>
       <c r="B7" t="n">
-        <v>2564</v>
+        <v>2061</v>
       </c>
       <c r="C7" t="n">
-        <v>2653</v>
+        <v>2134</v>
       </c>
       <c r="D7" t="n">
-        <v>2.406332461195633</v>
+        <v>1.225917820599422</v>
       </c>
       <c r="E7" t="n">
-        <v>1.760878676534056</v>
+        <v>0.48340139704763</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6454537846615768</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G7" t="n">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="H7" t="n">
-        <v>88.31404208126105</v>
+        <v>61.93428747682265</v>
       </c>
       <c r="I7" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K7" t="n">
-        <v>204.8672511483006</v>
+        <v>70.68561398358118</v>
       </c>
       <c r="L7" t="n">
-        <v>7.119418240662127</v>
+        <v>4.600127798631672</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7245760657351621</v>
+        <v>0.8678635782383428</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4943820224719101</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1621393687946519</v>
+        <v>0.2179300915171841</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6799109715015663</v>
+        <v>0.7647211266927219</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2653</v>
+        <v>2459</v>
       </c>
       <c r="B8" t="n">
-        <v>2757</v>
+        <v>2487</v>
       </c>
       <c r="C8" t="n">
-        <v>2998</v>
+        <v>2528</v>
       </c>
       <c r="D8" t="n">
-        <v>2.76160048935651</v>
+        <v>2.494489647290883</v>
       </c>
       <c r="E8" t="n">
-        <v>2.116146704694933</v>
+        <v>1.751973223739091</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6454537846615768</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G8" t="n">
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="H8" t="n">
-        <v>157.6797729509926</v>
+        <v>19.61349646651615</v>
       </c>
       <c r="I8" t="n">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
-        <v>424.4744299715787</v>
+        <v>143.2472690752645</v>
       </c>
       <c r="L8" t="n">
-        <v>8.170520580342936</v>
+        <v>9.360310272911223</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.789233739684722</v>
+        <v>0.6274563135687501</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4315352697095436</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3307702507629147</v>
+        <v>0.06601381019337084</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9008266522663606</v>
+        <v>0.8646199514731364</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1873</v>
+        <v>2528</v>
       </c>
       <c r="B9" t="n">
-        <v>1921</v>
+        <v>2563</v>
       </c>
       <c r="C9" t="n">
-        <v>2017</v>
+        <v>2701</v>
       </c>
       <c r="D9" t="n">
-        <v>3.627606580399941</v>
+        <v>2.921850755140353</v>
       </c>
       <c r="E9" t="n">
-        <v>3.094169616409737</v>
+        <v>2.179334331588562</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5334369639902047</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G9" t="n">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="H9" t="n">
-        <v>65.77717945269637</v>
+        <v>187.2659675712353</v>
       </c>
       <c r="I9" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="K9" t="n">
-        <v>280.0852395060856</v>
+        <v>250.655400642006</v>
       </c>
       <c r="L9" t="n">
-        <v>18.30697218481223</v>
+        <v>10.96393792171327</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8663979623183825</v>
+        <v>0.9004248649690334</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.2536231884057971</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2267131491920168</v>
+        <v>0.493066224017769</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9554794757360699</v>
+        <v>0.9481062348363771</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2326</v>
+        <v>2432</v>
       </c>
       <c r="B10" t="n">
-        <v>2461</v>
+        <v>2453</v>
       </c>
       <c r="C10" t="n">
-        <v>2636</v>
+        <v>2527</v>
       </c>
       <c r="D10" t="n">
-        <v>4.51737897517116</v>
+        <v>2.586077088778936</v>
       </c>
       <c r="E10" t="n">
-        <v>3.983942011180955</v>
+        <v>1.921027942594268</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5334369639902047</v>
+        <v>-0.6650491461846675</v>
       </c>
       <c r="G10" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="H10" t="n">
-        <v>70.18203701414541</v>
+        <v>37.77300527927491</v>
       </c>
       <c r="I10" t="n">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="K10" t="n">
-        <v>370.8468944018989</v>
+        <v>126.6097034011272</v>
       </c>
       <c r="L10" t="n">
-        <v>22.79727126241911</v>
+        <v>7.610354799679746</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.5655209144556334</v>
+        <v>0.9897940065606677</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7387592452275088</v>
+        <v>0.2414870367075537</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9469506616115986</v>
+        <v>0.9877849862549218</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2644</v>
+        <v>2527</v>
       </c>
       <c r="B11" t="n">
-        <v>2783</v>
+        <v>2562</v>
       </c>
       <c r="C11" t="n">
-        <v>2998</v>
+        <v>2653</v>
       </c>
       <c r="D11" t="n">
-        <v>3.439537710029497</v>
+        <v>2.57587376664517</v>
       </c>
       <c r="E11" t="n">
-        <v>3.053267214523638</v>
+        <v>1.910824620460503</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3862704955058588</v>
+        <v>-0.6650491461846675</v>
       </c>
       <c r="G11" t="n">
-        <v>354</v>
+        <v>126</v>
       </c>
       <c r="H11" t="n">
-        <v>43.99779135719336</v>
+        <v>79.55343755521653</v>
       </c>
       <c r="I11" t="n">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="K11" t="n">
-        <v>499.2600528135094</v>
+        <v>202.8659356641566</v>
       </c>
       <c r="L11" t="n">
-        <v>5.532551299964281</v>
+        <v>7.580328277303321</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.5885393797133224</v>
+        <v>0.7717096486268037</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6465116279069767</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3540067929809644</v>
+        <v>0.1643585548889484</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9212171034800696</v>
+        <v>0.6679092871844592</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>555</v>
+        <v>2653</v>
       </c>
       <c r="B12" t="n">
-        <v>587</v>
+        <v>2755</v>
       </c>
       <c r="C12" t="n">
-        <v>670</v>
+        <v>2998</v>
       </c>
       <c r="D12" t="n">
-        <v>2.808729345056085</v>
+        <v>2.96696040287789</v>
       </c>
       <c r="E12" t="n">
-        <v>2.268454322734887</v>
+        <v>2.301911256693223</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5402750223211973</v>
+        <v>-0.6650491461846675</v>
       </c>
       <c r="G12" t="n">
-        <v>115</v>
+        <v>345</v>
       </c>
       <c r="H12" t="n">
-        <v>76.66938824272836</v>
+        <v>152.9409268082777</v>
       </c>
       <c r="I12" t="n">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="K12" t="n">
-        <v>159.6073608358424</v>
+        <v>431.3677165849434</v>
       </c>
       <c r="L12" t="n">
-        <v>5.912880909586478</v>
+        <v>8.731225159712039</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8284956205222932</v>
+        <v>0.7589611281177284</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3855421686746988</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1996904979087991</v>
+        <v>0.328142341519385</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7965441297188386</v>
+        <v>0.8839043312679766</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2099</v>
+        <v>1878</v>
       </c>
       <c r="B13" t="n">
-        <v>2144</v>
+        <v>1928</v>
       </c>
       <c r="C13" t="n">
-        <v>2248</v>
+        <v>2026</v>
       </c>
       <c r="D13" t="n">
-        <v>3.299799182209632</v>
+        <v>3.539205740046278</v>
       </c>
       <c r="E13" t="n">
-        <v>2.638856081666853</v>
+        <v>2.998504984724482</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6609431005427793</v>
+        <v>-0.5407007553217958</v>
       </c>
       <c r="G13" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" t="n">
-        <v>111.9965987333144</v>
+        <v>65.71472443166545</v>
       </c>
       <c r="I13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J13" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K13" t="n">
-        <v>318.3979596971942</v>
+        <v>290.2450734376139</v>
       </c>
       <c r="L13" t="n">
-        <v>21.19180829301392</v>
+        <v>17.8558153353555</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8454816520443122</v>
+        <v>0.7861391581837859</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4326923076923077</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2032101912445673</v>
+        <v>0.3564405626709357</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9796574016968589</v>
+        <v>0.9009299755175741</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2248</v>
+        <v>2649</v>
       </c>
       <c r="B14" t="n">
-        <v>2288</v>
+        <v>2782</v>
       </c>
       <c r="C14" t="n">
-        <v>2348</v>
+        <v>2998</v>
       </c>
       <c r="D14" t="n">
-        <v>2.794265938697915</v>
+        <v>3.799952528980679</v>
       </c>
       <c r="E14" t="n">
-        <v>2.133322838155136</v>
+        <v>3.412740772871864</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6609431005427793</v>
+        <v>-0.3872117561088147</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="H14" t="n">
-        <v>45.71553876743019</v>
+        <v>36.51690346069881</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="K14" t="n">
-        <v>195.1421522084811</v>
+        <v>499.9082703608565</v>
       </c>
       <c r="L14" t="n">
-        <v>17.94519751742362</v>
+        <v>6.044415746419967</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.6657555683188846</v>
+        <v>0.5593247064207704</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6157407407407407</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05070791157441563</v>
+        <v>0.3670136601555311</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9758025051593774</v>
+        <v>0.8659934085164673</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2348</v>
+        <v>2027</v>
       </c>
       <c r="B15" t="n">
-        <v>2389</v>
+        <v>2060</v>
       </c>
       <c r="C15" t="n">
-        <v>2449</v>
+        <v>2152</v>
       </c>
       <c r="D15" t="n">
-        <v>2.939666000484497</v>
+        <v>2.161349433101693</v>
       </c>
       <c r="E15" t="n">
-        <v>2.278722899941717</v>
+        <v>1.595686450808079</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6609431005427793</v>
+        <v>-0.565662982293614</v>
       </c>
       <c r="G15" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="H15" t="n">
-        <v>45.70068027874959</v>
+        <v>48.66035654173038</v>
       </c>
       <c r="I15" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K15" t="n">
-        <v>189.9940190705069</v>
+        <v>157.6755549779888</v>
       </c>
       <c r="L15" t="n">
-        <v>18.87897865531405</v>
+        <v>4.516028485430872</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7183121174672861</v>
+        <v>0.8952697314385477</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.358695652173913</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1174749556819185</v>
+        <v>0.1976330119297929</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9525922454432375</v>
+        <v>0.8108656058772408</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2449</v>
+        <v>2152</v>
       </c>
       <c r="B16" t="n">
-        <v>2484</v>
+        <v>2188</v>
       </c>
       <c r="C16" t="n">
-        <v>2570</v>
+        <v>2242</v>
       </c>
       <c r="D16" t="n">
-        <v>1.397181021898511</v>
+        <v>3.300516602607802</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7362379213557319</v>
+        <v>2.734853620314188</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6609431005427793</v>
+        <v>-0.565662982293614</v>
       </c>
       <c r="G16" t="n">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="H16" t="n">
-        <v>29.29287863021545</v>
+        <v>126.5571987191279</v>
       </c>
       <c r="I16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="K16" t="n">
-        <v>99.90369959896479</v>
+        <v>201.2676111781009</v>
       </c>
       <c r="L16" t="n">
-        <v>8.972907359436251</v>
+        <v>6.896259700415162</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8340779197191462</v>
+        <v>0.7477410343859406</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4069767441860465</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2756531732464941</v>
+        <v>0.3141460064566624</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8472807911994944</v>
+        <v>0.8998710229631635</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>750</v>
+        <v>555</v>
       </c>
       <c r="B17" t="n">
-        <v>788</v>
+        <v>588</v>
       </c>
       <c r="C17" t="n">
-        <v>861</v>
+        <v>649</v>
       </c>
       <c r="D17" t="n">
-        <v>4.287678817169932</v>
+        <v>2.990699813282517</v>
       </c>
       <c r="E17" t="n">
-        <v>3.855153456558829</v>
+        <v>2.316862249101217</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4325253606111027</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G17" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
-        <v>68.33863048618082</v>
+        <v>73.6333305267259</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J17" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K17" t="n">
-        <v>239.4538247967123</v>
+        <v>177.0648615866163</v>
       </c>
       <c r="L17" t="n">
-        <v>13.10289134590326</v>
+        <v>19.53155365271344</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8316208581825872</v>
+        <v>0.7933455173414639</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5205479452054794</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2581570130737971</v>
+        <v>0.1993742763228368</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9488175298989538</v>
+        <v>0.9494598555764486</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="B18" t="n">
-        <v>2134</v>
+        <v>2164</v>
       </c>
       <c r="C18" t="n">
-        <v>2293</v>
+        <v>2255</v>
       </c>
       <c r="D18" t="n">
-        <v>2.645390943324153</v>
+        <v>3.346098395647878</v>
       </c>
       <c r="E18" t="n">
-        <v>2.134076796383739</v>
+        <v>2.672260831466578</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.511314146940414</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G18" t="n">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="H18" t="n">
-        <v>53.37393251922595</v>
+        <v>103.555301035643</v>
       </c>
       <c r="I18" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J18" t="n">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="K18" t="n">
-        <v>194.0502581401373</v>
+        <v>328.7151566209034</v>
       </c>
       <c r="L18" t="n">
-        <v>8.031310448140884</v>
+        <v>21.85257779854657</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7526161859018976</v>
+        <v>0.6619504546041139</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2138364779874214</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5046765709704455</v>
+        <v>0.3007225586700629</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2686369537947464</v>
+        <v>0.9638504536930975</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2802</v>
+        <v>2255</v>
       </c>
       <c r="B19" t="n">
-        <v>2853</v>
+        <v>2284</v>
       </c>
       <c r="C19" t="n">
-        <v>2998</v>
+        <v>2353</v>
       </c>
       <c r="D19" t="n">
-        <v>2.222649993124144</v>
+        <v>2.986278553083744</v>
       </c>
       <c r="E19" t="n">
-        <v>1.824547778331746</v>
+        <v>2.312440988902444</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3981022147923987</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G19" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="H19" t="n">
-        <v>62.72765459538368</v>
+        <v>41.03726429873132</v>
       </c>
       <c r="I19" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="K19" t="n">
-        <v>230.294757752797</v>
+        <v>193.1609469853306</v>
       </c>
       <c r="L19" t="n">
-        <v>6.188690861399439</v>
+        <v>19.50267944728452</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8253580663826093</v>
+        <v>0.7724458442392544</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3517241379310345</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4295110232328778</v>
+        <v>0.06671545000150372</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5125918257078619</v>
+        <v>0.9698596973613665</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>70</v>
+        <v>2353</v>
       </c>
       <c r="B20" t="n">
-        <v>105</v>
+        <v>2386</v>
       </c>
       <c r="C20" t="n">
-        <v>195</v>
+        <v>2452</v>
       </c>
       <c r="D20" t="n">
-        <v>2.022448375753335</v>
+        <v>3.145717989990371</v>
       </c>
       <c r="E20" t="n">
-        <v>1.450122209620578</v>
+        <v>2.471880425809071</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5723261661327568</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G20" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="H20" t="n">
-        <v>53.3927695418498</v>
+        <v>42.1441724563042</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J20" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="K20" t="n">
-        <v>108.8074693316984</v>
+        <v>187.3818521666685</v>
       </c>
       <c r="L20" t="n">
-        <v>6.091991849818433</v>
+        <v>20.5439407274938</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.911769444235782</v>
+        <v>0.7961141460515725</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4281122231952623</v>
+        <v>0.1483829576870829</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9197578818120618</v>
+        <v>0.8919025385947645</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2400</v>
+        <v>752</v>
       </c>
       <c r="B21" t="n">
-        <v>2435</v>
+        <v>784</v>
       </c>
       <c r="C21" t="n">
-        <v>2491</v>
+        <v>866</v>
       </c>
       <c r="D21" t="n">
-        <v>2.24857082145976</v>
+        <v>4.936972919712602</v>
       </c>
       <c r="E21" t="n">
-        <v>1.711597745431614</v>
+        <v>4.498190782418741</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5369730760281459</v>
+        <v>-0.4387821372938616</v>
       </c>
       <c r="G21" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H21" t="n">
-        <v>32.19491644010213</v>
+        <v>44.20923890332074</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>114.9922373245777</v>
+        <v>241.6493191444936</v>
       </c>
       <c r="L21" t="n">
-        <v>6.351927391217585</v>
+        <v>14.55539236404956</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8308195374992317</v>
+        <v>0.9317855477557155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.625</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3057539242369567</v>
+        <v>0.2409283956628819</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9286345577013096</v>
+        <v>0.9480475589145282</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>924</v>
+        <v>2939</v>
       </c>
       <c r="B22" t="n">
-        <v>966</v>
+        <v>2961</v>
       </c>
       <c r="C22" t="n">
-        <v>1048</v>
+        <v>2998</v>
       </c>
       <c r="D22" t="n">
-        <v>2.321379767306716</v>
+        <v>2.268423764452632</v>
       </c>
       <c r="E22" t="n">
-        <v>1.7309906133365</v>
+        <v>1.829641627158771</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5903891539702157</v>
+        <v>-0.4387821372938616</v>
       </c>
       <c r="G22" t="n">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="H22" t="n">
-        <v>44.19493568037649</v>
+        <v>18.18695401751302</v>
       </c>
       <c r="I22" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J22" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="K22" t="n">
-        <v>185.2592797573498</v>
+        <v>100.9412972608932</v>
       </c>
       <c r="L22" t="n">
-        <v>6.222090747088795</v>
+        <v>6.687862882072376</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7121827520747641</v>
+        <v>0.76460691510104</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1030792247086889</v>
+        <v>0.1885940571345633</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9262254607142789</v>
+        <v>0.8168376422732062</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1048</v>
+        <v>114</v>
       </c>
       <c r="B23" t="n">
-        <v>1098</v>
+        <v>158</v>
       </c>
       <c r="C23" t="n">
-        <v>1317</v>
+        <v>234</v>
       </c>
       <c r="D23" t="n">
-        <v>3.590010489397174</v>
+        <v>4.683749869247713</v>
       </c>
       <c r="E23" t="n">
-        <v>2.999621335426958</v>
+        <v>4.185260855117996</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5903891539702157</v>
+        <v>-0.4984890141297166</v>
       </c>
       <c r="G23" t="n">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c r="H23" t="n">
-        <v>149.4344957270059</v>
+        <v>44.41624843031749</v>
       </c>
       <c r="I23" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J23" t="n">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="K23" t="n">
-        <v>400.5371170399798</v>
+        <v>268.7380991313904</v>
       </c>
       <c r="L23" t="n">
-        <v>9.622454439648138</v>
+        <v>14.03854939290696</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9145204908934748</v>
+        <v>0.8012887358154562</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.228310502283105</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="R23" t="n">
-        <v>0.424023499343875</v>
+        <v>0.1534347579416173</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9312446601445502</v>
+        <v>0.9738981314798116</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="B24" t="n">
-        <v>1445</v>
+        <v>1338</v>
       </c>
       <c r="C24" t="n">
-        <v>1756</v>
+        <v>1398</v>
       </c>
       <c r="D24" t="n">
-        <v>2.648566335055342</v>
+        <v>2.049655287753999</v>
       </c>
       <c r="E24" t="n">
-        <v>2.058177181085126</v>
+        <v>1.551166273624283</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5903891539702157</v>
+        <v>-0.4984890141297166</v>
       </c>
       <c r="G24" t="n">
-        <v>439</v>
+        <v>86</v>
       </c>
       <c r="H24" t="n">
-        <v>101.8180734036148</v>
+        <v>131.2293886908981</v>
       </c>
       <c r="I24" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="J24" t="n">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>517.0864618656246</v>
+        <v>119.7719526767544</v>
       </c>
       <c r="L24" t="n">
-        <v>7.099062513807689</v>
+        <v>6.14340812358305</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.6302938324964293</v>
+        <v>0.821409777918363</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4115755627009646</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2569064341783027</v>
+        <v>0.3245813338107069</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6057902237151171</v>
+        <v>0.8917854923819104</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>77</v>
+        <v>1398</v>
       </c>
       <c r="B25" t="n">
-        <v>113</v>
+        <v>1423</v>
       </c>
       <c r="C25" t="n">
-        <v>234</v>
+        <v>1465</v>
       </c>
       <c r="D25" t="n">
-        <v>2.526806031939489</v>
+        <v>1.745541635820449</v>
       </c>
       <c r="E25" t="n">
-        <v>1.923829427135864</v>
+        <v>1.247052621690732</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6029766048036252</v>
+        <v>-0.4984890141297166</v>
       </c>
       <c r="G25" t="n">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="H25" t="n">
-        <v>66.62647580559546</v>
+        <v>28.87909264315567</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J25" t="n">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>201.407709345013</v>
+        <v>74.1673121883463</v>
       </c>
       <c r="L25" t="n">
-        <v>12.87728959993302</v>
+        <v>5.231891786692886</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.9319940793963221</v>
+        <v>0.8450164377202175</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2975206611570248</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2234387423659921</v>
+        <v>0.2606061477779102</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8024647521231106</v>
+        <v>0.9679280449593944</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>334</v>
+        <v>2716</v>
       </c>
       <c r="B26" t="n">
-        <v>373</v>
+        <v>2735</v>
       </c>
       <c r="C26" t="n">
-        <v>482</v>
+        <v>2798</v>
       </c>
       <c r="D26" t="n">
-        <v>2.379146392496784</v>
+        <v>0.7294250197623193</v>
       </c>
       <c r="E26" t="n">
-        <v>1.776169787693159</v>
+        <v>0.3127458804123104</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6029766048036252</v>
+        <v>-0.4166791393500089</v>
       </c>
       <c r="G26" t="n">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="H26" t="n">
-        <v>33.70496512364451</v>
+        <v>36.96244014406602</v>
       </c>
       <c r="I26" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J26" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5721917773402</v>
+        <v>25.93486878915948</v>
       </c>
       <c r="L26" t="n">
-        <v>12.12477598579307</v>
+        <v>5.160303303895661</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8750471333289025</v>
+        <v>0.9518191706540797</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3577981651376147</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5695412454109644</v>
+        <v>0.3163889631523634</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9650117442378587</v>
+        <v>0.9374019302139964</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B27" t="n">
-        <v>310</v>
+        <v>235</v>
       </c>
       <c r="C27" t="n">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D27" t="n">
-        <v>2.688166145558837</v>
+        <v>4.39490437613416</v>
       </c>
       <c r="E27" t="n">
-        <v>2.24533495241994</v>
+        <v>3.866164443268007</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4428311931388975</v>
+        <v>-0.5287399328661534</v>
       </c>
       <c r="G27" t="n">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="H27" t="n">
-        <v>129.5715995774856</v>
+        <v>225.996749941234</v>
       </c>
       <c r="I27" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="J27" t="n">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="K27" t="n">
-        <v>347.6240494542215</v>
+        <v>516.0244926125357</v>
       </c>
       <c r="L27" t="n">
-        <v>6.037234359700224</v>
+        <v>24.10733118566812</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.5512895268052219</v>
+        <v>0.8337015836433159</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1874511614637078</v>
+        <v>0.3157830302818987</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6324109957230759</v>
+        <v>0.8299638511062484</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>193</v>
+        <v>515</v>
       </c>
       <c r="B28" t="n">
-        <v>235</v>
+        <v>539</v>
       </c>
       <c r="C28" t="n">
-        <v>319</v>
+        <v>580</v>
       </c>
       <c r="D28" t="n">
-        <v>1.984113358354723</v>
+        <v>2.021786859712619</v>
       </c>
       <c r="E28" t="n">
-        <v>1.377255407002713</v>
+        <v>1.454378506462529</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6068579513520103</v>
+        <v>-0.567408353250091</v>
       </c>
       <c r="G28" t="n">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="H28" t="n">
-        <v>32.34283402071728</v>
+        <v>23.60107515771244</v>
       </c>
       <c r="I28" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="K28" t="n">
-        <v>214.8961246370513</v>
+        <v>86.86924355406477</v>
       </c>
       <c r="L28" t="n">
-        <v>8.69461562537488</v>
+        <v>4.399657776228433</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.6022998687331544</v>
+        <v>0.7939728019948773</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06211866535689451</v>
+        <v>0.1586829906405753</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5794921025121508</v>
+        <v>0.9424073760366108</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2028</v>
+        <v>170</v>
       </c>
       <c r="B29" t="n">
-        <v>2067</v>
+        <v>221</v>
       </c>
       <c r="C29" t="n">
-        <v>2131</v>
+        <v>478</v>
       </c>
       <c r="D29" t="n">
-        <v>2.165358463913718</v>
+        <v>3.058936680026465</v>
       </c>
       <c r="E29" t="n">
-        <v>1.558500512561708</v>
+        <v>2.511223595090207</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6068579513520103</v>
+        <v>-0.5477130849362586</v>
       </c>
       <c r="G29" t="n">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="H29" t="n">
-        <v>37.68415483656099</v>
+        <v>41.69670233287013</v>
       </c>
       <c r="I29" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J29" t="n">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="K29" t="n">
-        <v>122.0031963779678</v>
+        <v>327.0795612759862</v>
       </c>
       <c r="L29" t="n">
-        <v>9.488852769225721</v>
+        <v>7.003485837354588</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8461459957857843</v>
+        <v>0.5591360248826012</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.609375</v>
+        <v>0.198443579766537</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2138526705902904</v>
+        <v>0.7702962725881003</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9782443997897851</v>
+        <v>0.2700234817769757</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1476</v>
+        <v>2806</v>
       </c>
       <c r="B30" t="n">
-        <v>1519</v>
+        <v>2856</v>
       </c>
       <c r="C30" t="n">
-        <v>1671</v>
+        <v>2998</v>
       </c>
       <c r="D30" t="n">
-        <v>3.177348163723424</v>
+        <v>2.328733514732471</v>
       </c>
       <c r="E30" t="n">
-        <v>2.525894589100086</v>
+        <v>1.917254936085103</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6514535746233385</v>
+        <v>-0.4114785786473686</v>
       </c>
       <c r="G30" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H30" t="n">
-        <v>143.8004729678853</v>
+        <v>58.40479836666918</v>
       </c>
       <c r="I30" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J30" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K30" t="n">
-        <v>339.0983564714388</v>
+        <v>233.3637340569438</v>
       </c>
       <c r="L30" t="n">
-        <v>12.01179700032822</v>
+        <v>5.887328789732026</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,36 +3014,1670 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.891885736265347</v>
+        <v>0.7651652634278066</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2828947368421053</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2372481088771956</v>
+        <v>0.4125014714329383</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7895793758391924</v>
+        <v>0.3990134684553541</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>118</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1626</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1653</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.825633590757121</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.247417732504086</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.5782158582530356</v>
+      </c>
+      <c r="G31" t="n">
+        <v>287</v>
+      </c>
+      <c r="H31" t="n">
+        <v>26.38410385693464</v>
+      </c>
+      <c r="I31" t="n">
+        <v>27</v>
+      </c>
+      <c r="J31" t="n">
+        <v>260</v>
+      </c>
+      <c r="K31" t="n">
+        <v>386.0889911502392</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8.323736351838598</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.7441389750919551</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1038461538461539</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.4589890234040849</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.7964037887467333</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>119</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2429</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.524420543662235</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.974589710908041</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.5498308327541938</v>
+      </c>
+      <c r="G32" t="n">
+        <v>95</v>
+      </c>
+      <c r="H32" t="n">
+        <v>29.6441677188991</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>70</v>
+      </c>
+      <c r="K32" t="n">
+        <v>122.6548716997841</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.949782220644957</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.9045846470089056</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.3133476990260499</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.9024348278409693</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>120</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>420</v>
+      </c>
+      <c r="B33" t="n">
+        <v>446</v>
+      </c>
+      <c r="C33" t="n">
+        <v>516</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.177891632617773</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.702861876826822</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.4750297557909506</v>
+      </c>
+      <c r="G33" t="n">
+        <v>96</v>
+      </c>
+      <c r="H33" t="n">
+        <v>145.307748615276</v>
+      </c>
+      <c r="I33" t="n">
+        <v>26</v>
+      </c>
+      <c r="J33" t="n">
+        <v>70</v>
+      </c>
+      <c r="K33" t="n">
+        <v>125.6141227886112</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.476152414332427</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8434556987820166</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2670741831233553</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.8679548866276344</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>121</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>858</v>
+      </c>
+      <c r="B34" t="n">
+        <v>886</v>
+      </c>
+      <c r="C34" t="n">
+        <v>932</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.473152217715022</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.874675422765238</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.5984767949497842</v>
+      </c>
+      <c r="G34" t="n">
+        <v>74</v>
+      </c>
+      <c r="H34" t="n">
+        <v>37.34385070279552</v>
+      </c>
+      <c r="I34" t="n">
+        <v>28</v>
+      </c>
+      <c r="J34" t="n">
+        <v>46</v>
+      </c>
+      <c r="K34" t="n">
+        <v>113.4459913827303</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.618049345712878</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8212958286204657</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.2564867301413334</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.9580716212564334</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>122</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>932</v>
+      </c>
+      <c r="B35" t="n">
+        <v>971</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1046</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.309738237459706</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.711261442509921</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.5984767949497842</v>
+      </c>
+      <c r="G35" t="n">
+        <v>114</v>
+      </c>
+      <c r="H35" t="n">
+        <v>42.53732186262982</v>
+      </c>
+      <c r="I35" t="n">
+        <v>39</v>
+      </c>
+      <c r="J35" t="n">
+        <v>75</v>
+      </c>
+      <c r="K35" t="n">
+        <v>176.3219686761982</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.180760537784901</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.826862219176476</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.2054143357845089</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7816359270636701</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>123</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1093</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1316</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.747317334856595</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.148840539906811</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.5984767949497842</v>
+      </c>
+      <c r="G36" t="n">
+        <v>270</v>
+      </c>
+      <c r="H36" t="n">
+        <v>140.7606244090141</v>
+      </c>
+      <c r="I36" t="n">
+        <v>47</v>
+      </c>
+      <c r="J36" t="n">
+        <v>223</v>
+      </c>
+      <c r="K36" t="n">
+        <v>404.2683446429493</v>
+      </c>
+      <c r="L36" t="n">
+        <v>10.02766059383081</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8589422113345236</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.210762331838565</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.3481256824483223</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.8914097713580299</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>124</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.678440831932352</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.079964036982568</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.5984767949497842</v>
+      </c>
+      <c r="G37" t="n">
+        <v>440</v>
+      </c>
+      <c r="H37" t="n">
+        <v>95.45636021276459</v>
+      </c>
+      <c r="I37" t="n">
+        <v>122</v>
+      </c>
+      <c r="J37" t="n">
+        <v>318</v>
+      </c>
+      <c r="K37" t="n">
+        <v>520.5914693701052</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7.167392879552678</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1348), 'value': np.float64(0.6251131208638586), 'amplitude': np.float64(1.2235899158136427), 'start_idx': np.int64(1317), 'end_idx': np.int64(1368), 'duration': np.float64(51.0), 'fwhm': np.float64(17.827175497683584), 'rise_time': np.float64(31.0), 'decay_time': np.float64(20.0), 'auc': np.float64(33.27657342579501)}]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6282035064429038</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.3836477987421384</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2719235047304617</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.581564087743019</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>125</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1756</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1797</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.358740865998666</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.760264071048881</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.5984767949497842</v>
+      </c>
+      <c r="G38" t="n">
+        <v>105</v>
+      </c>
+      <c r="H38" t="n">
+        <v>65.14962116275092</v>
+      </c>
+      <c r="I38" t="n">
+        <v>41</v>
+      </c>
+      <c r="J38" t="n">
+        <v>64</v>
+      </c>
+      <c r="K38" t="n">
+        <v>157.5149866465187</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.311889471708792</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7019620184576122</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.158505704350836</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.7837952070452702</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>126</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1156</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.027852905239094</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.526142887401402</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.5017100178376914</v>
+      </c>
+      <c r="G39" t="n">
+        <v>96</v>
+      </c>
+      <c r="H39" t="n">
+        <v>79.83407117287948</v>
+      </c>
+      <c r="I39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J39" t="n">
+        <v>66</v>
+      </c>
+      <c r="K39" t="n">
+        <v>284.755025741246</v>
+      </c>
+      <c r="L39" t="n">
+        <v>15.06684062183806</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.7848390186486988</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1695678423238519</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.9025348560432594</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>127</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>673</v>
+      </c>
+      <c r="B40" t="n">
+        <v>701</v>
+      </c>
+      <c r="C40" t="n">
+        <v>767</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.043836894157155</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.568237841597487</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.4755990525596681</v>
+      </c>
+      <c r="G40" t="n">
+        <v>94</v>
+      </c>
+      <c r="H40" t="n">
+        <v>80.3723467255893</v>
+      </c>
+      <c r="I40" t="n">
+        <v>28</v>
+      </c>
+      <c r="J40" t="n">
+        <v>66</v>
+      </c>
+      <c r="K40" t="n">
+        <v>96.22963592187784</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.830058095429012</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(751), 'value': np.float64(0.682741230180892), 'amplitude': np.float64(1.15834028274056), 'start_idx': np.int64(729), 'end_idx': np.int64(766), 'duration': np.float64(37.0), 'fwhm': np.float64(18.65066328443072), 'rise_time': np.float64(22.0), 'decay_time': np.float64(15.0), 'auc': np.float64(29.668454502417738)}]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7451684020288802</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.3788128813501127</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.4625274711193142</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>128</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2801</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2874</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.506868637141064</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.031269584581396</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.4755990525596681</v>
+      </c>
+      <c r="G41" t="n">
+        <v>197</v>
+      </c>
+      <c r="H41" t="n">
+        <v>38.90577928107587</v>
+      </c>
+      <c r="I41" t="n">
+        <v>73</v>
+      </c>
+      <c r="J41" t="n">
+        <v>124</v>
+      </c>
+      <c r="K41" t="n">
+        <v>178.2706567103328</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.298352633630869</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(2965), 'value': np.float64(0.7807099979329248), 'amplitude': np.float64(1.256309050492593), 'start_idx': np.int64(2947), 'end_idx': np.int64(2989), 'duration': np.float64(42.0), 'fwhm': np.float64(16.435325661384468), 'rise_time': np.float64(18.0), 'decay_time': np.float64(24.0), 'auc': np.float64(35.61960448342825)}]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5345701202494639</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5887096774193549</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.3052275489322063</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5243235643766913</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>129</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>239</v>
+      </c>
+      <c r="B42" t="n">
+        <v>270</v>
+      </c>
+      <c r="C42" t="n">
+        <v>339</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.865394408672725</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.245503948224254</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.6198904604484717</v>
+      </c>
+      <c r="G42" t="n">
+        <v>100</v>
+      </c>
+      <c r="H42" t="n">
+        <v>83.75681985277333</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31</v>
+      </c>
+      <c r="J42" t="n">
+        <v>69</v>
+      </c>
+      <c r="K42" t="n">
+        <v>194.3885800097963</v>
+      </c>
+      <c r="L42" t="n">
+        <v>14.14934737369345</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8232176265737572</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6056874094767719</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.8603288596794986</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>130</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>339</v>
+      </c>
+      <c r="B43" t="n">
+        <v>372</v>
+      </c>
+      <c r="C43" t="n">
+        <v>480</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.521994622181698</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.902104161733227</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6198904604484717</v>
+      </c>
+      <c r="G43" t="n">
+        <v>141</v>
+      </c>
+      <c r="H43" t="n">
+        <v>29.17518329950292</v>
+      </c>
+      <c r="I43" t="n">
+        <v>33</v>
+      </c>
+      <c r="J43" t="n">
+        <v>108</v>
+      </c>
+      <c r="K43" t="n">
+        <v>158.1521617004357</v>
+      </c>
+      <c r="L43" t="n">
+        <v>12.45363565861253</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8756251869331415</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.5624588852798335</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8954952747705107</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>131</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2501</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2534</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2670</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.865089989695086</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.245199529246614</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6198904604484717</v>
+      </c>
+      <c r="G44" t="n">
+        <v>169</v>
+      </c>
+      <c r="H44" t="n">
+        <v>180.4346195415351</v>
+      </c>
+      <c r="I44" t="n">
+        <v>33</v>
+      </c>
+      <c r="J44" t="n">
+        <v>136</v>
+      </c>
+      <c r="K44" t="n">
+        <v>310.5820356385674</v>
+      </c>
+      <c r="L44" t="n">
+        <v>19.08585454388221</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8971402475018008</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.2426470588235294</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.5529798422299027</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.9577489161247665</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>132</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>243</v>
+      </c>
+      <c r="B45" t="n">
+        <v>305</v>
+      </c>
+      <c r="C45" t="n">
+        <v>424</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.770604958346366</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.316782194665282</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.4538227636810838</v>
+      </c>
+      <c r="G45" t="n">
+        <v>181</v>
+      </c>
+      <c r="H45" t="n">
+        <v>130.0277918587542</v>
+      </c>
+      <c r="I45" t="n">
+        <v>62</v>
+      </c>
+      <c r="J45" t="n">
+        <v>119</v>
+      </c>
+      <c r="K45" t="n">
+        <v>359.1514998921657</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5.948794310961595</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.5694167843179769</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.5210084033613446</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1644335015690791</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7250401779426119</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>133</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>424</v>
+      </c>
+      <c r="B46" t="n">
+        <v>456</v>
+      </c>
+      <c r="C46" t="n">
+        <v>506</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.225707879423482</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.771885115742398</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.4538227636810838</v>
+      </c>
+      <c r="G46" t="n">
+        <v>82</v>
+      </c>
+      <c r="H46" t="n">
+        <v>182.1690336249336</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>50</v>
+      </c>
+      <c r="K46" t="n">
+        <v>170.4834508838645</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.925950458628858</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6501027520453969</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.09048132568858488</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9872033941022613</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>134</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>202</v>
+      </c>
+      <c r="B47" t="n">
+        <v>226</v>
+      </c>
+      <c r="C47" t="n">
+        <v>323</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.15347707638955</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.535465356737275</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.6180117196522751</v>
+      </c>
+      <c r="G47" t="n">
+        <v>121</v>
+      </c>
+      <c r="H47" t="n">
+        <v>21.80985780094227</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>97</v>
+      </c>
+      <c r="K47" t="n">
+        <v>208.3871328253866</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.912139713060515</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.6693463005617217</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.2474226804123711</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.09464613032946939</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.5508832261840795</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>135</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2064</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2122</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.366561541768526</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.74854982211625</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.6180117196522751</v>
+      </c>
+      <c r="G48" t="n">
+        <v>93</v>
+      </c>
+      <c r="H48" t="n">
+        <v>33.40332047388847</v>
+      </c>
+      <c r="I48" t="n">
+        <v>35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>58</v>
+      </c>
+      <c r="K48" t="n">
+        <v>116.7833362200568</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9.793987282724039</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8455107422868551</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.603448275862069</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2779877219393881</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9559957340387781</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>136</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1482</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1513</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.29824614621541</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.658143822851236</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.6401023233641733</v>
+      </c>
+      <c r="G49" t="n">
+        <v>224</v>
+      </c>
+      <c r="H49" t="n">
+        <v>134.4080569147027</v>
+      </c>
+      <c r="I49" t="n">
+        <v>31</v>
+      </c>
+      <c r="J49" t="n">
+        <v>193</v>
+      </c>
+      <c r="K49" t="n">
+        <v>346.4169032646985</v>
+      </c>
+      <c r="L49" t="n">
+        <v>12.05533210505795</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8628238782935722</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.1606217616580311</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.3030339003963866</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.867165930319119</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
           <t>n34</t>
         </is>
       </c>
-      <c r="U30" t="n">
-        <v>76</v>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
+      <c r="U49" t="n">
+        <v>137</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_2979241014CSDSDay6EM2024-12-05214309trace/processed_2979241014CSDSDay6EM2024-12-05214309trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>371</v>
+      </c>
+      <c r="B6" t="n">
+        <v>385</v>
+      </c>
+      <c r="C6" t="n">
         <v>410</v>
       </c>
-      <c r="B6" t="n">
-        <v>434</v>
-      </c>
-      <c r="C6" t="n">
-        <v>569</v>
-      </c>
       <c r="D6" t="n">
-        <v>2.434077648888152</v>
+        <v>2.240863097848158</v>
       </c>
       <c r="E6" t="n">
-        <v>1.69156122533636</v>
+        <v>1.498346674296366</v>
       </c>
       <c r="F6" t="n">
         <v>-0.7425164235517917</v>
       </c>
       <c r="G6" t="n">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="H6" t="n">
-        <v>26.97672818040184</v>
+        <v>17.2346005957391</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>251.7359526480047</v>
+        <v>78.17868781043001</v>
       </c>
       <c r="L6" t="n">
-        <v>9.133620597181237</v>
+        <v>8.408603297975469</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8144291272124881</v>
+        <v>0.668078086261492</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>0.253405252060509</v>
+        <v>0.03282138803319338</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8689056021773843</v>
+        <v>0.9021223489520424</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2037</v>
+        <v>410</v>
       </c>
       <c r="B7" t="n">
-        <v>2061</v>
+        <v>434</v>
       </c>
       <c r="C7" t="n">
-        <v>2134</v>
+        <v>569</v>
       </c>
       <c r="D7" t="n">
-        <v>1.225917820599422</v>
+        <v>2.434077648888152</v>
       </c>
       <c r="E7" t="n">
-        <v>0.48340139704763</v>
+        <v>1.69156122533636</v>
       </c>
       <c r="F7" t="n">
         <v>-0.7425164235517917</v>
       </c>
       <c r="G7" t="n">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="H7" t="n">
-        <v>61.93428747682265</v>
+        <v>26.97672818040184</v>
       </c>
       <c r="I7" t="n">
         <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="K7" t="n">
-        <v>70.68561398358118</v>
+        <v>251.7359526480047</v>
       </c>
       <c r="L7" t="n">
-        <v>4.600127798631672</v>
+        <v>9.133620597181237</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8678635782383428</v>
+        <v>0.8144291272124881</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3287671232876712</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2179300915171841</v>
+        <v>0.253405252060509</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7647211266927219</v>
+        <v>0.8689056021773843</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2459</v>
+        <v>2037</v>
       </c>
       <c r="B8" t="n">
-        <v>2487</v>
+        <v>2061</v>
       </c>
       <c r="C8" t="n">
-        <v>2528</v>
+        <v>2134</v>
       </c>
       <c r="D8" t="n">
-        <v>2.494489647290883</v>
+        <v>1.225917820599422</v>
       </c>
       <c r="E8" t="n">
-        <v>1.751973223739091</v>
+        <v>0.48340139704763</v>
       </c>
       <c r="F8" t="n">
         <v>-0.7425164235517917</v>
       </c>
       <c r="G8" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H8" t="n">
-        <v>19.61349646651615</v>
+        <v>61.93428747682265</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="K8" t="n">
-        <v>143.2472690752645</v>
+        <v>70.68561398358118</v>
       </c>
       <c r="L8" t="n">
-        <v>9.360310272911223</v>
+        <v>4.600127798631672</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6274563135687501</v>
+        <v>0.8678635782383428</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6829268292682927</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06601381019337084</v>
+        <v>0.2179300915171841</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8646199514731364</v>
+        <v>0.7647211266927219</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>2459</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2487</v>
+      </c>
+      <c r="C9" t="n">
         <v>2528</v>
       </c>
-      <c r="B9" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2701</v>
-      </c>
       <c r="D9" t="n">
-        <v>2.921850755140353</v>
+        <v>2.494489647290883</v>
       </c>
       <c r="E9" t="n">
-        <v>2.179334331588562</v>
+        <v>1.751973223739091</v>
       </c>
       <c r="F9" t="n">
         <v>-0.7425164235517917</v>
       </c>
       <c r="G9" t="n">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="H9" t="n">
-        <v>187.2659675712353</v>
+        <v>19.61349646651615</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="K9" t="n">
-        <v>250.655400642006</v>
+        <v>143.2472690752645</v>
       </c>
       <c r="L9" t="n">
-        <v>10.96393792171327</v>
+        <v>9.360310272911223</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9004248649690334</v>
+        <v>0.6274563135687501</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2536231884057971</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="R9" t="n">
-        <v>0.493066224017769</v>
+        <v>0.06601381019337084</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9481062348363771</v>
+        <v>0.8646199514731364</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2432</v>
+        <v>2528</v>
       </c>
       <c r="B10" t="n">
-        <v>2453</v>
+        <v>2563</v>
       </c>
       <c r="C10" t="n">
-        <v>2527</v>
+        <v>2701</v>
       </c>
       <c r="D10" t="n">
-        <v>2.586077088778936</v>
+        <v>2.921850755140353</v>
       </c>
       <c r="E10" t="n">
-        <v>1.921027942594268</v>
+        <v>2.179334331588562</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6650491461846675</v>
+        <v>-0.7425164235517917</v>
       </c>
       <c r="G10" t="n">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="H10" t="n">
-        <v>37.77300527927491</v>
+        <v>187.2659675712353</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6097034011272</v>
+        <v>250.655400642006</v>
       </c>
       <c r="L10" t="n">
-        <v>7.610354799679746</v>
+        <v>10.96393792171327</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.9897940065606677</v>
+        <v>0.9004248649690334</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2837837837837838</v>
+        <v>0.2536231884057971</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2414870367075537</v>
+        <v>0.493066224017769</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9877849862549218</v>
+        <v>0.9481062348363771</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>2432</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2453</v>
+      </c>
+      <c r="C11" t="n">
         <v>2527</v>
       </c>
-      <c r="B11" t="n">
-        <v>2562</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2653</v>
-      </c>
       <c r="D11" t="n">
-        <v>2.57587376664517</v>
+        <v>2.586077088778936</v>
       </c>
       <c r="E11" t="n">
-        <v>1.910824620460503</v>
+        <v>1.921027942594268</v>
       </c>
       <c r="F11" t="n">
         <v>-0.6650491461846675</v>
       </c>
       <c r="G11" t="n">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="H11" t="n">
-        <v>79.55343755521653</v>
+        <v>37.77300527927491</v>
       </c>
       <c r="I11" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J11" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K11" t="n">
-        <v>202.8659356641566</v>
+        <v>126.6097034011272</v>
       </c>
       <c r="L11" t="n">
-        <v>7.580328277303321</v>
+        <v>7.610354799679746</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7717096486268037</v>
+        <v>0.9897940065606677</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1643585548889484</v>
+        <v>0.2414870367075537</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6679092871844592</v>
+        <v>0.9877849862549218</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C12" t="n">
         <v>2653</v>
       </c>
-      <c r="B12" t="n">
-        <v>2755</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2998</v>
-      </c>
       <c r="D12" t="n">
-        <v>2.96696040287789</v>
+        <v>2.57587376664517</v>
       </c>
       <c r="E12" t="n">
-        <v>2.301911256693223</v>
+        <v>1.910824620460503</v>
       </c>
       <c r="F12" t="n">
         <v>-0.6650491461846675</v>
       </c>
       <c r="G12" t="n">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="H12" t="n">
-        <v>152.9409268082777</v>
+        <v>79.55343755521653</v>
       </c>
       <c r="I12" t="n">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="J12" t="n">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="K12" t="n">
-        <v>431.3677165849434</v>
+        <v>202.8659356641566</v>
       </c>
       <c r="L12" t="n">
-        <v>8.731225159712039</v>
+        <v>7.580328277303321</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7589611281177284</v>
+        <v>0.7717096486268037</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4197530864197531</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="R12" t="n">
-        <v>0.328142341519385</v>
+        <v>0.1643585548889484</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8839043312679766</v>
+        <v>0.6679092871844592</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1878</v>
+        <v>2725</v>
       </c>
       <c r="B13" t="n">
-        <v>1928</v>
+        <v>2755</v>
       </c>
       <c r="C13" t="n">
-        <v>2026</v>
+        <v>2998</v>
       </c>
       <c r="D13" t="n">
-        <v>3.539205740046278</v>
+        <v>2.96696040287789</v>
       </c>
       <c r="E13" t="n">
-        <v>2.998504984724482</v>
+        <v>2.301911256693223</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5407007553217958</v>
+        <v>-0.6650491461846675</v>
       </c>
       <c r="G13" t="n">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="H13" t="n">
-        <v>65.71472443166545</v>
+        <v>152.9409268082777</v>
       </c>
       <c r="I13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J13" t="n">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="K13" t="n">
-        <v>290.2450734376139</v>
+        <v>341.6686551028716</v>
       </c>
       <c r="L13" t="n">
-        <v>17.8558153353555</v>
+        <v>8.731225159712039</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7861391581837859</v>
+        <v>0.8556818494125426</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3564405626709357</v>
+        <v>0.5214872964282321</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9009299755175741</v>
+        <v>0.8839043312679766</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2649</v>
+        <v>1878</v>
       </c>
       <c r="B14" t="n">
-        <v>2782</v>
+        <v>1928</v>
       </c>
       <c r="C14" t="n">
-        <v>2998</v>
+        <v>2026</v>
       </c>
       <c r="D14" t="n">
-        <v>3.799952528980679</v>
+        <v>3.539205740046278</v>
       </c>
       <c r="E14" t="n">
-        <v>3.412740772871864</v>
+        <v>2.998504984724482</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3872117561088147</v>
+        <v>-0.5407007553217958</v>
       </c>
       <c r="G14" t="n">
-        <v>349</v>
+        <v>148</v>
       </c>
       <c r="H14" t="n">
-        <v>36.51690346069881</v>
+        <v>65.71472443166545</v>
       </c>
       <c r="I14" t="n">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="J14" t="n">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="K14" t="n">
-        <v>499.9082703608565</v>
+        <v>290.2450734376139</v>
       </c>
       <c r="L14" t="n">
-        <v>6.044415746419967</v>
+        <v>17.8558153353555</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.5593247064207704</v>
+        <v>0.7861391581837859</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6157407407407407</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3670136601555311</v>
+        <v>0.3564405626709357</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8659934085164673</v>
+        <v>0.9009299755175741</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2027</v>
+        <v>2649</v>
       </c>
       <c r="B15" t="n">
-        <v>2060</v>
+        <v>2782</v>
       </c>
       <c r="C15" t="n">
-        <v>2152</v>
+        <v>2998</v>
       </c>
       <c r="D15" t="n">
-        <v>2.161349433101693</v>
+        <v>3.799952528980679</v>
       </c>
       <c r="E15" t="n">
-        <v>1.595686450808079</v>
+        <v>3.412740772871864</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.565662982293614</v>
+        <v>-0.3872117561088147</v>
       </c>
       <c r="G15" t="n">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="H15" t="n">
-        <v>48.66035654173038</v>
+        <v>36.51690346069881</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="J15" t="n">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="K15" t="n">
-        <v>157.6755549779888</v>
+        <v>499.9082703608565</v>
       </c>
       <c r="L15" t="n">
-        <v>4.516028485430872</v>
+        <v>6.044415746419967</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8952697314385477</v>
+        <v>0.5593247064207704</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.358695652173913</v>
+        <v>0.6157407407407407</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1976330119297929</v>
+        <v>0.3670136601555311</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8108656058772408</v>
+        <v>0.8659934085164673</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C16" t="n">
         <v>2152</v>
       </c>
-      <c r="B16" t="n">
-        <v>2188</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2242</v>
-      </c>
       <c r="D16" t="n">
-        <v>3.300516602607802</v>
+        <v>2.161349433101693</v>
       </c>
       <c r="E16" t="n">
-        <v>2.734853620314188</v>
+        <v>1.595686450808079</v>
       </c>
       <c r="F16" t="n">
         <v>-0.565662982293614</v>
       </c>
       <c r="G16" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H16" t="n">
-        <v>126.5571987191279</v>
+        <v>48.66035654173038</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J16" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="K16" t="n">
-        <v>201.2676111781009</v>
+        <v>157.6755549779888</v>
       </c>
       <c r="L16" t="n">
-        <v>6.896259700415162</v>
+        <v>4.516028485430872</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7477410343859406</v>
+        <v>0.8952697314385477</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.358695652173913</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3141460064566624</v>
+        <v>0.1976330119297929</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8998710229631635</v>
+        <v>0.8108656058772408</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>555</v>
+        <v>2152</v>
       </c>
       <c r="B17" t="n">
-        <v>588</v>
+        <v>2188</v>
       </c>
       <c r="C17" t="n">
-        <v>649</v>
+        <v>2242</v>
       </c>
       <c r="D17" t="n">
-        <v>2.990699813282517</v>
+        <v>3.300516602607802</v>
       </c>
       <c r="E17" t="n">
-        <v>2.316862249101217</v>
+        <v>2.734853620314188</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6738375641812995</v>
+        <v>-0.565662982293614</v>
       </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H17" t="n">
-        <v>73.6333305267259</v>
+        <v>126.5571987191279</v>
       </c>
       <c r="I17" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K17" t="n">
-        <v>177.0648615866163</v>
+        <v>201.2676111781009</v>
       </c>
       <c r="L17" t="n">
-        <v>19.53155365271344</v>
+        <v>6.896259700415162</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7933455173414639</v>
+        <v>0.7477410343859406</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1993742763228368</v>
+        <v>0.3141460064566624</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9494598555764486</v>
+        <v>0.8998710229631635</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2104</v>
+        <v>555</v>
       </c>
       <c r="B18" t="n">
-        <v>2164</v>
+        <v>588</v>
       </c>
       <c r="C18" t="n">
-        <v>2255</v>
+        <v>649</v>
       </c>
       <c r="D18" t="n">
-        <v>3.346098395647878</v>
+        <v>2.990699813282517</v>
       </c>
       <c r="E18" t="n">
-        <v>2.672260831466578</v>
+        <v>2.316862249101217</v>
       </c>
       <c r="F18" t="n">
         <v>-0.6738375641812995</v>
       </c>
       <c r="G18" t="n">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="H18" t="n">
-        <v>103.555301035643</v>
+        <v>73.6333305267259</v>
       </c>
       <c r="I18" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="J18" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="K18" t="n">
-        <v>328.7151566209034</v>
+        <v>177.0648615866163</v>
       </c>
       <c r="L18" t="n">
-        <v>21.85257779854657</v>
+        <v>19.53155365271344</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.6619504546041139</v>
+        <v>0.7933455173414639</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6593406593406593</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3007225586700629</v>
+        <v>0.1993742763228368</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9638504536930975</v>
+        <v>0.9494598555764486</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2164</v>
+      </c>
+      <c r="C19" t="n">
         <v>2255</v>
       </c>
-      <c r="B19" t="n">
-        <v>2284</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2353</v>
-      </c>
       <c r="D19" t="n">
-        <v>2.986278553083744</v>
+        <v>3.346098395647878</v>
       </c>
       <c r="E19" t="n">
-        <v>2.312440988902444</v>
+        <v>2.672260831466578</v>
       </c>
       <c r="F19" t="n">
         <v>-0.6738375641812995</v>
       </c>
       <c r="G19" t="n">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="H19" t="n">
-        <v>41.03726429873132</v>
+        <v>103.555301035643</v>
       </c>
       <c r="I19" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="J19" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K19" t="n">
-        <v>193.1609469853306</v>
+        <v>328.7151566209034</v>
       </c>
       <c r="L19" t="n">
-        <v>19.50267944728452</v>
+        <v>21.85257779854657</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7724458442392544</v>
+        <v>0.6619504546041139</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06671545000150372</v>
+        <v>0.3007225586700629</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9698596973613665</v>
+        <v>0.9638504536930975</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>2255</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2284</v>
+      </c>
+      <c r="C20" t="n">
         <v>2353</v>
       </c>
-      <c r="B20" t="n">
-        <v>2386</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2452</v>
-      </c>
       <c r="D20" t="n">
-        <v>3.145717989990371</v>
+        <v>2.986278553083744</v>
       </c>
       <c r="E20" t="n">
-        <v>2.471880425809071</v>
+        <v>2.312440988902444</v>
       </c>
       <c r="F20" t="n">
         <v>-0.6738375641812995</v>
       </c>
       <c r="G20" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" t="n">
-        <v>42.1441724563042</v>
+        <v>41.03726429873132</v>
       </c>
       <c r="I20" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K20" t="n">
-        <v>187.3818521666685</v>
+        <v>193.1609469853306</v>
       </c>
       <c r="L20" t="n">
-        <v>20.5439407274938</v>
+        <v>19.50267944728452</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,16 +2154,16 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7961141460515725</v>
+        <v>0.7724458442392544</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1483829576870829</v>
+        <v>0.06671545000150372</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8919025385947645</v>
+        <v>0.9698596973613665</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>752</v>
+        <v>2353</v>
       </c>
       <c r="B21" t="n">
-        <v>784</v>
+        <v>2386</v>
       </c>
       <c r="C21" t="n">
-        <v>866</v>
+        <v>2452</v>
       </c>
       <c r="D21" t="n">
-        <v>4.936972919712602</v>
+        <v>3.145717989990371</v>
       </c>
       <c r="E21" t="n">
-        <v>4.498190782418741</v>
+        <v>2.471880425809071</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4387821372938616</v>
+        <v>-0.6738375641812995</v>
       </c>
       <c r="G21" t="n">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H21" t="n">
-        <v>44.20923890332074</v>
+        <v>42.1441724563042</v>
       </c>
       <c r="I21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J21" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="K21" t="n">
-        <v>241.6493191444936</v>
+        <v>187.3818521666685</v>
       </c>
       <c r="L21" t="n">
-        <v>14.55539236404956</v>
+        <v>20.5439407274938</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.9317855477557155</v>
+        <v>0.7961141460515725</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.5</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2409283956628819</v>
+        <v>0.1483829576870829</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9480475589145282</v>
+        <v>0.8919025385947645</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2939</v>
+        <v>752</v>
       </c>
       <c r="B22" t="n">
-        <v>2961</v>
+        <v>784</v>
       </c>
       <c r="C22" t="n">
-        <v>2998</v>
+        <v>866</v>
       </c>
       <c r="D22" t="n">
-        <v>2.268423764452632</v>
+        <v>4.936972919712602</v>
       </c>
       <c r="E22" t="n">
-        <v>1.829641627158771</v>
+        <v>4.498190782418741</v>
       </c>
       <c r="F22" t="n">
         <v>-0.4387821372938616</v>
       </c>
       <c r="G22" t="n">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="H22" t="n">
-        <v>18.18695401751302</v>
+        <v>44.20923890332074</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J22" t="n">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>100.9412972608932</v>
+        <v>241.6493191444936</v>
       </c>
       <c r="L22" t="n">
-        <v>6.687862882072376</v>
+        <v>14.55539236404956</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.76460691510104</v>
+        <v>0.9317855477557155</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1885940571345633</v>
+        <v>0.2409283956628819</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8168376422732062</v>
+        <v>0.9480475589145282</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>114</v>
+        <v>2939</v>
       </c>
       <c r="B23" t="n">
-        <v>158</v>
+        <v>2961</v>
       </c>
       <c r="C23" t="n">
-        <v>234</v>
+        <v>2998</v>
       </c>
       <c r="D23" t="n">
-        <v>4.683749869247713</v>
+        <v>2.268423764452632</v>
       </c>
       <c r="E23" t="n">
-        <v>4.185260855117996</v>
+        <v>1.829641627158771</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4984890141297166</v>
+        <v>-0.4387821372938616</v>
       </c>
       <c r="G23" t="n">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="H23" t="n">
-        <v>44.41624843031749</v>
+        <v>18.18695401751302</v>
       </c>
       <c r="I23" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K23" t="n">
-        <v>268.7380991313904</v>
+        <v>100.9412972608932</v>
       </c>
       <c r="L23" t="n">
-        <v>14.03854939290696</v>
+        <v>6.687862882072376</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8012887358154562</v>
+        <v>0.76460691510104</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1534347579416173</v>
+        <v>0.1885940571345633</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9738981314798116</v>
+        <v>0.8168376422732062</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1312</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>1338</v>
+        <v>158</v>
       </c>
       <c r="C24" t="n">
-        <v>1398</v>
+        <v>234</v>
       </c>
       <c r="D24" t="n">
-        <v>2.049655287753999</v>
+        <v>4.683749869247713</v>
       </c>
       <c r="E24" t="n">
-        <v>1.551166273624283</v>
+        <v>4.185260855117996</v>
       </c>
       <c r="F24" t="n">
         <v>-0.4984890141297166</v>
       </c>
       <c r="G24" t="n">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="H24" t="n">
-        <v>131.2293886908981</v>
+        <v>44.41624843031749</v>
       </c>
       <c r="I24" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K24" t="n">
-        <v>119.7719526767544</v>
+        <v>268.7380991313904</v>
       </c>
       <c r="L24" t="n">
-        <v>6.14340812358305</v>
+        <v>14.03854939290696</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,16 +2498,16 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.821409777918363</v>
+        <v>0.8012887358154562</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3245813338107069</v>
+        <v>0.1534347579416173</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8917854923819104</v>
+        <v>0.9738981314798116</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C25" t="n">
         <v>1398</v>
       </c>
-      <c r="B25" t="n">
-        <v>1423</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1465</v>
-      </c>
       <c r="D25" t="n">
-        <v>1.745541635820449</v>
+        <v>2.049655287753999</v>
       </c>
       <c r="E25" t="n">
-        <v>1.247052621690732</v>
+        <v>1.551166273624283</v>
       </c>
       <c r="F25" t="n">
         <v>-0.4984890141297166</v>
       </c>
       <c r="G25" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H25" t="n">
-        <v>28.87909264315567</v>
+        <v>131.2293886908981</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J25" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>74.1673121883463</v>
+        <v>119.7719526767544</v>
       </c>
       <c r="L25" t="n">
-        <v>5.231891786692886</v>
+        <v>6.14340812358305</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8450164377202175</v>
+        <v>0.821409777918363</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2606061477779102</v>
+        <v>0.3245813338107069</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9679280449593944</v>
+        <v>0.8917854923819104</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2716</v>
+        <v>1398</v>
       </c>
       <c r="B26" t="n">
-        <v>2735</v>
+        <v>1423</v>
       </c>
       <c r="C26" t="n">
-        <v>2798</v>
+        <v>1465</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7294250197623193</v>
+        <v>1.745541635820449</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3127458804123104</v>
+        <v>1.247052621690732</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4166791393500089</v>
+        <v>-0.4984890141297166</v>
       </c>
       <c r="G26" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H26" t="n">
-        <v>36.96244014406602</v>
+        <v>28.87909264315567</v>
       </c>
       <c r="I26" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J26" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="K26" t="n">
-        <v>25.93486878915948</v>
+        <v>74.1673121883463</v>
       </c>
       <c r="L26" t="n">
-        <v>5.160303303895661</v>
+        <v>5.231891786692886</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.9518191706540797</v>
+        <v>0.8450164377202175</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3163889631523634</v>
+        <v>0.2606061477779102</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9374019302139964</v>
+        <v>0.9679280449593944</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>205</v>
+        <v>805</v>
       </c>
       <c r="B27" t="n">
-        <v>235</v>
+        <v>826</v>
       </c>
       <c r="C27" t="n">
-        <v>410</v>
+        <v>885</v>
       </c>
       <c r="D27" t="n">
-        <v>4.39490437613416</v>
+        <v>0.7227105101620924</v>
       </c>
       <c r="E27" t="n">
-        <v>3.866164443268007</v>
+        <v>0.3060313708120835</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5287399328661534</v>
+        <v>-0.4166791393500089</v>
       </c>
       <c r="G27" t="n">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
-        <v>225.996749941234</v>
+        <v>104.8509475407249</v>
       </c>
       <c r="I27" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J27" t="n">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="K27" t="n">
-        <v>516.0244926125357</v>
+        <v>41.01528630842946</v>
       </c>
       <c r="L27" t="n">
-        <v>24.10733118566812</v>
+        <v>5.11280163458717</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8337015836433159</v>
+        <v>0.793137092150327</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3157830302818987</v>
+        <v>0.2092614221692937</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8299638511062484</v>
+        <v>0.6384780567009631</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>515</v>
+        <v>2716</v>
       </c>
       <c r="B28" t="n">
-        <v>539</v>
+        <v>2735</v>
       </c>
       <c r="C28" t="n">
-        <v>580</v>
+        <v>2798</v>
       </c>
       <c r="D28" t="n">
-        <v>2.021786859712619</v>
+        <v>0.7294250197623193</v>
       </c>
       <c r="E28" t="n">
-        <v>1.454378506462529</v>
+        <v>0.3127458804123104</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.567408353250091</v>
+        <v>-0.4166791393500089</v>
       </c>
       <c r="G28" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H28" t="n">
-        <v>23.60107515771244</v>
+        <v>36.96244014406602</v>
       </c>
       <c r="I28" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J28" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="K28" t="n">
-        <v>86.86924355406477</v>
+        <v>25.93486878915948</v>
       </c>
       <c r="L28" t="n">
-        <v>4.399657776228433</v>
+        <v>5.160303303895661</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7939728019948773</v>
+        <v>0.9518191706540797</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1586829906405753</v>
+        <v>0.3163889631523634</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9424073760366108</v>
+        <v>0.9374019302139964</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B29" t="n">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C29" t="n">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="D29" t="n">
-        <v>3.058936680026465</v>
+        <v>4.39490437613416</v>
       </c>
       <c r="E29" t="n">
-        <v>2.511223595090207</v>
+        <v>3.866164443268007</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5477130849362586</v>
+        <v>-0.5287399328661534</v>
       </c>
       <c r="G29" t="n">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="H29" t="n">
-        <v>41.69670233287013</v>
+        <v>225.996749941234</v>
       </c>
       <c r="I29" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J29" t="n">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="K29" t="n">
-        <v>327.0795612759862</v>
+        <v>516.0244926125357</v>
       </c>
       <c r="L29" t="n">
-        <v>7.003485837354588</v>
+        <v>24.10733118566812</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.5591360248826012</v>
+        <v>0.8337015836433159</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.198443579766537</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R29" t="n">
-        <v>0.7702962725881003</v>
+        <v>0.3157830302818987</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2700234817769757</v>
+        <v>0.8299638511062484</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2806</v>
+        <v>515</v>
       </c>
       <c r="B30" t="n">
-        <v>2856</v>
+        <v>539</v>
       </c>
       <c r="C30" t="n">
-        <v>2998</v>
+        <v>580</v>
       </c>
       <c r="D30" t="n">
-        <v>2.328733514732471</v>
+        <v>2.021786859712619</v>
       </c>
       <c r="E30" t="n">
-        <v>1.917254936085103</v>
+        <v>1.454378506462529</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4114785786473686</v>
+        <v>-0.567408353250091</v>
       </c>
       <c r="G30" t="n">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="H30" t="n">
-        <v>58.40479836666918</v>
+        <v>23.60107515771244</v>
       </c>
       <c r="I30" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="K30" t="n">
-        <v>233.3637340569438</v>
+        <v>86.86924355406477</v>
       </c>
       <c r="L30" t="n">
-        <v>5.887328789732026</v>
+        <v>4.399657776228433</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7651652634278066</v>
+        <v>0.7939728019948773</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.352112676056338</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4125014714329383</v>
+        <v>0.1586829906405753</v>
       </c>
       <c r="S30" t="n">
-        <v>0.3990134684553541</v>
+        <v>0.9424073760366108</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1626</v>
+        <v>580</v>
       </c>
       <c r="B31" t="n">
-        <v>1653</v>
+        <v>600</v>
       </c>
       <c r="C31" t="n">
-        <v>1913</v>
+        <v>647</v>
       </c>
       <c r="D31" t="n">
-        <v>2.825633590757121</v>
+        <v>1.989110960259266</v>
       </c>
       <c r="E31" t="n">
-        <v>2.247417732504086</v>
+        <v>1.421702607009175</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5782158582530356</v>
+        <v>-0.567408353250091</v>
       </c>
       <c r="G31" t="n">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="H31" t="n">
-        <v>26.38410385693464</v>
+        <v>25.70727156420389</v>
       </c>
       <c r="I31" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J31" t="n">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="K31" t="n">
-        <v>386.0889911502392</v>
+        <v>108.3071837888617</v>
       </c>
       <c r="L31" t="n">
-        <v>8.323736351838598</v>
+        <v>4.328550985502906</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7441389750919551</v>
+        <v>0.8265033913940535</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1038461538461539</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4589890234040849</v>
+        <v>0.1548312759291935</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7964037887467333</v>
+        <v>0.8039242677586909</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2404</v>
+        <v>170</v>
       </c>
       <c r="B32" t="n">
-        <v>2429</v>
+        <v>221</v>
       </c>
       <c r="C32" t="n">
-        <v>2499</v>
+        <v>478</v>
       </c>
       <c r="D32" t="n">
-        <v>2.524420543662235</v>
+        <v>3.058936680026465</v>
       </c>
       <c r="E32" t="n">
-        <v>1.974589710908041</v>
+        <v>2.511223595090207</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5498308327541938</v>
+        <v>-0.5477130849362586</v>
       </c>
       <c r="G32" t="n">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="H32" t="n">
-        <v>29.6441677188991</v>
+        <v>41.69670233287013</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J32" t="n">
-        <v>70</v>
+        <v>257</v>
       </c>
       <c r="K32" t="n">
-        <v>122.6548716997841</v>
+        <v>327.0795612759862</v>
       </c>
       <c r="L32" t="n">
-        <v>6.949782220644957</v>
+        <v>7.003485837354588</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.9045846470089056</v>
+        <v>0.5591360248826012</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.198443579766537</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3133476990260499</v>
+        <v>0.7702962725881003</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9024348278409693</v>
+        <v>0.2700234817769757</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>420</v>
+        <v>2806</v>
       </c>
       <c r="B33" t="n">
-        <v>446</v>
+        <v>2856</v>
       </c>
       <c r="C33" t="n">
-        <v>516</v>
+        <v>2998</v>
       </c>
       <c r="D33" t="n">
-        <v>2.177891632617773</v>
+        <v>2.328733514732471</v>
       </c>
       <c r="E33" t="n">
-        <v>1.702861876826822</v>
+        <v>1.917254936085103</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4750297557909506</v>
+        <v>-0.4114785786473686</v>
       </c>
       <c r="G33" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="H33" t="n">
-        <v>145.307748615276</v>
+        <v>58.40479836666918</v>
       </c>
       <c r="I33" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J33" t="n">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="K33" t="n">
-        <v>125.6141227886112</v>
+        <v>233.3637340569438</v>
       </c>
       <c r="L33" t="n">
-        <v>5.476152414332427</v>
+        <v>5.887328789732026</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8434556987820166</v>
+        <v>0.7651652634278066</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2670741831233553</v>
+        <v>0.4125014714329383</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8679548866276344</v>
+        <v>0.3990134684553541</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>858</v>
+        <v>1626</v>
       </c>
       <c r="B34" t="n">
-        <v>886</v>
+        <v>1653</v>
       </c>
       <c r="C34" t="n">
-        <v>932</v>
+        <v>1913</v>
       </c>
       <c r="D34" t="n">
-        <v>2.473152217715022</v>
+        <v>2.825633590757121</v>
       </c>
       <c r="E34" t="n">
-        <v>1.874675422765238</v>
+        <v>2.247417732504086</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5984767949497842</v>
+        <v>-0.5782158582530356</v>
       </c>
       <c r="G34" t="n">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="H34" t="n">
-        <v>37.34385070279552</v>
+        <v>26.38410385693464</v>
       </c>
       <c r="I34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="K34" t="n">
-        <v>113.4459913827303</v>
+        <v>386.0889911502392</v>
       </c>
       <c r="L34" t="n">
-        <v>6.618049345712878</v>
+        <v>8.323736351838598</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8212958286204657</v>
+        <v>0.7441389750919551</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.1038461538461539</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2564867301413334</v>
+        <v>0.4589890234040849</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9580716212564334</v>
+        <v>0.7964037887467333</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>932</v>
+        <v>2404</v>
       </c>
       <c r="B35" t="n">
-        <v>971</v>
+        <v>2429</v>
       </c>
       <c r="C35" t="n">
-        <v>1046</v>
+        <v>2499</v>
       </c>
       <c r="D35" t="n">
-        <v>2.309738237459706</v>
+        <v>2.524420543662235</v>
       </c>
       <c r="E35" t="n">
-        <v>1.711261442509921</v>
+        <v>1.974589710908041</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5984767949497842</v>
+        <v>-0.5498308327541938</v>
       </c>
       <c r="G35" t="n">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H35" t="n">
-        <v>42.53732186262982</v>
+        <v>29.6441677188991</v>
       </c>
       <c r="I35" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K35" t="n">
-        <v>176.3219686761982</v>
+        <v>122.6548716997841</v>
       </c>
       <c r="L35" t="n">
-        <v>6.180760537784901</v>
+        <v>6.949782220644957</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.826862219176476</v>
+        <v>0.9045846470089056</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.52</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2054143357845089</v>
+        <v>0.3133476990260499</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7816359270636701</v>
+        <v>0.9024348278409693</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1046</v>
+        <v>420</v>
       </c>
       <c r="B36" t="n">
-        <v>1093</v>
+        <v>446</v>
       </c>
       <c r="C36" t="n">
-        <v>1316</v>
+        <v>516</v>
       </c>
       <c r="D36" t="n">
-        <v>3.747317334856595</v>
+        <v>2.177891632617773</v>
       </c>
       <c r="E36" t="n">
-        <v>3.148840539906811</v>
+        <v>1.702861876826822</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5984767949497842</v>
+        <v>-0.4750297557909506</v>
       </c>
       <c r="G36" t="n">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="H36" t="n">
-        <v>140.7606244090141</v>
+        <v>145.307748615276</v>
       </c>
       <c r="I36" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J36" t="n">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="K36" t="n">
-        <v>404.2683446429493</v>
+        <v>125.6141227886112</v>
       </c>
       <c r="L36" t="n">
-        <v>10.02766059383081</v>
+        <v>5.476152414332427</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8589422113345236</v>
+        <v>0.8434556987820166</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.210762331838565</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3481256824483223</v>
+        <v>0.2670741831233553</v>
       </c>
       <c r="S36" t="n">
-        <v>0.8914097713580299</v>
+        <v>0.8679548866276344</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,65 +3567,65 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1316</v>
+        <v>858</v>
       </c>
       <c r="B37" t="n">
-        <v>1438</v>
+        <v>886</v>
       </c>
       <c r="C37" t="n">
-        <v>1756</v>
+        <v>932</v>
       </c>
       <c r="D37" t="n">
-        <v>2.678440831932352</v>
+        <v>2.473152217715022</v>
       </c>
       <c r="E37" t="n">
-        <v>2.079964036982568</v>
+        <v>1.874675422765238</v>
       </c>
       <c r="F37" t="n">
         <v>-0.5984767949497842</v>
       </c>
       <c r="G37" t="n">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="H37" t="n">
-        <v>95.45636021276459</v>
+        <v>37.34385070279552</v>
       </c>
       <c r="I37" t="n">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="J37" t="n">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="K37" t="n">
-        <v>520.5914693701052</v>
+        <v>113.4459913827303</v>
       </c>
       <c r="L37" t="n">
-        <v>7.167392879552678</v>
+        <v>6.618049345712878</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1348), 'value': np.float64(0.6251131208638586), 'amplitude': np.float64(1.2235899158136427), 'start_idx': np.int64(1317), 'end_idx': np.int64(1368), 'duration': np.float64(51.0), 'fwhm': np.float64(17.827175497683584), 'rise_time': np.float64(31.0), 'decay_time': np.float64(20.0), 'auc': np.float64(33.27657342579501)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.6282035064429038</v>
+        <v>0.8212958286204657</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3836477987421384</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2719235047304617</v>
+        <v>0.2564867301413334</v>
       </c>
       <c r="S37" t="n">
-        <v>0.581564087743019</v>
+        <v>0.9580716212564334</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1756</v>
+        <v>932</v>
       </c>
       <c r="B38" t="n">
-        <v>1797</v>
+        <v>971</v>
       </c>
       <c r="C38" t="n">
-        <v>1861</v>
+        <v>1046</v>
       </c>
       <c r="D38" t="n">
-        <v>2.358740865998666</v>
+        <v>2.309738237459706</v>
       </c>
       <c r="E38" t="n">
-        <v>1.760264071048881</v>
+        <v>1.711261442509921</v>
       </c>
       <c r="F38" t="n">
         <v>-0.5984767949497842</v>
       </c>
       <c r="G38" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H38" t="n">
-        <v>65.14962116275092</v>
+        <v>42.53732186262982</v>
       </c>
       <c r="I38" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J38" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K38" t="n">
-        <v>157.5149866465187</v>
+        <v>176.3219686761982</v>
       </c>
       <c r="L38" t="n">
-        <v>6.311889471708792</v>
+        <v>6.180760537784901</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7019620184576122</v>
+        <v>0.826862219176476</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.640625</v>
+        <v>0.52</v>
       </c>
       <c r="R38" t="n">
-        <v>0.158505704350836</v>
+        <v>0.2054143357845089</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7837952070452702</v>
+        <v>0.7816359270636701</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B39" t="n">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C39" t="n">
-        <v>1156</v>
+        <v>1316</v>
       </c>
       <c r="D39" t="n">
-        <v>5.027852905239094</v>
+        <v>3.747317334856595</v>
       </c>
       <c r="E39" t="n">
-        <v>4.526142887401402</v>
+        <v>3.148840539906811</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5017100178376914</v>
+        <v>-0.5984767949497842</v>
       </c>
       <c r="G39" t="n">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="H39" t="n">
-        <v>79.83407117287948</v>
+        <v>140.7606244090141</v>
       </c>
       <c r="I39" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J39" t="n">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="K39" t="n">
-        <v>284.755025741246</v>
+        <v>404.2683446429493</v>
       </c>
       <c r="L39" t="n">
-        <v>15.06684062183806</v>
+        <v>10.02766059383081</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.7848390186486988</v>
+        <v>0.8589422113345236</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.210762331838565</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1695678423238519</v>
+        <v>0.3481256824483223</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9025348560432594</v>
+        <v>0.8914097713580299</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>673</v>
+        <v>1316</v>
       </c>
       <c r="B40" t="n">
-        <v>701</v>
+        <v>1438</v>
       </c>
       <c r="C40" t="n">
-        <v>767</v>
+        <v>1756</v>
       </c>
       <c r="D40" t="n">
-        <v>2.043836894157155</v>
+        <v>2.678440831932352</v>
       </c>
       <c r="E40" t="n">
-        <v>1.568237841597487</v>
+        <v>2.079964036982568</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4755990525596681</v>
+        <v>-0.5984767949497842</v>
       </c>
       <c r="G40" t="n">
-        <v>94</v>
+        <v>440</v>
       </c>
       <c r="H40" t="n">
-        <v>80.3723467255893</v>
+        <v>95.45636021276459</v>
       </c>
       <c r="I40" t="n">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J40" t="n">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22963592187784</v>
+        <v>520.5914693701052</v>
       </c>
       <c r="L40" t="n">
-        <v>5.830058095429012</v>
+        <v>7.167392879552678</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3870,28 +3870,28 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(751), 'value': np.float64(0.682741230180892), 'amplitude': np.float64(1.15834028274056), 'start_idx': np.int64(729), 'end_idx': np.int64(766), 'duration': np.float64(37.0), 'fwhm': np.float64(18.65066328443072), 'rise_time': np.float64(22.0), 'decay_time': np.float64(15.0), 'auc': np.float64(29.668454502417738)}]</t>
+          <t>[{'index': np.int64(1348), 'value': np.float64(0.6251131208638586), 'amplitude': np.float64(1.2235899158136427), 'start_idx': np.int64(1317), 'end_idx': np.int64(1368), 'duration': np.float64(51.0), 'fwhm': np.float64(17.827175497683584), 'rise_time': np.float64(31.0), 'decay_time': np.float64(20.0), 'auc': np.float64(33.27657342579501)}]</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7451684020288802</v>
+        <v>0.6282035064429038</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.3836477987421384</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3788128813501127</v>
+        <v>0.2719235047304617</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4625274711193142</v>
+        <v>0.581564087743019</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,73 +3911,73 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2801</v>
+        <v>1756</v>
       </c>
       <c r="B41" t="n">
-        <v>2874</v>
+        <v>1797</v>
       </c>
       <c r="C41" t="n">
-        <v>2998</v>
+        <v>1861</v>
       </c>
       <c r="D41" t="n">
-        <v>1.506868637141064</v>
+        <v>2.358740865998666</v>
       </c>
       <c r="E41" t="n">
-        <v>1.031269584581396</v>
+        <v>1.760264071048881</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4755990525596681</v>
+        <v>-0.5984767949497842</v>
       </c>
       <c r="G41" t="n">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="H41" t="n">
-        <v>38.90577928107587</v>
+        <v>65.14962116275092</v>
       </c>
       <c r="I41" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J41" t="n">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="K41" t="n">
-        <v>178.2706567103328</v>
+        <v>157.5149866465187</v>
       </c>
       <c r="L41" t="n">
-        <v>4.298352633630869</v>
+        <v>6.311889471708792</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2965), 'value': np.float64(0.7807099979329248), 'amplitude': np.float64(1.256309050492593), 'start_idx': np.int64(2947), 'end_idx': np.int64(2989), 'duration': np.float64(42.0), 'fwhm': np.float64(16.435325661384468), 'rise_time': np.float64(18.0), 'decay_time': np.float64(24.0), 'auc': np.float64(35.61960448342825)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.5345701202494639</v>
+        <v>0.7019620184576122</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.5887096774193549</v>
+        <v>0.640625</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3052275489322063</v>
+        <v>0.158505704350836</v>
       </c>
       <c r="S41" t="n">
-        <v>0.5243235643766913</v>
+        <v>0.7837952070452702</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>239</v>
+        <v>1060</v>
       </c>
       <c r="B42" t="n">
-        <v>270</v>
+        <v>1090</v>
       </c>
       <c r="C42" t="n">
-        <v>339</v>
+        <v>1156</v>
       </c>
       <c r="D42" t="n">
-        <v>2.865394408672725</v>
+        <v>5.027852905239094</v>
       </c>
       <c r="E42" t="n">
-        <v>2.245503948224254</v>
+        <v>4.526142887401402</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6198904604484717</v>
+        <v>-0.5017100178376914</v>
       </c>
       <c r="G42" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H42" t="n">
-        <v>83.75681985277333</v>
+        <v>79.83407117287948</v>
       </c>
       <c r="I42" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J42" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K42" t="n">
-        <v>194.3885800097963</v>
+        <v>284.755025741246</v>
       </c>
       <c r="L42" t="n">
-        <v>14.14934737369345</v>
+        <v>15.06684062183806</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8232176265737572</v>
+        <v>0.7848390186486988</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4492753623188406</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="R42" t="n">
-        <v>0.6056874094767719</v>
+        <v>0.1695678423238519</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8603288596794986</v>
+        <v>0.9025348560432594</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,73 +4083,73 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>339</v>
+        <v>673</v>
       </c>
       <c r="B43" t="n">
-        <v>372</v>
+        <v>701</v>
       </c>
       <c r="C43" t="n">
-        <v>480</v>
+        <v>767</v>
       </c>
       <c r="D43" t="n">
-        <v>2.521994622181698</v>
+        <v>2.043836894157155</v>
       </c>
       <c r="E43" t="n">
-        <v>1.902104161733227</v>
+        <v>1.568237841597487</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6198904604484717</v>
+        <v>-0.4755990525596681</v>
       </c>
       <c r="G43" t="n">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="H43" t="n">
-        <v>29.17518329950292</v>
+        <v>80.3723467255893</v>
       </c>
       <c r="I43" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J43" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="K43" t="n">
-        <v>158.1521617004357</v>
+        <v>96.22963592187784</v>
       </c>
       <c r="L43" t="n">
-        <v>12.45363565861253</v>
+        <v>5.830058095429012</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(751), 'value': np.float64(0.682741230180892), 'amplitude': np.float64(1.15834028274056), 'start_idx': np.int64(729), 'end_idx': np.int64(766), 'duration': np.float64(37.0), 'fwhm': np.float64(18.65066328443072), 'rise_time': np.float64(22.0), 'decay_time': np.float64(15.0), 'auc': np.float64(29.668454502417738)}]</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8756251869331415</v>
+        <v>0.7451684020288802</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5624588852798335</v>
+        <v>0.3788128813501127</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8954952747705107</v>
+        <v>0.4625274711193142</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,73 +4169,73 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2501</v>
+        <v>2801</v>
       </c>
       <c r="B44" t="n">
-        <v>2534</v>
+        <v>2874</v>
       </c>
       <c r="C44" t="n">
-        <v>2670</v>
+        <v>2998</v>
       </c>
       <c r="D44" t="n">
-        <v>3.865089989695086</v>
+        <v>1.506868637141064</v>
       </c>
       <c r="E44" t="n">
-        <v>3.245199529246614</v>
+        <v>1.031269584581396</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6198904604484717</v>
+        <v>-0.4755990525596681</v>
       </c>
       <c r="G44" t="n">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="H44" t="n">
-        <v>180.4346195415351</v>
+        <v>38.90577928107587</v>
       </c>
       <c r="I44" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J44" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K44" t="n">
-        <v>310.5820356385674</v>
+        <v>178.2706567103328</v>
       </c>
       <c r="L44" t="n">
-        <v>19.08585454388221</v>
+        <v>4.298352633630869</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2965), 'value': np.float64(0.7807099979329248), 'amplitude': np.float64(1.256309050492593), 'start_idx': np.int64(2947), 'end_idx': np.int64(2989), 'duration': np.float64(42.0), 'fwhm': np.float64(16.435325661384468), 'rise_time': np.float64(18.0), 'decay_time': np.float64(24.0), 'auc': np.float64(35.61960448342825)}]</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8971402475018008</v>
+        <v>0.5345701202494639</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.2426470588235294</v>
+        <v>0.5887096774193549</v>
       </c>
       <c r="R44" t="n">
-        <v>0.5529798422299027</v>
+        <v>0.3052275489322063</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9577489161247665</v>
+        <v>0.5243235643766913</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B45" t="n">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C45" t="n">
-        <v>424</v>
+        <v>339</v>
       </c>
       <c r="D45" t="n">
-        <v>2.770604958346366</v>
+        <v>2.865394408672725</v>
       </c>
       <c r="E45" t="n">
-        <v>2.316782194665282</v>
+        <v>2.245503948224254</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.4538227636810838</v>
+        <v>-0.6198904604484717</v>
       </c>
       <c r="G45" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>130.0277918587542</v>
+        <v>83.75681985277333</v>
       </c>
       <c r="I45" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J45" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="K45" t="n">
-        <v>359.1514998921657</v>
+        <v>194.3885800097963</v>
       </c>
       <c r="L45" t="n">
-        <v>5.948794310961595</v>
+        <v>14.14934737369345</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.5694167843179769</v>
+        <v>0.8232176265737572</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5210084033613446</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1644335015690791</v>
+        <v>0.6056874094767719</v>
       </c>
       <c r="S45" t="n">
-        <v>0.7250401779426119</v>
+        <v>0.8603288596794986</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>424</v>
+        <v>339</v>
       </c>
       <c r="B46" t="n">
-        <v>456</v>
+        <v>372</v>
       </c>
       <c r="C46" t="n">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="D46" t="n">
-        <v>3.225707879423482</v>
+        <v>2.521994622181698</v>
       </c>
       <c r="E46" t="n">
-        <v>2.771885115742398</v>
+        <v>1.902104161733227</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.4538227636810838</v>
+        <v>-0.6198904604484717</v>
       </c>
       <c r="G46" t="n">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="H46" t="n">
-        <v>182.1690336249336</v>
+        <v>29.17518329950292</v>
       </c>
       <c r="I46" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="K46" t="n">
-        <v>170.4834508838645</v>
+        <v>158.1521617004357</v>
       </c>
       <c r="L46" t="n">
-        <v>6.925950458628858</v>
+        <v>12.45363565861253</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.6501027520453969</v>
+        <v>0.8756251869331415</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.64</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09048132568858488</v>
+        <v>0.5624588852798335</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9872033941022613</v>
+        <v>0.8954952747705107</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>202</v>
+        <v>2501</v>
       </c>
       <c r="B47" t="n">
-        <v>226</v>
+        <v>2534</v>
       </c>
       <c r="C47" t="n">
-        <v>323</v>
+        <v>2670</v>
       </c>
       <c r="D47" t="n">
-        <v>2.15347707638955</v>
+        <v>3.865089989695086</v>
       </c>
       <c r="E47" t="n">
-        <v>1.535465356737275</v>
+        <v>3.245199529246614</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6180117196522751</v>
+        <v>-0.6198904604484717</v>
       </c>
       <c r="G47" t="n">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="H47" t="n">
-        <v>21.80985780094227</v>
+        <v>180.4346195415351</v>
       </c>
       <c r="I47" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J47" t="n">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="K47" t="n">
-        <v>208.3871328253866</v>
+        <v>310.5820356385674</v>
       </c>
       <c r="L47" t="n">
-        <v>8.912139713060515</v>
+        <v>19.08585454388221</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.6693463005617217</v>
+        <v>0.8971402475018008</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2474226804123711</v>
+        <v>0.2426470588235294</v>
       </c>
       <c r="R47" t="n">
-        <v>0.09464613032946939</v>
+        <v>0.5529798422299027</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5508832261840795</v>
+        <v>0.9577489161247665</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2029</v>
+        <v>243</v>
       </c>
       <c r="B48" t="n">
-        <v>2064</v>
+        <v>305</v>
       </c>
       <c r="C48" t="n">
-        <v>2122</v>
+        <v>424</v>
       </c>
       <c r="D48" t="n">
-        <v>2.366561541768526</v>
+        <v>2.770604958346366</v>
       </c>
       <c r="E48" t="n">
-        <v>1.74854982211625</v>
+        <v>2.316782194665282</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.6180117196522751</v>
+        <v>-0.4538227636810838</v>
       </c>
       <c r="G48" t="n">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="H48" t="n">
-        <v>33.40332047388847</v>
+        <v>130.0277918587542</v>
       </c>
       <c r="I48" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="J48" t="n">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="K48" t="n">
-        <v>116.7833362200568</v>
+        <v>359.1514998921657</v>
       </c>
       <c r="L48" t="n">
-        <v>9.793987282724039</v>
+        <v>5.948794310961595</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.8455107422868551</v>
+        <v>0.5694167843179769</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.603448275862069</v>
+        <v>0.5210084033613446</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2779877219393881</v>
+        <v>0.1644335015690791</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9559957340387781</v>
+        <v>0.7250401779426119</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1482</v>
+        <v>424</v>
       </c>
       <c r="B49" t="n">
-        <v>1513</v>
+        <v>456</v>
       </c>
       <c r="C49" t="n">
-        <v>1706</v>
+        <v>506</v>
       </c>
       <c r="D49" t="n">
-        <v>3.29824614621541</v>
+        <v>3.225707879423482</v>
       </c>
       <c r="E49" t="n">
-        <v>2.658143822851236</v>
+        <v>2.771885115742398</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.6401023233641733</v>
+        <v>-0.4538227636810838</v>
       </c>
       <c r="G49" t="n">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="H49" t="n">
-        <v>134.4080569147027</v>
+        <v>182.1690336249336</v>
       </c>
       <c r="I49" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J49" t="n">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
-        <v>346.4169032646985</v>
+        <v>170.4834508838645</v>
       </c>
       <c r="L49" t="n">
-        <v>12.05533210505795</v>
+        <v>6.925950458628858</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,36 +4648,294 @@
         </is>
       </c>
       <c r="P49" t="n">
+        <v>0.6501027520453969</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.09048132568858488</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9872033941022613</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>143</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>202</v>
+      </c>
+      <c r="B50" t="n">
+        <v>226</v>
+      </c>
+      <c r="C50" t="n">
+        <v>323</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.15347707638955</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.535465356737275</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.6180117196522751</v>
+      </c>
+      <c r="G50" t="n">
+        <v>121</v>
+      </c>
+      <c r="H50" t="n">
+        <v>21.80985780094227</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>97</v>
+      </c>
+      <c r="K50" t="n">
+        <v>208.3871328253866</v>
+      </c>
+      <c r="L50" t="n">
+        <v>8.912139713060515</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6693463005617217</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.2474226804123711</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.09464613032946939</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.5508832261840795</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>144</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2064</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2122</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.366561541768526</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.74854982211625</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.6180117196522751</v>
+      </c>
+      <c r="G51" t="n">
+        <v>93</v>
+      </c>
+      <c r="H51" t="n">
+        <v>33.40332047388847</v>
+      </c>
+      <c r="I51" t="n">
+        <v>35</v>
+      </c>
+      <c r="J51" t="n">
+        <v>58</v>
+      </c>
+      <c r="K51" t="n">
+        <v>116.7833362200568</v>
+      </c>
+      <c r="L51" t="n">
+        <v>9.793987282724039</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8455107422868551</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.603448275862069</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2779877219393881</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9559957340387781</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>145</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1482</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1513</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.29824614621541</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.658143822851236</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.6401023233641733</v>
+      </c>
+      <c r="G52" t="n">
+        <v>224</v>
+      </c>
+      <c r="H52" t="n">
+        <v>134.4080569147027</v>
+      </c>
+      <c r="I52" t="n">
+        <v>31</v>
+      </c>
+      <c r="J52" t="n">
+        <v>193</v>
+      </c>
+      <c r="K52" t="n">
+        <v>346.4169032646985</v>
+      </c>
+      <c r="L52" t="n">
+        <v>12.05533210505795</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
         <v>0.8628238782935722</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q52" t="n">
         <v>0.1606217616580311</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R52" t="n">
         <v>0.3030339003963866</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S52" t="n">
         <v>0.867165930319119</v>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>n34</t>
         </is>
       </c>
-      <c r="U49" t="n">
-        <v>137</v>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
+      <c r="U52" t="n">
+        <v>146</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday6\processed_2979241014CSDSDay6EM2024-12-05214309trace.xlsx</t>
         </is>
